--- a/Informacion/TRABAJOS DE GRADO.xlsx
+++ b/Informacion/TRABAJOS DE GRADO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/Mi unidad/A Director_LIC_MAT/AUTOEVALUACION/SISTEMA DE INFORMACIÓN /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\Angular\SIAP\Informacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82BE60A-82F4-0B4D-8521-86402E0ED715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16245"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="C132" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C132" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2574,7 +2573,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3266,38 +3265,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="57" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="57" customWidth="1"/>
     <col min="3" max="3" width="43" style="57" customWidth="1"/>
-    <col min="4" max="5" width="26.1640625" style="57" customWidth="1"/>
+    <col min="4" max="5" width="26.125" style="57" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="57" customWidth="1"/>
-    <col min="7" max="7" width="29.1640625" style="57" customWidth="1"/>
+    <col min="7" max="7" width="29.125" style="57" customWidth="1"/>
     <col min="8" max="8" width="31" style="57" customWidth="1"/>
     <col min="9" max="9" width="24" style="57" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" style="57" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" style="57" customWidth="1"/>
-    <col min="12" max="15" width="32.1640625" style="57" customWidth="1"/>
-    <col min="16" max="16" width="31.6640625" style="57" customWidth="1"/>
-    <col min="17" max="17" width="32.1640625" style="57" customWidth="1"/>
-    <col min="18" max="18" width="31.83203125" style="57" customWidth="1"/>
-    <col min="19" max="19" width="31.6640625" style="57" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="57" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="57" customWidth="1"/>
+    <col min="12" max="15" width="32.125" style="57" customWidth="1"/>
+    <col min="16" max="16" width="31.625" style="57" customWidth="1"/>
+    <col min="17" max="17" width="32.125" style="57" customWidth="1"/>
+    <col min="18" max="18" width="31.875" style="57" customWidth="1"/>
+    <col min="19" max="19" width="31.625" style="57" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="18.5" style="57" hidden="1" customWidth="1"/>
     <col min="21" max="22" width="18.5" style="57" customWidth="1"/>
-    <col min="23" max="35" width="9.33203125" style="57" customWidth="1"/>
-    <col min="36" max="16384" width="12.6640625" style="57"/>
+    <col min="23" max="35" width="9.375" style="57" customWidth="1"/>
+    <col min="36" max="16384" width="12.625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" ht="63" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3376,7 +3375,7 @@
       <c r="AH1" s="5"/>
       <c r="AI1" s="5"/>
     </row>
-    <row r="2" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3435,7 +3434,7 @@
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
     </row>
-    <row r="3" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3494,7 +3493,7 @@
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
     </row>
-    <row r="4" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3553,7 +3552,7 @@
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
     </row>
-    <row r="5" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3610,7 +3609,7 @@
       <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
     </row>
-    <row r="6" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3665,7 +3664,7 @@
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
     </row>
-    <row r="7" spans="1:35" ht="34" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3720,7 +3719,7 @@
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
     </row>
-    <row r="8" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3779,7 +3778,7 @@
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
     </row>
-    <row r="9" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>136</v>
       </c>
@@ -3846,7 +3845,7 @@
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
     </row>
-    <row r="10" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3903,7 +3902,7 @@
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
     </row>
-    <row r="11" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -3964,7 +3963,7 @@
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
     </row>
-    <row r="12" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4017,7 +4016,7 @@
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
     </row>
-    <row r="13" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4076,7 +4075,7 @@
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
     </row>
-    <row r="14" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4135,7 +4134,7 @@
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
     </row>
-    <row r="15" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4194,7 +4193,7 @@
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
     </row>
-    <row r="16" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4253,7 +4252,7 @@
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
     </row>
-    <row r="17" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4312,7 +4311,7 @@
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
     </row>
-    <row r="18" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4371,7 +4370,7 @@
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
     </row>
-    <row r="19" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4430,7 +4429,7 @@
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
     </row>
-    <row r="20" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>8</v>
       </c>
@@ -4487,7 +4486,7 @@
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
     </row>
-    <row r="21" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4550,7 +4549,7 @@
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
     </row>
-    <row r="22" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4613,7 +4612,7 @@
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
     </row>
-    <row r="23" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="90" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4670,7 +4669,7 @@
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
     </row>
-    <row r="24" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4733,7 +4732,7 @@
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
     </row>
-    <row r="25" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4788,7 +4787,7 @@
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
     </row>
-    <row r="26" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -4845,7 +4844,7 @@
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>99</v>
       </c>
@@ -4904,7 +4903,7 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
     </row>
-    <row r="28" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4963,7 +4962,7 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
     </row>
-    <row r="29" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -5026,7 +5025,7 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
     </row>
-    <row r="30" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -5087,7 +5086,7 @@
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
     </row>
-    <row r="31" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -5150,7 +5149,7 @@
       <c r="AH31" s="8"/>
       <c r="AI31" s="8"/>
     </row>
-    <row r="32" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -5213,7 +5212,7 @@
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
     </row>
-    <row r="33" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -5276,7 +5275,7 @@
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
     </row>
-    <row r="34" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -5337,7 +5336,7 @@
       <c r="AH34" s="8"/>
       <c r="AI34" s="8"/>
     </row>
-    <row r="35" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -5396,7 +5395,7 @@
       <c r="AH35" s="8"/>
       <c r="AI35" s="8"/>
     </row>
-    <row r="36" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -5453,7 +5452,7 @@
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
     </row>
-    <row r="37" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -5514,7 +5513,7 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
     </row>
-    <row r="38" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -5577,7 +5576,7 @@
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
     </row>
-    <row r="39" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -5632,7 +5631,7 @@
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
     </row>
-    <row r="40" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -5691,7 +5690,7 @@
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
     </row>
-    <row r="41" spans="1:35" ht="119" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="105" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -5750,7 +5749,7 @@
       <c r="AH41" s="8"/>
       <c r="AI41" s="8"/>
     </row>
-    <row r="42" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -5805,7 +5804,7 @@
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
     </row>
-    <row r="43" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="90" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -5862,7 +5861,7 @@
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
     </row>
-    <row r="44" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -5923,7 +5922,7 @@
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
     </row>
-    <row r="45" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -5980,7 +5979,7 @@
       <c r="AH45" s="8"/>
       <c r="AI45" s="8"/>
     </row>
-    <row r="46" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="90" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -6039,7 +6038,7 @@
       <c r="AH46" s="8"/>
       <c r="AI46" s="8"/>
     </row>
-    <row r="47" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -6098,7 +6097,7 @@
       <c r="AH47" s="8"/>
       <c r="AI47" s="8"/>
     </row>
-    <row r="48" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -6157,7 +6156,7 @@
       <c r="AH48" s="8"/>
       <c r="AI48" s="8"/>
     </row>
-    <row r="49" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -6216,7 +6215,7 @@
       <c r="AH49" s="8"/>
       <c r="AI49" s="8"/>
     </row>
-    <row r="50" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -6275,7 +6274,7 @@
       <c r="AH50" s="8"/>
       <c r="AI50" s="8"/>
     </row>
-    <row r="51" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -6334,7 +6333,7 @@
       <c r="AH51" s="8"/>
       <c r="AI51" s="8"/>
     </row>
-    <row r="52" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -6395,7 +6394,7 @@
       <c r="AH52" s="8"/>
       <c r="AI52" s="8"/>
     </row>
-    <row r="53" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -6454,7 +6453,7 @@
       <c r="AH53" s="8"/>
       <c r="AI53" s="8"/>
     </row>
-    <row r="54" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -6517,7 +6516,7 @@
       <c r="AH54" s="8"/>
       <c r="AI54" s="8"/>
     </row>
-    <row r="55" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -6580,7 +6579,7 @@
       <c r="AH55" s="8"/>
       <c r="AI55" s="8"/>
     </row>
-    <row r="56" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -6637,7 +6636,7 @@
       <c r="AH56" s="8"/>
       <c r="AI56" s="8"/>
     </row>
-    <row r="57" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -6700,7 +6699,7 @@
       <c r="AH57" s="8"/>
       <c r="AI57" s="8"/>
     </row>
-    <row r="58" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -6763,7 +6762,7 @@
       <c r="AH58" s="8"/>
       <c r="AI58" s="8"/>
     </row>
-    <row r="59" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -6824,7 +6823,7 @@
       <c r="AH59" s="8"/>
       <c r="AI59" s="8"/>
     </row>
-    <row r="60" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -6883,7 +6882,7 @@
       <c r="AH60" s="8"/>
       <c r="AI60" s="8"/>
     </row>
-    <row r="61" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -6944,7 +6943,7 @@
       <c r="AH61" s="8"/>
       <c r="AI61" s="8"/>
     </row>
-    <row r="62" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -7001,7 +7000,7 @@
       <c r="AH62" s="8"/>
       <c r="AI62" s="8"/>
     </row>
-    <row r="63" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>26</v>
       </c>
@@ -7060,7 +7059,7 @@
       <c r="AH63" s="8"/>
       <c r="AI63" s="8"/>
     </row>
-    <row r="64" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:35" ht="90" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -7117,7 +7116,7 @@
       <c r="AH64" s="8"/>
       <c r="AI64" s="8"/>
     </row>
-    <row r="65" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -7178,7 +7177,7 @@
       <c r="AH65" s="8"/>
       <c r="AI65" s="8"/>
     </row>
-    <row r="66" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -7241,7 +7240,7 @@
       <c r="AH66" s="8"/>
       <c r="AI66" s="8"/>
     </row>
-    <row r="67" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -7300,7 +7299,7 @@
       <c r="AH67" s="8"/>
       <c r="AI67" s="8"/>
     </row>
-    <row r="68" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -7357,7 +7356,7 @@
       <c r="AH68" s="8"/>
       <c r="AI68" s="8"/>
     </row>
-    <row r="69" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -7414,7 +7413,7 @@
       <c r="AH69" s="8"/>
       <c r="AI69" s="8"/>
     </row>
-    <row r="70" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -7471,7 +7470,7 @@
       <c r="AH70" s="8"/>
       <c r="AI70" s="8"/>
     </row>
-    <row r="71" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -7538,7 +7537,7 @@
       <c r="AH71" s="8"/>
       <c r="AI71" s="8"/>
     </row>
-    <row r="72" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:35" ht="90" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -7601,7 +7600,7 @@
       <c r="AH72" s="8"/>
       <c r="AI72" s="8"/>
     </row>
-    <row r="73" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -7658,7 +7657,7 @@
       <c r="AH73" s="8"/>
       <c r="AI73" s="8"/>
     </row>
-    <row r="74" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -7717,7 +7716,7 @@
       <c r="AH74" s="8"/>
       <c r="AI74" s="8"/>
     </row>
-    <row r="75" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -7776,7 +7775,7 @@
       <c r="AH75" s="8"/>
       <c r="AI75" s="8"/>
     </row>
-    <row r="76" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -7831,7 +7830,7 @@
       <c r="AH76" s="8"/>
       <c r="AI76" s="8"/>
     </row>
-    <row r="77" spans="1:35" ht="119" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:35" ht="105" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -7888,7 +7887,7 @@
       <c r="AH77" s="8"/>
       <c r="AI77" s="8"/>
     </row>
-    <row r="78" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -7945,7 +7944,7 @@
       <c r="AH78" s="8"/>
       <c r="AI78" s="8"/>
     </row>
-    <row r="79" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -8002,7 +8001,7 @@
       <c r="AH79" s="8"/>
       <c r="AI79" s="8"/>
     </row>
-    <row r="80" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -8059,7 +8058,7 @@
       <c r="AH80" s="8"/>
       <c r="AI80" s="8"/>
     </row>
-    <row r="81" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -8118,7 +8117,7 @@
       <c r="AH81" s="8"/>
       <c r="AI81" s="8"/>
     </row>
-    <row r="82" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -8177,7 +8176,7 @@
       <c r="AH82" s="8"/>
       <c r="AI82" s="8"/>
     </row>
-    <row r="83" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -8232,7 +8231,7 @@
       <c r="AH83" s="8"/>
       <c r="AI83" s="8"/>
     </row>
-    <row r="84" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -8289,7 +8288,7 @@
       <c r="AH84" s="8"/>
       <c r="AI84" s="8"/>
     </row>
-    <row r="85" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -8346,7 +8345,7 @@
       <c r="AH85" s="8"/>
       <c r="AI85" s="8"/>
     </row>
-    <row r="86" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -8401,7 +8400,7 @@
       <c r="AH86" s="8"/>
       <c r="AI86" s="8"/>
     </row>
-    <row r="87" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -8462,7 +8461,7 @@
       <c r="AH87" s="8"/>
       <c r="AI87" s="8"/>
     </row>
-    <row r="88" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -8521,7 +8520,7 @@
       <c r="AH88" s="8"/>
       <c r="AI88" s="8"/>
     </row>
-    <row r="89" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:35" ht="90" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -8578,7 +8577,7 @@
       <c r="AH89" s="8"/>
       <c r="AI89" s="8"/>
     </row>
-    <row r="90" spans="1:35" ht="119" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:35" ht="90" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -8635,7 +8634,7 @@
       <c r="AH90" s="8"/>
       <c r="AI90" s="8"/>
     </row>
-    <row r="91" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -8692,7 +8691,7 @@
       <c r="AH91" s="8"/>
       <c r="AI91" s="8"/>
     </row>
-    <row r="92" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -8753,7 +8752,7 @@
       <c r="AH92" s="8"/>
       <c r="AI92" s="8"/>
     </row>
-    <row r="93" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -8808,7 +8807,7 @@
       <c r="AH93" s="8"/>
       <c r="AI93" s="8"/>
     </row>
-    <row r="94" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -8871,7 +8870,7 @@
       <c r="AH94" s="8"/>
       <c r="AI94" s="8"/>
     </row>
-    <row r="95" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -8932,7 +8931,7 @@
       <c r="AH95" s="8"/>
       <c r="AI95" s="8"/>
     </row>
-    <row r="96" spans="1:35" ht="136" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:35" ht="105" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -8989,7 +8988,7 @@
       <c r="AH96" s="8"/>
       <c r="AI96" s="8"/>
     </row>
-    <row r="97" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:35" ht="90" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -9044,7 +9043,7 @@
       <c r="AH97" s="8"/>
       <c r="AI97" s="8"/>
     </row>
-    <row r="98" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -9103,7 +9102,7 @@
       <c r="AH98" s="8"/>
       <c r="AI98" s="8"/>
     </row>
-    <row r="99" spans="1:35" ht="136" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:35" ht="120" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -9160,7 +9159,7 @@
       <c r="AH99" s="8"/>
       <c r="AI99" s="8"/>
     </row>
-    <row r="100" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>62</v>
       </c>
@@ -9217,7 +9216,7 @@
       <c r="AH100" s="8"/>
       <c r="AI100" s="8"/>
     </row>
-    <row r="101" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -9280,7 +9279,7 @@
       <c r="AH101" s="8"/>
       <c r="AI101" s="8"/>
     </row>
-    <row r="102" spans="1:35" ht="34" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:35" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -9339,7 +9338,7 @@
       <c r="AH102" s="8"/>
       <c r="AI102" s="8"/>
     </row>
-    <row r="103" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:35" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -9398,7 +9397,7 @@
       <c r="AH103" s="8"/>
       <c r="AI103" s="8"/>
     </row>
-    <row r="104" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -9455,7 +9454,7 @@
       <c r="AH104" s="8"/>
       <c r="AI104" s="8"/>
     </row>
-    <row r="105" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -9512,7 +9511,7 @@
       <c r="AH105" s="8"/>
       <c r="AI105" s="8"/>
     </row>
-    <row r="106" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -9573,7 +9572,7 @@
       <c r="AH106" s="8"/>
       <c r="AI106" s="8"/>
     </row>
-    <row r="107" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -9636,7 +9635,7 @@
       <c r="AH107" s="8"/>
       <c r="AI107" s="8"/>
     </row>
-    <row r="108" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:35" ht="63" x14ac:dyDescent="0.2">
       <c r="A108" s="33">
         <v>107</v>
       </c>
@@ -9699,7 +9698,7 @@
       <c r="AH108" s="32"/>
       <c r="AI108" s="32"/>
     </row>
-    <row r="109" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -9762,7 +9761,7 @@
       <c r="AH109" s="8"/>
       <c r="AI109" s="8"/>
     </row>
-    <row r="110" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -9823,7 +9822,7 @@
       <c r="AH110" s="32"/>
       <c r="AI110" s="32"/>
     </row>
-    <row r="111" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -9890,7 +9889,7 @@
       <c r="AH111" s="32"/>
       <c r="AI111" s="32"/>
     </row>
-    <row r="112" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -9949,7 +9948,7 @@
       <c r="AH112" s="32"/>
       <c r="AI112" s="32"/>
     </row>
-    <row r="113" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -10008,7 +10007,7 @@
       <c r="AH113" s="8"/>
       <c r="AI113" s="8"/>
     </row>
-    <row r="114" spans="1:35" ht="136" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:35" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -10069,7 +10068,7 @@
       <c r="AH114" s="8"/>
       <c r="AI114" s="8"/>
     </row>
-    <row r="115" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -10136,7 +10135,7 @@
       <c r="AH115" s="8"/>
       <c r="AI115" s="8"/>
     </row>
-    <row r="116" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:35" ht="90" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -10203,7 +10202,7 @@
       <c r="AH116" s="8"/>
       <c r="AI116" s="8"/>
     </row>
-    <row r="117" spans="1:35" ht="136" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:35" ht="126" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -10264,7 +10263,7 @@
       <c r="AH117" s="32"/>
       <c r="AI117" s="32"/>
     </row>
-    <row r="118" spans="1:35" ht="119" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:35" ht="105" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -10327,7 +10326,7 @@
       <c r="AH118" s="8"/>
       <c r="AI118" s="8"/>
     </row>
-    <row r="119" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:35" ht="63" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -10390,7 +10389,7 @@
       <c r="AH119" s="8"/>
       <c r="AI119" s="8"/>
     </row>
-    <row r="120" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:35" ht="63" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -10449,7 +10448,7 @@
       <c r="AH120" s="8"/>
       <c r="AI120" s="8"/>
     </row>
-    <row r="121" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:35" ht="90" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -10508,7 +10507,7 @@
       <c r="AH121" s="8"/>
       <c r="AI121" s="8"/>
     </row>
-    <row r="122" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>121</v>
       </c>
@@ -10569,7 +10568,7 @@
       <c r="AH122" s="13"/>
       <c r="AI122" s="13"/>
     </row>
-    <row r="123" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -10630,7 +10629,7 @@
       <c r="AH123" s="8"/>
       <c r="AI123" s="8"/>
     </row>
-    <row r="124" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>123</v>
       </c>
@@ -10689,7 +10688,7 @@
       <c r="AH124" s="13"/>
       <c r="AI124" s="13"/>
     </row>
-    <row r="125" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:35" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -10750,7 +10749,7 @@
       <c r="AH125" s="32"/>
       <c r="AI125" s="32"/>
     </row>
-    <row r="126" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>125</v>
       </c>
@@ -10811,7 +10810,7 @@
       <c r="AH126" s="13"/>
       <c r="AI126" s="13"/>
     </row>
-    <row r="127" spans="1:35" ht="119" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:35" ht="105" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -10870,7 +10869,7 @@
       <c r="AH127" s="8"/>
       <c r="AI127" s="8"/>
     </row>
-    <row r="128" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -10933,7 +10932,7 @@
       <c r="AH128" s="6"/>
       <c r="AI128" s="6"/>
     </row>
-    <row r="129" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -11000,7 +10999,7 @@
       <c r="AH129" s="40"/>
       <c r="AI129" s="40"/>
     </row>
-    <row r="130" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:35" ht="90" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -11063,7 +11062,7 @@
       <c r="AH130" s="40"/>
       <c r="AI130" s="40"/>
     </row>
-    <row r="131" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>130</v>
       </c>
@@ -11130,7 +11129,7 @@
       <c r="AH131" s="7"/>
       <c r="AI131" s="7"/>
     </row>
-    <row r="132" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:35" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -11191,7 +11190,7 @@
       <c r="AH132" s="40"/>
       <c r="AI132" s="40"/>
     </row>
-    <row r="133" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>132</v>
       </c>
@@ -11258,7 +11257,7 @@
       <c r="AH133" s="7"/>
       <c r="AI133" s="7"/>
     </row>
-    <row r="134" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -11325,7 +11324,7 @@
       <c r="AH134" s="40"/>
       <c r="AI134" s="40"/>
     </row>
-    <row r="135" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -11388,7 +11387,7 @@
       <c r="AH135" s="6"/>
       <c r="AI135" s="6"/>
     </row>
-    <row r="136" spans="1:35" ht="119" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:35" ht="90" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -11451,7 +11450,7 @@
       <c r="AH136" s="6"/>
       <c r="AI136" s="6"/>
     </row>
-    <row r="137" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>19</v>
       </c>
@@ -11514,7 +11513,7 @@
       <c r="AH137" s="6"/>
       <c r="AI137" s="6"/>
     </row>
-    <row r="138" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>138</v>
       </c>
@@ -11581,7 +11580,7 @@
       <c r="AH138" s="40"/>
       <c r="AI138" s="40"/>
     </row>
-    <row r="139" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>139</v>
       </c>
@@ -11644,7 +11643,7 @@
       <c r="AH139" s="6"/>
       <c r="AI139" s="6"/>
     </row>
-    <row r="140" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>140</v>
       </c>
@@ -11707,7 +11706,7 @@
       <c r="AH140" s="6"/>
       <c r="AI140" s="6"/>
     </row>
-    <row r="141" spans="1:35" ht="136" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:35" ht="120" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>141</v>
       </c>
@@ -11770,7 +11769,7 @@
       <c r="AH141" s="6"/>
       <c r="AI141" s="6"/>
     </row>
-    <row r="142" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>142</v>
       </c>
@@ -11833,7 +11832,7 @@
       <c r="AH142" s="6"/>
       <c r="AI142" s="6"/>
     </row>
-    <row r="143" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>143</v>
       </c>
@@ -11896,7 +11895,7 @@
       <c r="AH143" s="6"/>
       <c r="AI143" s="6"/>
     </row>
-    <row r="144" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:35" ht="63" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>144</v>
       </c>
@@ -11951,7 +11950,7 @@
       <c r="AH144" s="6"/>
       <c r="AI144" s="6"/>
     </row>
-    <row r="145" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>145</v>
       </c>
@@ -12014,7 +12013,7 @@
       <c r="AH145" s="7"/>
       <c r="AI145" s="7"/>
     </row>
-    <row r="146" spans="1:35" ht="119" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:35" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>146</v>
       </c>
@@ -12073,7 +12072,7 @@
       <c r="AH146" s="6"/>
       <c r="AI146" s="6"/>
     </row>
-    <row r="147" spans="1:35" ht="34" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:35" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>147</v>
       </c>
@@ -12128,7 +12127,7 @@
       <c r="AH147" s="6"/>
       <c r="AI147" s="6"/>
     </row>
-    <row r="148" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:35" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>148</v>
       </c>
@@ -12187,7 +12186,7 @@
       <c r="AH148" s="6"/>
       <c r="AI148" s="6"/>
     </row>
-    <row r="149" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:35" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>149</v>
       </c>
@@ -12242,7 +12241,7 @@
       <c r="AH149" s="6"/>
       <c r="AI149" s="6"/>
     </row>
-    <row r="150" spans="1:35" ht="119" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:35" ht="105" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>150</v>
       </c>
@@ -12305,7 +12304,7 @@
       <c r="AH150" s="7"/>
       <c r="AI150" s="7"/>
     </row>
-    <row r="151" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:35" ht="63" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>151</v>
       </c>
@@ -12362,7 +12361,7 @@
       <c r="AH151" s="6"/>
       <c r="AI151" s="6"/>
     </row>
-    <row r="152" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:35" ht="90" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>152</v>
       </c>
@@ -12425,7 +12424,7 @@
       <c r="AH152" s="7"/>
       <c r="AI152" s="7"/>
     </row>
-    <row r="153" spans="1:35" ht="119" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:35" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>153</v>
       </c>
@@ -12484,7 +12483,7 @@
       <c r="AH153" s="6"/>
       <c r="AI153" s="6"/>
     </row>
-    <row r="154" spans="1:35" ht="68" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:35" ht="60" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>154</v>
       </c>
@@ -12547,7 +12546,7 @@
       <c r="AH154" s="7"/>
       <c r="AI154" s="7"/>
     </row>
-    <row r="155" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:35" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>155</v>
       </c>
@@ -12602,7 +12601,7 @@
       <c r="AH155" s="6"/>
       <c r="AI155" s="6"/>
     </row>
-    <row r="156" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:35" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>156</v>
       </c>
@@ -12661,7 +12660,7 @@
       <c r="AH156" s="6"/>
       <c r="AI156" s="6"/>
     </row>
-    <row r="157" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:35" ht="75" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>157</v>
       </c>
@@ -12724,7 +12723,7 @@
       <c r="AH157" s="6"/>
       <c r="AI157" s="6"/>
     </row>
-    <row r="158" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:35" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>158</v>
       </c>
@@ -12783,7 +12782,7 @@
       <c r="AH158" s="6"/>
       <c r="AI158" s="6"/>
     </row>
-    <row r="159" spans="1:35" ht="119" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:35" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>159</v>
       </c>
@@ -12838,7 +12837,7 @@
       <c r="AH159" s="6"/>
       <c r="AI159" s="6"/>
     </row>
-    <row r="160" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:35" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>160</v>
       </c>
@@ -12893,7 +12892,7 @@
       <c r="AH160" s="6"/>
       <c r="AI160" s="6"/>
     </row>
-    <row r="161" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:35" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>161</v>
       </c>
@@ -12952,7 +12951,7 @@
       <c r="AH161" s="6"/>
       <c r="AI161" s="6"/>
     </row>
-    <row r="162" spans="1:35" ht="153" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:35" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>162</v>
       </c>
@@ -13011,7 +13010,7 @@
       <c r="AH162" s="6"/>
       <c r="AI162" s="6"/>
     </row>
-    <row r="163" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:35" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>163</v>
       </c>
@@ -13070,7 +13069,7 @@
       <c r="AH163" s="6"/>
       <c r="AI163" s="6"/>
     </row>
-    <row r="164" spans="1:35" ht="102" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:35" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>164</v>
       </c>
@@ -13129,7 +13128,7 @@
       <c r="AH164" s="8"/>
       <c r="AI164" s="8"/>
     </row>
-    <row r="165" spans="1:35" ht="51" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:35" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>165</v>
       </c>
@@ -13188,7 +13187,7 @@
       <c r="AH165" s="8"/>
       <c r="AI165" s="8"/>
     </row>
-    <row r="166" spans="1:35" ht="119" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:35" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>166</v>
       </c>
@@ -13247,7 +13246,7 @@
       <c r="AH166" s="8"/>
       <c r="AI166" s="8"/>
     </row>
-    <row r="167" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:35" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>167</v>
       </c>
@@ -13306,7 +13305,7 @@
       <c r="AH167" s="8"/>
       <c r="AI167" s="8"/>
     </row>
-    <row r="168" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:35" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>168</v>
       </c>
@@ -13365,7 +13364,7 @@
       <c r="AH168" s="8"/>
       <c r="AI168" s="8"/>
     </row>
-    <row r="169" spans="1:35" ht="102" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:35" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>169</v>
       </c>
@@ -13424,7 +13423,7 @@
       <c r="AH169" s="8"/>
       <c r="AI169" s="8"/>
     </row>
-    <row r="170" spans="1:35" ht="119" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:35" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>170</v>
       </c>
@@ -13483,7 +13482,7 @@
       <c r="AH170" s="8"/>
       <c r="AI170" s="8"/>
     </row>
-    <row r="171" spans="1:35" ht="68" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:35" ht="63" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>171</v>
       </c>
@@ -13542,7 +13541,7 @@
       <c r="AH171" s="8"/>
       <c r="AI171" s="8"/>
     </row>
-    <row r="172" spans="1:35" ht="136" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:35" ht="126" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>172</v>
       </c>
@@ -13601,7 +13600,7 @@
       <c r="AH172" s="8"/>
       <c r="AI172" s="8"/>
     </row>
-    <row r="173" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:35" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>173</v>
       </c>
@@ -13660,7 +13659,7 @@
       <c r="AH173" s="8"/>
       <c r="AI173" s="8"/>
     </row>
-    <row r="174" spans="1:35" ht="119" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:35" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>174</v>
       </c>
@@ -13719,7 +13718,7 @@
       <c r="AH174" s="8"/>
       <c r="AI174" s="8"/>
     </row>
-    <row r="175" spans="1:35" ht="102" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:35" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>175</v>
       </c>
@@ -13778,7 +13777,7 @@
       <c r="AH175" s="8"/>
       <c r="AI175" s="8"/>
     </row>
-    <row r="176" spans="1:35" ht="68" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:35" ht="63" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>176</v>
       </c>
@@ -13837,7 +13836,7 @@
       <c r="AH176" s="8"/>
       <c r="AI176" s="8"/>
     </row>
-    <row r="177" spans="1:35" ht="85" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:35" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>177</v>
       </c>
@@ -13896,7 +13895,7 @@
       <c r="AH177" s="8"/>
       <c r="AI177" s="8"/>
     </row>
-    <row r="178" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>178</v>
       </c>
@@ -13935,7 +13934,7 @@
       <c r="AH178" s="8"/>
       <c r="AI178" s="8"/>
     </row>
-    <row r="179" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>179</v>
       </c>
@@ -13974,7 +13973,7 @@
       <c r="AH179" s="8"/>
       <c r="AI179" s="8"/>
     </row>
-    <row r="180" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>180</v>
       </c>
@@ -14013,7 +14012,7 @@
       <c r="AH180" s="8"/>
       <c r="AI180" s="8"/>
     </row>
-    <row r="181" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>181</v>
       </c>
@@ -14052,7 +14051,7 @@
       <c r="AH181" s="8"/>
       <c r="AI181" s="8"/>
     </row>
-    <row r="182" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>182</v>
       </c>
@@ -14091,7 +14090,7 @@
       <c r="AH182" s="8"/>
       <c r="AI182" s="8"/>
     </row>
-    <row r="183" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>183</v>
       </c>
@@ -14130,7 +14129,7 @@
       <c r="AH183" s="8"/>
       <c r="AI183" s="8"/>
     </row>
-    <row r="184" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>184</v>
       </c>
@@ -14169,7 +14168,7 @@
       <c r="AH184" s="8"/>
       <c r="AI184" s="8"/>
     </row>
-    <row r="185" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>185</v>
       </c>
@@ -14208,7 +14207,7 @@
       <c r="AH185" s="8"/>
       <c r="AI185" s="8"/>
     </row>
-    <row r="186" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>186</v>
       </c>
@@ -14247,7 +14246,7 @@
       <c r="AH186" s="8"/>
       <c r="AI186" s="8"/>
     </row>
-    <row r="187" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>187</v>
       </c>
@@ -14286,7 +14285,7 @@
       <c r="AH187" s="8"/>
       <c r="AI187" s="8"/>
     </row>
-    <row r="188" spans="1:35" ht="17" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A188" s="35" t="s">
         <v>777</v>
       </c>
@@ -14325,7 +14324,7 @@
       <c r="AH188" s="8"/>
       <c r="AI188" s="8"/>
     </row>
-    <row r="189" spans="1:35" ht="17" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A189" s="35" t="s">
         <v>778</v>
       </c>
@@ -14364,7 +14363,7 @@
       <c r="AH189" s="8"/>
       <c r="AI189" s="8"/>
     </row>
-    <row r="190" spans="1:35" ht="17" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A190" s="35" t="s">
         <v>779</v>
       </c>
@@ -14403,7 +14402,7 @@
       <c r="AH190" s="8"/>
       <c r="AI190" s="8"/>
     </row>
-    <row r="191" spans="1:35" ht="17" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A191" s="35" t="s">
         <v>780</v>
       </c>
@@ -14442,7 +14441,7 @@
       <c r="AH191" s="8"/>
       <c r="AI191" s="8"/>
     </row>
-    <row r="192" spans="1:35" ht="17" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A192" s="35" t="s">
         <v>781</v>
       </c>
@@ -14481,7 +14480,7 @@
       <c r="AH192" s="8"/>
       <c r="AI192" s="8"/>
     </row>
-    <row r="193" spans="1:35" ht="17" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A193" s="35" t="s">
         <v>782</v>
       </c>
@@ -14520,7 +14519,7 @@
       <c r="AH193" s="8"/>
       <c r="AI193" s="8"/>
     </row>
-    <row r="194" spans="1:35" ht="17" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:35" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A194" s="35" t="s">
         <v>783</v>
       </c>
@@ -14559,7 +14558,7 @@
       <c r="AH194" s="8"/>
       <c r="AI194" s="8"/>
     </row>
-    <row r="195" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -14596,7 +14595,7 @@
       <c r="AH195" s="8"/>
       <c r="AI195" s="8"/>
     </row>
-    <row r="196" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -14633,7 +14632,7 @@
       <c r="AH196" s="8"/>
       <c r="AI196" s="8"/>
     </row>
-    <row r="197" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -14670,7 +14669,7 @@
       <c r="AH197" s="8"/>
       <c r="AI197" s="8"/>
     </row>
-    <row r="198" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -14707,7 +14706,7 @@
       <c r="AH198" s="8"/>
       <c r="AI198" s="8"/>
     </row>
-    <row r="199" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -14744,7 +14743,7 @@
       <c r="AH199" s="8"/>
       <c r="AI199" s="8"/>
     </row>
-    <row r="200" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -14781,7 +14780,7 @@
       <c r="AH200" s="8"/>
       <c r="AI200" s="8"/>
     </row>
-    <row r="201" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -14818,7 +14817,7 @@
       <c r="AH201" s="8"/>
       <c r="AI201" s="8"/>
     </row>
-    <row r="202" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -14855,7 +14854,7 @@
       <c r="AH202" s="8"/>
       <c r="AI202" s="8"/>
     </row>
-    <row r="203" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -14892,7 +14891,7 @@
       <c r="AH203" s="8"/>
       <c r="AI203" s="8"/>
     </row>
-    <row r="204" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -14929,7 +14928,7 @@
       <c r="AH204" s="8"/>
       <c r="AI204" s="8"/>
     </row>
-    <row r="205" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -14966,7 +14965,7 @@
       <c r="AH205" s="8"/>
       <c r="AI205" s="8"/>
     </row>
-    <row r="206" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -15003,7 +15002,7 @@
       <c r="AH206" s="8"/>
       <c r="AI206" s="8"/>
     </row>
-    <row r="207" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -15040,7 +15039,7 @@
       <c r="AH207" s="8"/>
       <c r="AI207" s="8"/>
     </row>
-    <row r="208" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -15077,7 +15076,7 @@
       <c r="AH208" s="8"/>
       <c r="AI208" s="8"/>
     </row>
-    <row r="209" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -15114,7 +15113,7 @@
       <c r="AH209" s="8"/>
       <c r="AI209" s="8"/>
     </row>
-    <row r="210" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -15151,7 +15150,7 @@
       <c r="AH210" s="8"/>
       <c r="AI210" s="8"/>
     </row>
-    <row r="211" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -15188,7 +15187,7 @@
       <c r="AH211" s="8"/>
       <c r="AI211" s="8"/>
     </row>
-    <row r="212" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -15225,7 +15224,7 @@
       <c r="AH212" s="8"/>
       <c r="AI212" s="8"/>
     </row>
-    <row r="213" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -15262,7 +15261,7 @@
       <c r="AH213" s="8"/>
       <c r="AI213" s="8"/>
     </row>
-    <row r="214" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -15299,7 +15298,7 @@
       <c r="AH214" s="8"/>
       <c r="AI214" s="8"/>
     </row>
-    <row r="215" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -15336,7 +15335,7 @@
       <c r="AH215" s="8"/>
       <c r="AI215" s="8"/>
     </row>
-    <row r="216" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -15373,7 +15372,7 @@
       <c r="AH216" s="8"/>
       <c r="AI216" s="8"/>
     </row>
-    <row r="217" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -15410,7 +15409,7 @@
       <c r="AH217" s="8"/>
       <c r="AI217" s="8"/>
     </row>
-    <row r="218" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -15447,7 +15446,7 @@
       <c r="AH218" s="8"/>
       <c r="AI218" s="8"/>
     </row>
-    <row r="219" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -15484,7 +15483,7 @@
       <c r="AH219" s="8"/>
       <c r="AI219" s="8"/>
     </row>
-    <row r="220" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -15521,7 +15520,7 @@
       <c r="AH220" s="8"/>
       <c r="AI220" s="8"/>
     </row>
-    <row r="221" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="8"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
@@ -15558,7 +15557,7 @@
       <c r="AH221" s="8"/>
       <c r="AI221" s="8"/>
     </row>
-    <row r="222" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="8"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
@@ -15595,7 +15594,7 @@
       <c r="AH222" s="8"/>
       <c r="AI222" s="8"/>
     </row>
-    <row r="223" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="8"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
@@ -15632,7 +15631,7 @@
       <c r="AH223" s="8"/>
       <c r="AI223" s="8"/>
     </row>
-    <row r="224" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
@@ -15669,7 +15668,7 @@
       <c r="AH224" s="8"/>
       <c r="AI224" s="8"/>
     </row>
-    <row r="225" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="8"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
@@ -15706,7 +15705,7 @@
       <c r="AH225" s="8"/>
       <c r="AI225" s="8"/>
     </row>
-    <row r="226" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
@@ -15743,7 +15742,7 @@
       <c r="AH226" s="8"/>
       <c r="AI226" s="8"/>
     </row>
-    <row r="227" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="8"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
@@ -15780,7 +15779,7 @@
       <c r="AH227" s="8"/>
       <c r="AI227" s="8"/>
     </row>
-    <row r="228" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="8"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -15817,7 +15816,7 @@
       <c r="AH228" s="8"/>
       <c r="AI228" s="8"/>
     </row>
-    <row r="229" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="8"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
@@ -15854,7 +15853,7 @@
       <c r="AH229" s="8"/>
       <c r="AI229" s="8"/>
     </row>
-    <row r="230" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="8"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
@@ -15891,7 +15890,7 @@
       <c r="AH230" s="8"/>
       <c r="AI230" s="8"/>
     </row>
-    <row r="231" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="8"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
@@ -15928,7 +15927,7 @@
       <c r="AH231" s="8"/>
       <c r="AI231" s="8"/>
     </row>
-    <row r="232" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
@@ -15965,7 +15964,7 @@
       <c r="AH232" s="8"/>
       <c r="AI232" s="8"/>
     </row>
-    <row r="233" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="8"/>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
@@ -16002,7 +16001,7 @@
       <c r="AH233" s="8"/>
       <c r="AI233" s="8"/>
     </row>
-    <row r="234" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="8"/>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
@@ -16039,7 +16038,7 @@
       <c r="AH234" s="8"/>
       <c r="AI234" s="8"/>
     </row>
-    <row r="235" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
@@ -16076,7 +16075,7 @@
       <c r="AH235" s="8"/>
       <c r="AI235" s="8"/>
     </row>
-    <row r="236" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="8"/>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
@@ -16113,7 +16112,7 @@
       <c r="AH236" s="8"/>
       <c r="AI236" s="8"/>
     </row>
-    <row r="237" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="8"/>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
@@ -16150,7 +16149,7 @@
       <c r="AH237" s="8"/>
       <c r="AI237" s="8"/>
     </row>
-    <row r="238" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="8"/>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
@@ -16187,7 +16186,7 @@
       <c r="AH238" s="8"/>
       <c r="AI238" s="8"/>
     </row>
-    <row r="239" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="8"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
@@ -16224,7 +16223,7 @@
       <c r="AH239" s="8"/>
       <c r="AI239" s="8"/>
     </row>
-    <row r="240" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -16261,7 +16260,7 @@
       <c r="AH240" s="8"/>
       <c r="AI240" s="8"/>
     </row>
-    <row r="241" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="8"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
@@ -16298,7 +16297,7 @@
       <c r="AH241" s="8"/>
       <c r="AI241" s="8"/>
     </row>
-    <row r="242" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
@@ -16335,7 +16334,7 @@
       <c r="AH242" s="8"/>
       <c r="AI242" s="8"/>
     </row>
-    <row r="243" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="8"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
@@ -16372,7 +16371,7 @@
       <c r="AH243" s="8"/>
       <c r="AI243" s="8"/>
     </row>
-    <row r="244" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="8"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
@@ -16409,7 +16408,7 @@
       <c r="AH244" s="8"/>
       <c r="AI244" s="8"/>
     </row>
-    <row r="245" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="8"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
@@ -16446,7 +16445,7 @@
       <c r="AH245" s="8"/>
       <c r="AI245" s="8"/>
     </row>
-    <row r="246" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="8"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
@@ -16483,7 +16482,7 @@
       <c r="AH246" s="8"/>
       <c r="AI246" s="8"/>
     </row>
-    <row r="247" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
@@ -16520,7 +16519,7 @@
       <c r="AH247" s="8"/>
       <c r="AI247" s="8"/>
     </row>
-    <row r="248" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="8"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
@@ -16557,7 +16556,7 @@
       <c r="AH248" s="8"/>
       <c r="AI248" s="8"/>
     </row>
-    <row r="249" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
@@ -16594,7 +16593,7 @@
       <c r="AH249" s="8"/>
       <c r="AI249" s="8"/>
     </row>
-    <row r="250" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
@@ -16631,7 +16630,7 @@
       <c r="AH250" s="8"/>
       <c r="AI250" s="8"/>
     </row>
-    <row r="251" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
@@ -16668,7 +16667,7 @@
       <c r="AH251" s="8"/>
       <c r="AI251" s="8"/>
     </row>
-    <row r="252" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
@@ -16705,7 +16704,7 @@
       <c r="AH252" s="8"/>
       <c r="AI252" s="8"/>
     </row>
-    <row r="253" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="8"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
@@ -16742,7 +16741,7 @@
       <c r="AH253" s="8"/>
       <c r="AI253" s="8"/>
     </row>
-    <row r="254" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="8"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -16779,7 +16778,7 @@
       <c r="AH254" s="8"/>
       <c r="AI254" s="8"/>
     </row>
-    <row r="255" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="8"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -16816,7 +16815,7 @@
       <c r="AH255" s="8"/>
       <c r="AI255" s="8"/>
     </row>
-    <row r="256" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
@@ -16853,7 +16852,7 @@
       <c r="AH256" s="8"/>
       <c r="AI256" s="8"/>
     </row>
-    <row r="257" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
@@ -16890,7 +16889,7 @@
       <c r="AH257" s="8"/>
       <c r="AI257" s="8"/>
     </row>
-    <row r="258" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
@@ -16927,7 +16926,7 @@
       <c r="AH258" s="8"/>
       <c r="AI258" s="8"/>
     </row>
-    <row r="259" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
@@ -16964,7 +16963,7 @@
       <c r="AH259" s="8"/>
       <c r="AI259" s="8"/>
     </row>
-    <row r="260" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -17001,7 +17000,7 @@
       <c r="AH260" s="8"/>
       <c r="AI260" s="8"/>
     </row>
-    <row r="261" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
@@ -17038,7 +17037,7 @@
       <c r="AH261" s="8"/>
       <c r="AI261" s="8"/>
     </row>
-    <row r="262" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
@@ -17075,7 +17074,7 @@
       <c r="AH262" s="8"/>
       <c r="AI262" s="8"/>
     </row>
-    <row r="263" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="8"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -17112,7 +17111,7 @@
       <c r="AH263" s="8"/>
       <c r="AI263" s="8"/>
     </row>
-    <row r="264" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="8"/>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
@@ -17149,7 +17148,7 @@
       <c r="AH264" s="8"/>
       <c r="AI264" s="8"/>
     </row>
-    <row r="265" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="8"/>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
@@ -17186,7 +17185,7 @@
       <c r="AH265" s="8"/>
       <c r="AI265" s="8"/>
     </row>
-    <row r="266" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="8"/>
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
@@ -17223,7 +17222,7 @@
       <c r="AH266" s="8"/>
       <c r="AI266" s="8"/>
     </row>
-    <row r="267" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="8"/>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
@@ -17260,7 +17259,7 @@
       <c r="AH267" s="8"/>
       <c r="AI267" s="8"/>
     </row>
-    <row r="268" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
@@ -17297,7 +17296,7 @@
       <c r="AH268" s="8"/>
       <c r="AI268" s="8"/>
     </row>
-    <row r="269" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="8"/>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
@@ -17334,7 +17333,7 @@
       <c r="AH269" s="8"/>
       <c r="AI269" s="8"/>
     </row>
-    <row r="270" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="8"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
@@ -17371,7 +17370,7 @@
       <c r="AH270" s="8"/>
       <c r="AI270" s="8"/>
     </row>
-    <row r="271" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="8"/>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -17408,7 +17407,7 @@
       <c r="AH271" s="8"/>
       <c r="AI271" s="8"/>
     </row>
-    <row r="272" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
@@ -17445,7 +17444,7 @@
       <c r="AH272" s="8"/>
       <c r="AI272" s="8"/>
     </row>
-    <row r="273" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="8"/>
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
@@ -17482,7 +17481,7 @@
       <c r="AH273" s="8"/>
       <c r="AI273" s="8"/>
     </row>
-    <row r="274" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="8"/>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
@@ -17519,7 +17518,7 @@
       <c r="AH274" s="8"/>
       <c r="AI274" s="8"/>
     </row>
-    <row r="275" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="8"/>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
@@ -17556,7 +17555,7 @@
       <c r="AH275" s="8"/>
       <c r="AI275" s="8"/>
     </row>
-    <row r="276" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="8"/>
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
@@ -17593,7 +17592,7 @@
       <c r="AH276" s="8"/>
       <c r="AI276" s="8"/>
     </row>
-    <row r="277" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="8"/>
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
@@ -17630,7 +17629,7 @@
       <c r="AH277" s="8"/>
       <c r="AI277" s="8"/>
     </row>
-    <row r="278" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="8"/>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
@@ -17667,7 +17666,7 @@
       <c r="AH278" s="8"/>
       <c r="AI278" s="8"/>
     </row>
-    <row r="279" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="8"/>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
@@ -17704,7 +17703,7 @@
       <c r="AH279" s="8"/>
       <c r="AI279" s="8"/>
     </row>
-    <row r="280" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="8"/>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
@@ -17741,7 +17740,7 @@
       <c r="AH280" s="8"/>
       <c r="AI280" s="8"/>
     </row>
-    <row r="281" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="8"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
@@ -17778,7 +17777,7 @@
       <c r="AH281" s="8"/>
       <c r="AI281" s="8"/>
     </row>
-    <row r="282" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="8"/>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
@@ -17815,7 +17814,7 @@
       <c r="AH282" s="8"/>
       <c r="AI282" s="8"/>
     </row>
-    <row r="283" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="8"/>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
@@ -17852,7 +17851,7 @@
       <c r="AH283" s="8"/>
       <c r="AI283" s="8"/>
     </row>
-    <row r="284" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="8"/>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
@@ -17889,7 +17888,7 @@
       <c r="AH284" s="8"/>
       <c r="AI284" s="8"/>
     </row>
-    <row r="285" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="8"/>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
@@ -17926,7 +17925,7 @@
       <c r="AH285" s="8"/>
       <c r="AI285" s="8"/>
     </row>
-    <row r="286" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="8"/>
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
@@ -17963,7 +17962,7 @@
       <c r="AH286" s="8"/>
       <c r="AI286" s="8"/>
     </row>
-    <row r="287" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="8"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
@@ -18000,7 +17999,7 @@
       <c r="AH287" s="8"/>
       <c r="AI287" s="8"/>
     </row>
-    <row r="288" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="8"/>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
@@ -18037,7 +18036,7 @@
       <c r="AH288" s="8"/>
       <c r="AI288" s="8"/>
     </row>
-    <row r="289" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
@@ -18074,7 +18073,7 @@
       <c r="AH289" s="8"/>
       <c r="AI289" s="8"/>
     </row>
-    <row r="290" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="8"/>
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
@@ -18111,7 +18110,7 @@
       <c r="AH290" s="8"/>
       <c r="AI290" s="8"/>
     </row>
-    <row r="291" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="8"/>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
@@ -18148,7 +18147,7 @@
       <c r="AH291" s="8"/>
       <c r="AI291" s="8"/>
     </row>
-    <row r="292" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="8"/>
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
@@ -18185,7 +18184,7 @@
       <c r="AH292" s="8"/>
       <c r="AI292" s="8"/>
     </row>
-    <row r="293" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="8"/>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
@@ -18222,7 +18221,7 @@
       <c r="AH293" s="8"/>
       <c r="AI293" s="8"/>
     </row>
-    <row r="294" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="8"/>
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
@@ -18259,7 +18258,7 @@
       <c r="AH294" s="8"/>
       <c r="AI294" s="8"/>
     </row>
-    <row r="295" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="8"/>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -18296,7 +18295,7 @@
       <c r="AH295" s="8"/>
       <c r="AI295" s="8"/>
     </row>
-    <row r="296" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="8"/>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
@@ -18333,7 +18332,7 @@
       <c r="AH296" s="8"/>
       <c r="AI296" s="8"/>
     </row>
-    <row r="297" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="8"/>
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
@@ -18370,7 +18369,7 @@
       <c r="AH297" s="8"/>
       <c r="AI297" s="8"/>
     </row>
-    <row r="298" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="8"/>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
@@ -18407,7 +18406,7 @@
       <c r="AH298" s="8"/>
       <c r="AI298" s="8"/>
     </row>
-    <row r="299" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="8"/>
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
@@ -18444,7 +18443,7 @@
       <c r="AH299" s="8"/>
       <c r="AI299" s="8"/>
     </row>
-    <row r="300" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="8"/>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
@@ -18481,7 +18480,7 @@
       <c r="AH300" s="8"/>
       <c r="AI300" s="8"/>
     </row>
-    <row r="301" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="8"/>
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
@@ -18518,7 +18517,7 @@
       <c r="AH301" s="8"/>
       <c r="AI301" s="8"/>
     </row>
-    <row r="302" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="8"/>
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
@@ -18555,7 +18554,7 @@
       <c r="AH302" s="8"/>
       <c r="AI302" s="8"/>
     </row>
-    <row r="303" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="8"/>
       <c r="B303" s="8"/>
       <c r="C303" s="8"/>
@@ -18592,7 +18591,7 @@
       <c r="AH303" s="8"/>
       <c r="AI303" s="8"/>
     </row>
-    <row r="304" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="8"/>
       <c r="B304" s="8"/>
       <c r="C304" s="8"/>
@@ -18629,7 +18628,7 @@
       <c r="AH304" s="8"/>
       <c r="AI304" s="8"/>
     </row>
-    <row r="305" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="8"/>
       <c r="B305" s="8"/>
       <c r="C305" s="8"/>
@@ -18666,7 +18665,7 @@
       <c r="AH305" s="8"/>
       <c r="AI305" s="8"/>
     </row>
-    <row r="306" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="8"/>
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
@@ -18703,7 +18702,7 @@
       <c r="AH306" s="8"/>
       <c r="AI306" s="8"/>
     </row>
-    <row r="307" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="8"/>
       <c r="B307" s="8"/>
       <c r="C307" s="8"/>
@@ -18740,7 +18739,7 @@
       <c r="AH307" s="8"/>
       <c r="AI307" s="8"/>
     </row>
-    <row r="308" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="8"/>
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
@@ -18777,7 +18776,7 @@
       <c r="AH308" s="8"/>
       <c r="AI308" s="8"/>
     </row>
-    <row r="309" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="8"/>
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
@@ -18814,7 +18813,7 @@
       <c r="AH309" s="8"/>
       <c r="AI309" s="8"/>
     </row>
-    <row r="310" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="8"/>
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
@@ -18851,7 +18850,7 @@
       <c r="AH310" s="8"/>
       <c r="AI310" s="8"/>
     </row>
-    <row r="311" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="8"/>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
@@ -18888,7 +18887,7 @@
       <c r="AH311" s="8"/>
       <c r="AI311" s="8"/>
     </row>
-    <row r="312" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="8"/>
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
@@ -18925,7 +18924,7 @@
       <c r="AH312" s="8"/>
       <c r="AI312" s="8"/>
     </row>
-    <row r="313" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="8"/>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
@@ -18962,7 +18961,7 @@
       <c r="AH313" s="8"/>
       <c r="AI313" s="8"/>
     </row>
-    <row r="314" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="8"/>
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
@@ -18999,7 +18998,7 @@
       <c r="AH314" s="8"/>
       <c r="AI314" s="8"/>
     </row>
-    <row r="315" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="8"/>
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
@@ -19036,7 +19035,7 @@
       <c r="AH315" s="8"/>
       <c r="AI315" s="8"/>
     </row>
-    <row r="316" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="8"/>
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
@@ -19073,7 +19072,7 @@
       <c r="AH316" s="8"/>
       <c r="AI316" s="8"/>
     </row>
-    <row r="317" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="8"/>
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
@@ -19110,7 +19109,7 @@
       <c r="AH317" s="8"/>
       <c r="AI317" s="8"/>
     </row>
-    <row r="318" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="8"/>
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
@@ -19147,7 +19146,7 @@
       <c r="AH318" s="8"/>
       <c r="AI318" s="8"/>
     </row>
-    <row r="319" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="8"/>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
@@ -19184,7 +19183,7 @@
       <c r="AH319" s="8"/>
       <c r="AI319" s="8"/>
     </row>
-    <row r="320" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="8"/>
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
@@ -19221,7 +19220,7 @@
       <c r="AH320" s="8"/>
       <c r="AI320" s="8"/>
     </row>
-    <row r="321" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="8"/>
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
@@ -19258,7 +19257,7 @@
       <c r="AH321" s="8"/>
       <c r="AI321" s="8"/>
     </row>
-    <row r="322" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="8"/>
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
@@ -19295,7 +19294,7 @@
       <c r="AH322" s="8"/>
       <c r="AI322" s="8"/>
     </row>
-    <row r="323" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="8"/>
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
@@ -19332,7 +19331,7 @@
       <c r="AH323" s="8"/>
       <c r="AI323" s="8"/>
     </row>
-    <row r="324" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="8"/>
       <c r="B324" s="8"/>
       <c r="C324" s="8"/>
@@ -19369,7 +19368,7 @@
       <c r="AH324" s="8"/>
       <c r="AI324" s="8"/>
     </row>
-    <row r="325" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="8"/>
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
@@ -19406,7 +19405,7 @@
       <c r="AH325" s="8"/>
       <c r="AI325" s="8"/>
     </row>
-    <row r="326" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="8"/>
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
@@ -19443,7 +19442,7 @@
       <c r="AH326" s="8"/>
       <c r="AI326" s="8"/>
     </row>
-    <row r="327" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="8"/>
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
@@ -19480,7 +19479,7 @@
       <c r="AH327" s="8"/>
       <c r="AI327" s="8"/>
     </row>
-    <row r="328" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="8"/>
       <c r="B328" s="8"/>
       <c r="C328" s="8"/>
@@ -19517,7 +19516,7 @@
       <c r="AH328" s="8"/>
       <c r="AI328" s="8"/>
     </row>
-    <row r="329" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="8"/>
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
@@ -19554,7 +19553,7 @@
       <c r="AH329" s="8"/>
       <c r="AI329" s="8"/>
     </row>
-    <row r="330" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="8"/>
       <c r="B330" s="8"/>
       <c r="C330" s="8"/>
@@ -19591,7 +19590,7 @@
       <c r="AH330" s="8"/>
       <c r="AI330" s="8"/>
     </row>
-    <row r="331" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="8"/>
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
@@ -19628,7 +19627,7 @@
       <c r="AH331" s="8"/>
       <c r="AI331" s="8"/>
     </row>
-    <row r="332" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="8"/>
       <c r="B332" s="8"/>
       <c r="C332" s="8"/>
@@ -19665,7 +19664,7 @@
       <c r="AH332" s="8"/>
       <c r="AI332" s="8"/>
     </row>
-    <row r="333" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="8"/>
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
@@ -19702,7 +19701,7 @@
       <c r="AH333" s="8"/>
       <c r="AI333" s="8"/>
     </row>
-    <row r="334" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="8"/>
       <c r="B334" s="8"/>
       <c r="C334" s="8"/>
@@ -19739,7 +19738,7 @@
       <c r="AH334" s="8"/>
       <c r="AI334" s="8"/>
     </row>
-    <row r="335" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="8"/>
       <c r="B335" s="8"/>
       <c r="C335" s="8"/>
@@ -19776,7 +19775,7 @@
       <c r="AH335" s="8"/>
       <c r="AI335" s="8"/>
     </row>
-    <row r="336" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="8"/>
       <c r="B336" s="8"/>
       <c r="C336" s="8"/>
@@ -19813,7 +19812,7 @@
       <c r="AH336" s="8"/>
       <c r="AI336" s="8"/>
     </row>
-    <row r="337" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="8"/>
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
@@ -19850,7 +19849,7 @@
       <c r="AH337" s="8"/>
       <c r="AI337" s="8"/>
     </row>
-    <row r="338" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="8"/>
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
@@ -19887,7 +19886,7 @@
       <c r="AH338" s="8"/>
       <c r="AI338" s="8"/>
     </row>
-    <row r="339" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="8"/>
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
@@ -19924,7 +19923,7 @@
       <c r="AH339" s="8"/>
       <c r="AI339" s="8"/>
     </row>
-    <row r="340" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="8"/>
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
@@ -19961,7 +19960,7 @@
       <c r="AH340" s="8"/>
       <c r="AI340" s="8"/>
     </row>
-    <row r="341" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="8"/>
       <c r="B341" s="8"/>
       <c r="C341" s="8"/>
@@ -19998,7 +19997,7 @@
       <c r="AH341" s="8"/>
       <c r="AI341" s="8"/>
     </row>
-    <row r="342" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="8"/>
       <c r="B342" s="8"/>
       <c r="C342" s="8"/>
@@ -20035,7 +20034,7 @@
       <c r="AH342" s="8"/>
       <c r="AI342" s="8"/>
     </row>
-    <row r="343" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="8"/>
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
@@ -20072,7 +20071,7 @@
       <c r="AH343" s="8"/>
       <c r="AI343" s="8"/>
     </row>
-    <row r="344" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="8"/>
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
@@ -20109,7 +20108,7 @@
       <c r="AH344" s="8"/>
       <c r="AI344" s="8"/>
     </row>
-    <row r="345" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="8"/>
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
@@ -20146,7 +20145,7 @@
       <c r="AH345" s="8"/>
       <c r="AI345" s="8"/>
     </row>
-    <row r="346" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="8"/>
       <c r="B346" s="8"/>
       <c r="C346" s="8"/>
@@ -20183,7 +20182,7 @@
       <c r="AH346" s="8"/>
       <c r="AI346" s="8"/>
     </row>
-    <row r="347" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="8"/>
       <c r="B347" s="8"/>
       <c r="C347" s="8"/>
@@ -20220,7 +20219,7 @@
       <c r="AH347" s="8"/>
       <c r="AI347" s="8"/>
     </row>
-    <row r="348" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="8"/>
       <c r="B348" s="8"/>
       <c r="C348" s="8"/>
@@ -20257,7 +20256,7 @@
       <c r="AH348" s="8"/>
       <c r="AI348" s="8"/>
     </row>
-    <row r="349" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="8"/>
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
@@ -20294,7 +20293,7 @@
       <c r="AH349" s="8"/>
       <c r="AI349" s="8"/>
     </row>
-    <row r="350" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="8"/>
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
@@ -20331,7 +20330,7 @@
       <c r="AH350" s="8"/>
       <c r="AI350" s="8"/>
     </row>
-    <row r="351" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="8"/>
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
@@ -20368,7 +20367,7 @@
       <c r="AH351" s="8"/>
       <c r="AI351" s="8"/>
     </row>
-    <row r="352" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="8"/>
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
@@ -20405,7 +20404,7 @@
       <c r="AH352" s="8"/>
       <c r="AI352" s="8"/>
     </row>
-    <row r="353" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="8"/>
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
@@ -20442,7 +20441,7 @@
       <c r="AH353" s="8"/>
       <c r="AI353" s="8"/>
     </row>
-    <row r="354" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="8"/>
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
@@ -20479,7 +20478,7 @@
       <c r="AH354" s="8"/>
       <c r="AI354" s="8"/>
     </row>
-    <row r="355" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="8"/>
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
@@ -20516,7 +20515,7 @@
       <c r="AH355" s="8"/>
       <c r="AI355" s="8"/>
     </row>
-    <row r="356" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="8"/>
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
@@ -20553,7 +20552,7 @@
       <c r="AH356" s="8"/>
       <c r="AI356" s="8"/>
     </row>
-    <row r="357" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="8"/>
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
@@ -20590,7 +20589,7 @@
       <c r="AH357" s="8"/>
       <c r="AI357" s="8"/>
     </row>
-    <row r="358" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="8"/>
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
@@ -20627,7 +20626,7 @@
       <c r="AH358" s="8"/>
       <c r="AI358" s="8"/>
     </row>
-    <row r="359" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="8"/>
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
@@ -20664,7 +20663,7 @@
       <c r="AH359" s="8"/>
       <c r="AI359" s="8"/>
     </row>
-    <row r="360" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="8"/>
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
@@ -20701,7 +20700,7 @@
       <c r="AH360" s="8"/>
       <c r="AI360" s="8"/>
     </row>
-    <row r="361" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="8"/>
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
@@ -20738,7 +20737,7 @@
       <c r="AH361" s="8"/>
       <c r="AI361" s="8"/>
     </row>
-    <row r="362" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="8"/>
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
@@ -20775,7 +20774,7 @@
       <c r="AH362" s="8"/>
       <c r="AI362" s="8"/>
     </row>
-    <row r="363" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="8"/>
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
@@ -20812,7 +20811,7 @@
       <c r="AH363" s="8"/>
       <c r="AI363" s="8"/>
     </row>
-    <row r="364" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="8"/>
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
@@ -20849,7 +20848,7 @@
       <c r="AH364" s="8"/>
       <c r="AI364" s="8"/>
     </row>
-    <row r="365" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="8"/>
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
@@ -20886,7 +20885,7 @@
       <c r="AH365" s="8"/>
       <c r="AI365" s="8"/>
     </row>
-    <row r="366" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="8"/>
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
@@ -20923,7 +20922,7 @@
       <c r="AH366" s="8"/>
       <c r="AI366" s="8"/>
     </row>
-    <row r="367" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="8"/>
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
@@ -20960,7 +20959,7 @@
       <c r="AH367" s="8"/>
       <c r="AI367" s="8"/>
     </row>
-    <row r="368" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="8"/>
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
@@ -20997,7 +20996,7 @@
       <c r="AH368" s="8"/>
       <c r="AI368" s="8"/>
     </row>
-    <row r="369" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="8"/>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
@@ -21034,7 +21033,7 @@
       <c r="AH369" s="8"/>
       <c r="AI369" s="8"/>
     </row>
-    <row r="370" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="8"/>
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
@@ -21071,7 +21070,7 @@
       <c r="AH370" s="8"/>
       <c r="AI370" s="8"/>
     </row>
-    <row r="371" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="8"/>
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
@@ -21108,7 +21107,7 @@
       <c r="AH371" s="8"/>
       <c r="AI371" s="8"/>
     </row>
-    <row r="372" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="8"/>
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
@@ -21145,7 +21144,7 @@
       <c r="AH372" s="8"/>
       <c r="AI372" s="8"/>
     </row>
-    <row r="373" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="8"/>
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
@@ -21182,7 +21181,7 @@
       <c r="AH373" s="8"/>
       <c r="AI373" s="8"/>
     </row>
-    <row r="374" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="8"/>
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
@@ -21219,7 +21218,7 @@
       <c r="AH374" s="8"/>
       <c r="AI374" s="8"/>
     </row>
-    <row r="375" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="8"/>
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
@@ -21256,7 +21255,7 @@
       <c r="AH375" s="8"/>
       <c r="AI375" s="8"/>
     </row>
-    <row r="376" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="8"/>
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
@@ -21293,7 +21292,7 @@
       <c r="AH376" s="8"/>
       <c r="AI376" s="8"/>
     </row>
-    <row r="377" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="8"/>
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
@@ -21330,7 +21329,7 @@
       <c r="AH377" s="8"/>
       <c r="AI377" s="8"/>
     </row>
-    <row r="378" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="8"/>
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
@@ -21367,7 +21366,7 @@
       <c r="AH378" s="8"/>
       <c r="AI378" s="8"/>
     </row>
-    <row r="379" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="8"/>
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
@@ -21404,7 +21403,7 @@
       <c r="AH379" s="8"/>
       <c r="AI379" s="8"/>
     </row>
-    <row r="380" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="8"/>
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
@@ -21441,7 +21440,7 @@
       <c r="AH380" s="8"/>
       <c r="AI380" s="8"/>
     </row>
-    <row r="381" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="8"/>
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
@@ -21478,7 +21477,7 @@
       <c r="AH381" s="8"/>
       <c r="AI381" s="8"/>
     </row>
-    <row r="382" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="8"/>
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
@@ -21515,7 +21514,7 @@
       <c r="AH382" s="8"/>
       <c r="AI382" s="8"/>
     </row>
-    <row r="383" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="8"/>
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
@@ -21552,7 +21551,7 @@
       <c r="AH383" s="8"/>
       <c r="AI383" s="8"/>
     </row>
-    <row r="384" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="8"/>
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
@@ -21589,7 +21588,7 @@
       <c r="AH384" s="8"/>
       <c r="AI384" s="8"/>
     </row>
-    <row r="385" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="8"/>
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
@@ -21626,7 +21625,7 @@
       <c r="AH385" s="8"/>
       <c r="AI385" s="8"/>
     </row>
-    <row r="386" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="8"/>
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
@@ -21663,7 +21662,7 @@
       <c r="AH386" s="8"/>
       <c r="AI386" s="8"/>
     </row>
-    <row r="387" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="8"/>
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
@@ -21700,7 +21699,7 @@
       <c r="AH387" s="8"/>
       <c r="AI387" s="8"/>
     </row>
-    <row r="388" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A388" s="8"/>
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
@@ -21737,7 +21736,7 @@
       <c r="AH388" s="8"/>
       <c r="AI388" s="8"/>
     </row>
-    <row r="389" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="8"/>
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
@@ -21774,7 +21773,7 @@
       <c r="AH389" s="8"/>
       <c r="AI389" s="8"/>
     </row>
-    <row r="390" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A390" s="8"/>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
@@ -21811,7 +21810,7 @@
       <c r="AH390" s="8"/>
       <c r="AI390" s="8"/>
     </row>
-    <row r="391" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="8"/>
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
@@ -21848,7 +21847,7 @@
       <c r="AH391" s="8"/>
       <c r="AI391" s="8"/>
     </row>
-    <row r="392" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="8"/>
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
@@ -21885,7 +21884,7 @@
       <c r="AH392" s="8"/>
       <c r="AI392" s="8"/>
     </row>
-    <row r="393" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="8"/>
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
@@ -21922,7 +21921,7 @@
       <c r="AH393" s="8"/>
       <c r="AI393" s="8"/>
     </row>
-    <row r="394" spans="1:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:35" ht="15" x14ac:dyDescent="0.2">
       <c r="A394" s="8"/>
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
@@ -21959,7 +21958,7 @@
       <c r="AH394" s="8"/>
       <c r="AI394" s="8"/>
     </row>
-    <row r="395" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A395" s="63"/>
       <c r="B395" s="63"/>
       <c r="C395" s="63"/>
@@ -21996,7 +21995,7 @@
       <c r="AH395" s="63"/>
       <c r="AI395" s="63"/>
     </row>
-    <row r="396" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A396" s="63"/>
       <c r="B396" s="63"/>
       <c r="C396" s="63"/>
@@ -22033,7 +22032,7 @@
       <c r="AH396" s="63"/>
       <c r="AI396" s="63"/>
     </row>
-    <row r="397" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A397" s="63"/>
       <c r="B397" s="63"/>
       <c r="C397" s="63"/>
@@ -22070,7 +22069,7 @@
       <c r="AH397" s="63"/>
       <c r="AI397" s="63"/>
     </row>
-    <row r="398" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A398" s="63"/>
       <c r="B398" s="63"/>
       <c r="C398" s="63"/>
@@ -22107,7 +22106,7 @@
       <c r="AH398" s="63"/>
       <c r="AI398" s="63"/>
     </row>
-    <row r="399" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A399" s="63"/>
       <c r="B399" s="63"/>
       <c r="C399" s="63"/>
@@ -22144,7 +22143,7 @@
       <c r="AH399" s="63"/>
       <c r="AI399" s="63"/>
     </row>
-    <row r="400" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A400" s="63"/>
       <c r="B400" s="63"/>
       <c r="C400" s="63"/>
@@ -22181,7 +22180,7 @@
       <c r="AH400" s="63"/>
       <c r="AI400" s="63"/>
     </row>
-    <row r="401" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A401" s="63"/>
       <c r="B401" s="63"/>
       <c r="C401" s="63"/>
@@ -22218,7 +22217,7 @@
       <c r="AH401" s="63"/>
       <c r="AI401" s="63"/>
     </row>
-    <row r="402" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A402" s="63"/>
       <c r="B402" s="63"/>
       <c r="C402" s="63"/>
@@ -22255,7 +22254,7 @@
       <c r="AH402" s="63"/>
       <c r="AI402" s="63"/>
     </row>
-    <row r="403" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A403" s="63"/>
       <c r="B403" s="63"/>
       <c r="C403" s="63"/>
@@ -22292,7 +22291,7 @@
       <c r="AH403" s="63"/>
       <c r="AI403" s="63"/>
     </row>
-    <row r="404" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A404" s="63"/>
       <c r="B404" s="63"/>
       <c r="C404" s="63"/>
@@ -22329,7 +22328,7 @@
       <c r="AH404" s="63"/>
       <c r="AI404" s="63"/>
     </row>
-    <row r="405" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A405" s="63"/>
       <c r="B405" s="63"/>
       <c r="C405" s="63"/>
@@ -22366,7 +22365,7 @@
       <c r="AH405" s="63"/>
       <c r="AI405" s="63"/>
     </row>
-    <row r="406" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A406" s="63"/>
       <c r="B406" s="63"/>
       <c r="C406" s="63"/>
@@ -22403,7 +22402,7 @@
       <c r="AH406" s="63"/>
       <c r="AI406" s="63"/>
     </row>
-    <row r="407" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A407" s="63"/>
       <c r="B407" s="63"/>
       <c r="C407" s="63"/>
@@ -22440,7 +22439,7 @@
       <c r="AH407" s="63"/>
       <c r="AI407" s="63"/>
     </row>
-    <row r="408" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A408" s="63"/>
       <c r="B408" s="63"/>
       <c r="C408" s="63"/>
@@ -22477,7 +22476,7 @@
       <c r="AH408" s="63"/>
       <c r="AI408" s="63"/>
     </row>
-    <row r="409" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A409" s="63"/>
       <c r="B409" s="63"/>
       <c r="C409" s="63"/>
@@ -22514,7 +22513,7 @@
       <c r="AH409" s="63"/>
       <c r="AI409" s="63"/>
     </row>
-    <row r="410" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A410" s="63"/>
       <c r="B410" s="63"/>
       <c r="C410" s="63"/>
@@ -22551,7 +22550,7 @@
       <c r="AH410" s="63"/>
       <c r="AI410" s="63"/>
     </row>
-    <row r="411" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A411" s="63"/>
       <c r="B411" s="63"/>
       <c r="C411" s="63"/>
@@ -22588,7 +22587,7 @@
       <c r="AH411" s="63"/>
       <c r="AI411" s="63"/>
     </row>
-    <row r="412" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A412" s="63"/>
       <c r="B412" s="63"/>
       <c r="C412" s="63"/>
@@ -22625,7 +22624,7 @@
       <c r="AH412" s="63"/>
       <c r="AI412" s="63"/>
     </row>
-    <row r="413" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A413" s="63"/>
       <c r="B413" s="63"/>
       <c r="C413" s="63"/>
@@ -22662,7 +22661,7 @@
       <c r="AH413" s="63"/>
       <c r="AI413" s="63"/>
     </row>
-    <row r="414" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A414" s="63"/>
       <c r="B414" s="63"/>
       <c r="C414" s="63"/>
@@ -22699,7 +22698,7 @@
       <c r="AH414" s="63"/>
       <c r="AI414" s="63"/>
     </row>
-    <row r="415" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A415" s="63"/>
       <c r="B415" s="63"/>
       <c r="C415" s="63"/>
@@ -22736,7 +22735,7 @@
       <c r="AH415" s="63"/>
       <c r="AI415" s="63"/>
     </row>
-    <row r="416" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A416" s="63"/>
       <c r="B416" s="63"/>
       <c r="C416" s="63"/>
@@ -22773,7 +22772,7 @@
       <c r="AH416" s="63"/>
       <c r="AI416" s="63"/>
     </row>
-    <row r="417" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A417" s="63"/>
       <c r="B417" s="63"/>
       <c r="C417" s="63"/>
@@ -22810,7 +22809,7 @@
       <c r="AH417" s="63"/>
       <c r="AI417" s="63"/>
     </row>
-    <row r="418" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A418" s="63"/>
       <c r="B418" s="63"/>
       <c r="C418" s="63"/>
@@ -22847,7 +22846,7 @@
       <c r="AH418" s="63"/>
       <c r="AI418" s="63"/>
     </row>
-    <row r="419" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A419" s="63"/>
       <c r="B419" s="63"/>
       <c r="C419" s="63"/>
@@ -22884,7 +22883,7 @@
       <c r="AH419" s="63"/>
       <c r="AI419" s="63"/>
     </row>
-    <row r="420" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A420" s="63"/>
       <c r="B420" s="63"/>
       <c r="C420" s="63"/>
@@ -22921,7 +22920,7 @@
       <c r="AH420" s="63"/>
       <c r="AI420" s="63"/>
     </row>
-    <row r="421" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A421" s="63"/>
       <c r="B421" s="63"/>
       <c r="C421" s="63"/>
@@ -22958,7 +22957,7 @@
       <c r="AH421" s="63"/>
       <c r="AI421" s="63"/>
     </row>
-    <row r="422" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A422" s="63"/>
       <c r="B422" s="63"/>
       <c r="C422" s="63"/>
@@ -22995,7 +22994,7 @@
       <c r="AH422" s="63"/>
       <c r="AI422" s="63"/>
     </row>
-    <row r="423" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A423" s="63"/>
       <c r="B423" s="63"/>
       <c r="C423" s="63"/>
@@ -23032,7 +23031,7 @@
       <c r="AH423" s="63"/>
       <c r="AI423" s="63"/>
     </row>
-    <row r="424" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A424" s="63"/>
       <c r="B424" s="63"/>
       <c r="C424" s="63"/>
@@ -23069,7 +23068,7 @@
       <c r="AH424" s="63"/>
       <c r="AI424" s="63"/>
     </row>
-    <row r="425" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A425" s="63"/>
       <c r="B425" s="63"/>
       <c r="C425" s="63"/>
@@ -23106,7 +23105,7 @@
       <c r="AH425" s="63"/>
       <c r="AI425" s="63"/>
     </row>
-    <row r="426" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A426" s="63"/>
       <c r="B426" s="63"/>
       <c r="C426" s="63"/>
@@ -23143,7 +23142,7 @@
       <c r="AH426" s="63"/>
       <c r="AI426" s="63"/>
     </row>
-    <row r="427" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A427" s="63"/>
       <c r="B427" s="63"/>
       <c r="C427" s="63"/>
@@ -23180,7 +23179,7 @@
       <c r="AH427" s="63"/>
       <c r="AI427" s="63"/>
     </row>
-    <row r="428" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A428" s="63"/>
       <c r="B428" s="63"/>
       <c r="C428" s="63"/>
@@ -23217,7 +23216,7 @@
       <c r="AH428" s="63"/>
       <c r="AI428" s="63"/>
     </row>
-    <row r="429" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A429" s="63"/>
       <c r="B429" s="63"/>
       <c r="C429" s="63"/>
@@ -23254,7 +23253,7 @@
       <c r="AH429" s="63"/>
       <c r="AI429" s="63"/>
     </row>
-    <row r="430" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A430" s="63"/>
       <c r="B430" s="63"/>
       <c r="C430" s="63"/>
@@ -23291,7 +23290,7 @@
       <c r="AH430" s="63"/>
       <c r="AI430" s="63"/>
     </row>
-    <row r="431" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A431" s="63"/>
       <c r="B431" s="63"/>
       <c r="C431" s="63"/>
@@ -23328,7 +23327,7 @@
       <c r="AH431" s="63"/>
       <c r="AI431" s="63"/>
     </row>
-    <row r="432" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A432" s="63"/>
       <c r="B432" s="63"/>
       <c r="C432" s="63"/>
@@ -23365,7 +23364,7 @@
       <c r="AH432" s="63"/>
       <c r="AI432" s="63"/>
     </row>
-    <row r="433" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A433" s="63"/>
       <c r="B433" s="63"/>
       <c r="C433" s="63"/>
@@ -23402,7 +23401,7 @@
       <c r="AH433" s="63"/>
       <c r="AI433" s="63"/>
     </row>
-    <row r="434" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A434" s="63"/>
       <c r="B434" s="63"/>
       <c r="C434" s="63"/>
@@ -23439,7 +23438,7 @@
       <c r="AH434" s="63"/>
       <c r="AI434" s="63"/>
     </row>
-    <row r="435" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A435" s="63"/>
       <c r="B435" s="63"/>
       <c r="C435" s="63"/>
@@ -23476,7 +23475,7 @@
       <c r="AH435" s="63"/>
       <c r="AI435" s="63"/>
     </row>
-    <row r="436" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A436" s="63"/>
       <c r="B436" s="63"/>
       <c r="C436" s="63"/>
@@ -23513,7 +23512,7 @@
       <c r="AH436" s="63"/>
       <c r="AI436" s="63"/>
     </row>
-    <row r="437" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A437" s="63"/>
       <c r="B437" s="63"/>
       <c r="C437" s="63"/>
@@ -23550,7 +23549,7 @@
       <c r="AH437" s="63"/>
       <c r="AI437" s="63"/>
     </row>
-    <row r="438" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A438" s="63"/>
       <c r="B438" s="63"/>
       <c r="C438" s="63"/>
@@ -23587,7 +23586,7 @@
       <c r="AH438" s="63"/>
       <c r="AI438" s="63"/>
     </row>
-    <row r="439" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A439" s="63"/>
       <c r="B439" s="63"/>
       <c r="C439" s="63"/>
@@ -23624,7 +23623,7 @@
       <c r="AH439" s="63"/>
       <c r="AI439" s="63"/>
     </row>
-    <row r="440" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A440" s="63"/>
       <c r="B440" s="63"/>
       <c r="C440" s="63"/>
@@ -23661,7 +23660,7 @@
       <c r="AH440" s="63"/>
       <c r="AI440" s="63"/>
     </row>
-    <row r="441" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A441" s="63"/>
       <c r="B441" s="63"/>
       <c r="C441" s="63"/>
@@ -23698,7 +23697,7 @@
       <c r="AH441" s="63"/>
       <c r="AI441" s="63"/>
     </row>
-    <row r="442" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A442" s="63"/>
       <c r="B442" s="63"/>
       <c r="C442" s="63"/>
@@ -23735,7 +23734,7 @@
       <c r="AH442" s="63"/>
       <c r="AI442" s="63"/>
     </row>
-    <row r="443" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A443" s="63"/>
       <c r="B443" s="63"/>
       <c r="C443" s="63"/>
@@ -23772,7 +23771,7 @@
       <c r="AH443" s="63"/>
       <c r="AI443" s="63"/>
     </row>
-    <row r="444" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A444" s="63"/>
       <c r="B444" s="63"/>
       <c r="C444" s="63"/>
@@ -23809,7 +23808,7 @@
       <c r="AH444" s="63"/>
       <c r="AI444" s="63"/>
     </row>
-    <row r="445" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A445" s="63"/>
       <c r="B445" s="63"/>
       <c r="C445" s="63"/>
@@ -23846,7 +23845,7 @@
       <c r="AH445" s="63"/>
       <c r="AI445" s="63"/>
     </row>
-    <row r="446" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A446" s="63"/>
       <c r="B446" s="63"/>
       <c r="C446" s="63"/>
@@ -23883,7 +23882,7 @@
       <c r="AH446" s="63"/>
       <c r="AI446" s="63"/>
     </row>
-    <row r="447" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A447" s="63"/>
       <c r="B447" s="63"/>
       <c r="C447" s="63"/>
@@ -23920,7 +23919,7 @@
       <c r="AH447" s="63"/>
       <c r="AI447" s="63"/>
     </row>
-    <row r="448" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A448" s="63"/>
       <c r="B448" s="63"/>
       <c r="C448" s="63"/>
@@ -23957,7 +23956,7 @@
       <c r="AH448" s="63"/>
       <c r="AI448" s="63"/>
     </row>
-    <row r="449" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A449" s="63"/>
       <c r="B449" s="63"/>
       <c r="C449" s="63"/>
@@ -23994,7 +23993,7 @@
       <c r="AH449" s="63"/>
       <c r="AI449" s="63"/>
     </row>
-    <row r="450" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A450" s="63"/>
       <c r="B450" s="63"/>
       <c r="C450" s="63"/>
@@ -24031,7 +24030,7 @@
       <c r="AH450" s="63"/>
       <c r="AI450" s="63"/>
     </row>
-    <row r="451" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A451" s="63"/>
       <c r="B451" s="63"/>
       <c r="C451" s="63"/>
@@ -24068,7 +24067,7 @@
       <c r="AH451" s="63"/>
       <c r="AI451" s="63"/>
     </row>
-    <row r="452" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A452" s="63"/>
       <c r="B452" s="63"/>
       <c r="C452" s="63"/>
@@ -24105,7 +24104,7 @@
       <c r="AH452" s="63"/>
       <c r="AI452" s="63"/>
     </row>
-    <row r="453" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A453" s="63"/>
       <c r="B453" s="63"/>
       <c r="C453" s="63"/>
@@ -24142,7 +24141,7 @@
       <c r="AH453" s="63"/>
       <c r="AI453" s="63"/>
     </row>
-    <row r="454" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A454" s="63"/>
       <c r="B454" s="63"/>
       <c r="C454" s="63"/>
@@ -24179,7 +24178,7 @@
       <c r="AH454" s="63"/>
       <c r="AI454" s="63"/>
     </row>
-    <row r="455" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A455" s="63"/>
       <c r="B455" s="63"/>
       <c r="C455" s="63"/>
@@ -24216,7 +24215,7 @@
       <c r="AH455" s="63"/>
       <c r="AI455" s="63"/>
     </row>
-    <row r="456" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A456" s="63"/>
       <c r="B456" s="63"/>
       <c r="C456" s="63"/>
@@ -24253,7 +24252,7 @@
       <c r="AH456" s="63"/>
       <c r="AI456" s="63"/>
     </row>
-    <row r="457" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A457" s="63"/>
       <c r="B457" s="63"/>
       <c r="C457" s="63"/>
@@ -24290,7 +24289,7 @@
       <c r="AH457" s="63"/>
       <c r="AI457" s="63"/>
     </row>
-    <row r="458" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A458" s="63"/>
       <c r="B458" s="63"/>
       <c r="C458" s="63"/>
@@ -24327,7 +24326,7 @@
       <c r="AH458" s="63"/>
       <c r="AI458" s="63"/>
     </row>
-    <row r="459" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A459" s="63"/>
       <c r="B459" s="63"/>
       <c r="C459" s="63"/>
@@ -24364,7 +24363,7 @@
       <c r="AH459" s="63"/>
       <c r="AI459" s="63"/>
     </row>
-    <row r="460" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A460" s="63"/>
       <c r="B460" s="63"/>
       <c r="C460" s="63"/>
@@ -24401,7 +24400,7 @@
       <c r="AH460" s="63"/>
       <c r="AI460" s="63"/>
     </row>
-    <row r="461" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A461" s="63"/>
       <c r="B461" s="63"/>
       <c r="C461" s="63"/>
@@ -24438,7 +24437,7 @@
       <c r="AH461" s="63"/>
       <c r="AI461" s="63"/>
     </row>
-    <row r="462" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A462" s="63"/>
       <c r="B462" s="63"/>
       <c r="C462" s="63"/>
@@ -24475,7 +24474,7 @@
       <c r="AH462" s="63"/>
       <c r="AI462" s="63"/>
     </row>
-    <row r="463" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A463" s="63"/>
       <c r="B463" s="63"/>
       <c r="C463" s="63"/>
@@ -24512,7 +24511,7 @@
       <c r="AH463" s="63"/>
       <c r="AI463" s="63"/>
     </row>
-    <row r="464" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A464" s="63"/>
       <c r="B464" s="63"/>
       <c r="C464" s="63"/>
@@ -24549,7 +24548,7 @@
       <c r="AH464" s="63"/>
       <c r="AI464" s="63"/>
     </row>
-    <row r="465" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A465" s="63"/>
       <c r="B465" s="63"/>
       <c r="C465" s="63"/>
@@ -24586,7 +24585,7 @@
       <c r="AH465" s="63"/>
       <c r="AI465" s="63"/>
     </row>
-    <row r="466" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A466" s="63"/>
       <c r="B466" s="63"/>
       <c r="C466" s="63"/>
@@ -24623,7 +24622,7 @@
       <c r="AH466" s="63"/>
       <c r="AI466" s="63"/>
     </row>
-    <row r="467" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A467" s="63"/>
       <c r="B467" s="63"/>
       <c r="C467" s="63"/>
@@ -24660,7 +24659,7 @@
       <c r="AH467" s="63"/>
       <c r="AI467" s="63"/>
     </row>
-    <row r="468" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A468" s="63"/>
       <c r="B468" s="63"/>
       <c r="C468" s="63"/>
@@ -24697,7 +24696,7 @@
       <c r="AH468" s="63"/>
       <c r="AI468" s="63"/>
     </row>
-    <row r="469" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A469" s="63"/>
       <c r="B469" s="63"/>
       <c r="C469" s="63"/>
@@ -24734,7 +24733,7 @@
       <c r="AH469" s="63"/>
       <c r="AI469" s="63"/>
     </row>
-    <row r="470" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A470" s="63"/>
       <c r="B470" s="63"/>
       <c r="C470" s="63"/>
@@ -24771,7 +24770,7 @@
       <c r="AH470" s="63"/>
       <c r="AI470" s="63"/>
     </row>
-    <row r="471" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A471" s="63"/>
       <c r="B471" s="63"/>
       <c r="C471" s="63"/>
@@ -24808,7 +24807,7 @@
       <c r="AH471" s="63"/>
       <c r="AI471" s="63"/>
     </row>
-    <row r="472" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A472" s="63"/>
       <c r="B472" s="63"/>
       <c r="C472" s="63"/>
@@ -24845,7 +24844,7 @@
       <c r="AH472" s="63"/>
       <c r="AI472" s="63"/>
     </row>
-    <row r="473" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A473" s="63"/>
       <c r="B473" s="63"/>
       <c r="C473" s="63"/>
@@ -24882,7 +24881,7 @@
       <c r="AH473" s="63"/>
       <c r="AI473" s="63"/>
     </row>
-    <row r="474" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A474" s="63"/>
       <c r="B474" s="63"/>
       <c r="C474" s="63"/>
@@ -24919,7 +24918,7 @@
       <c r="AH474" s="63"/>
       <c r="AI474" s="63"/>
     </row>
-    <row r="475" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A475" s="63"/>
       <c r="B475" s="63"/>
       <c r="C475" s="63"/>
@@ -24956,7 +24955,7 @@
       <c r="AH475" s="63"/>
       <c r="AI475" s="63"/>
     </row>
-    <row r="476" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A476" s="63"/>
       <c r="B476" s="63"/>
       <c r="C476" s="63"/>
@@ -24993,7 +24992,7 @@
       <c r="AH476" s="63"/>
       <c r="AI476" s="63"/>
     </row>
-    <row r="477" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A477" s="63"/>
       <c r="B477" s="63"/>
       <c r="C477" s="63"/>
@@ -25030,7 +25029,7 @@
       <c r="AH477" s="63"/>
       <c r="AI477" s="63"/>
     </row>
-    <row r="478" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A478" s="63"/>
       <c r="B478" s="63"/>
       <c r="C478" s="63"/>
@@ -25067,7 +25066,7 @@
       <c r="AH478" s="63"/>
       <c r="AI478" s="63"/>
     </row>
-    <row r="479" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A479" s="63"/>
       <c r="B479" s="63"/>
       <c r="C479" s="63"/>
@@ -25104,7 +25103,7 @@
       <c r="AH479" s="63"/>
       <c r="AI479" s="63"/>
     </row>
-    <row r="480" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A480" s="63"/>
       <c r="B480" s="63"/>
       <c r="C480" s="63"/>
@@ -25141,7 +25140,7 @@
       <c r="AH480" s="63"/>
       <c r="AI480" s="63"/>
     </row>
-    <row r="481" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A481" s="63"/>
       <c r="B481" s="63"/>
       <c r="C481" s="63"/>
@@ -25178,7 +25177,7 @@
       <c r="AH481" s="63"/>
       <c r="AI481" s="63"/>
     </row>
-    <row r="482" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A482" s="63"/>
       <c r="B482" s="63"/>
       <c r="C482" s="63"/>
@@ -25215,7 +25214,7 @@
       <c r="AH482" s="63"/>
       <c r="AI482" s="63"/>
     </row>
-    <row r="483" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A483" s="63"/>
       <c r="B483" s="63"/>
       <c r="C483" s="63"/>
@@ -25252,7 +25251,7 @@
       <c r="AH483" s="63"/>
       <c r="AI483" s="63"/>
     </row>
-    <row r="484" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A484" s="63"/>
       <c r="B484" s="63"/>
       <c r="C484" s="63"/>
@@ -25289,7 +25288,7 @@
       <c r="AH484" s="63"/>
       <c r="AI484" s="63"/>
     </row>
-    <row r="485" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A485" s="63"/>
       <c r="B485" s="63"/>
       <c r="C485" s="63"/>
@@ -25326,7 +25325,7 @@
       <c r="AH485" s="63"/>
       <c r="AI485" s="63"/>
     </row>
-    <row r="486" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A486" s="63"/>
       <c r="B486" s="63"/>
       <c r="C486" s="63"/>
@@ -25363,7 +25362,7 @@
       <c r="AH486" s="63"/>
       <c r="AI486" s="63"/>
     </row>
-    <row r="487" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A487" s="63"/>
       <c r="B487" s="63"/>
       <c r="C487" s="63"/>
@@ -25400,7 +25399,7 @@
       <c r="AH487" s="63"/>
       <c r="AI487" s="63"/>
     </row>
-    <row r="488" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A488" s="63"/>
       <c r="B488" s="63"/>
       <c r="C488" s="63"/>
@@ -25437,7 +25436,7 @@
       <c r="AH488" s="63"/>
       <c r="AI488" s="63"/>
     </row>
-    <row r="489" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A489" s="63"/>
       <c r="B489" s="63"/>
       <c r="C489" s="63"/>
@@ -25474,7 +25473,7 @@
       <c r="AH489" s="63"/>
       <c r="AI489" s="63"/>
     </row>
-    <row r="490" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A490" s="63"/>
       <c r="B490" s="63"/>
       <c r="C490" s="63"/>
@@ -25511,7 +25510,7 @@
       <c r="AH490" s="63"/>
       <c r="AI490" s="63"/>
     </row>
-    <row r="491" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A491" s="63"/>
       <c r="B491" s="63"/>
       <c r="C491" s="63"/>
@@ -25548,7 +25547,7 @@
       <c r="AH491" s="63"/>
       <c r="AI491" s="63"/>
     </row>
-    <row r="492" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A492" s="63"/>
       <c r="B492" s="63"/>
       <c r="C492" s="63"/>
@@ -25585,7 +25584,7 @@
       <c r="AH492" s="63"/>
       <c r="AI492" s="63"/>
     </row>
-    <row r="493" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A493" s="63"/>
       <c r="B493" s="63"/>
       <c r="C493" s="63"/>
@@ -25622,7 +25621,7 @@
       <c r="AH493" s="63"/>
       <c r="AI493" s="63"/>
     </row>
-    <row r="494" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A494" s="63"/>
       <c r="B494" s="63"/>
       <c r="C494" s="63"/>
@@ -25659,7 +25658,7 @@
       <c r="AH494" s="63"/>
       <c r="AI494" s="63"/>
     </row>
-    <row r="495" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A495" s="63"/>
       <c r="B495" s="63"/>
       <c r="C495" s="63"/>
@@ -25696,7 +25695,7 @@
       <c r="AH495" s="63"/>
       <c r="AI495" s="63"/>
     </row>
-    <row r="496" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A496" s="63"/>
       <c r="B496" s="63"/>
       <c r="C496" s="63"/>
@@ -25733,7 +25732,7 @@
       <c r="AH496" s="63"/>
       <c r="AI496" s="63"/>
     </row>
-    <row r="497" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A497" s="63"/>
       <c r="B497" s="63"/>
       <c r="C497" s="63"/>
@@ -25770,7 +25769,7 @@
       <c r="AH497" s="63"/>
       <c r="AI497" s="63"/>
     </row>
-    <row r="498" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A498" s="63"/>
       <c r="B498" s="63"/>
       <c r="C498" s="63"/>
@@ -25807,7 +25806,7 @@
       <c r="AH498" s="63"/>
       <c r="AI498" s="63"/>
     </row>
-    <row r="499" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A499" s="63"/>
       <c r="B499" s="63"/>
       <c r="C499" s="63"/>
@@ -25844,7 +25843,7 @@
       <c r="AH499" s="63"/>
       <c r="AI499" s="63"/>
     </row>
-    <row r="500" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A500" s="63"/>
       <c r="B500" s="63"/>
       <c r="C500" s="63"/>
@@ -25881,7 +25880,7 @@
       <c r="AH500" s="63"/>
       <c r="AI500" s="63"/>
     </row>
-    <row r="501" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A501" s="63"/>
       <c r="B501" s="63"/>
       <c r="C501" s="63"/>
@@ -25918,7 +25917,7 @@
       <c r="AH501" s="63"/>
       <c r="AI501" s="63"/>
     </row>
-    <row r="502" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A502" s="63"/>
       <c r="B502" s="63"/>
       <c r="C502" s="63"/>
@@ -25955,7 +25954,7 @@
       <c r="AH502" s="63"/>
       <c r="AI502" s="63"/>
     </row>
-    <row r="503" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A503" s="63"/>
       <c r="B503" s="63"/>
       <c r="C503" s="63"/>
@@ -25992,7 +25991,7 @@
       <c r="AH503" s="63"/>
       <c r="AI503" s="63"/>
     </row>
-    <row r="504" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A504" s="63"/>
       <c r="B504" s="63"/>
       <c r="C504" s="63"/>
@@ -26029,7 +26028,7 @@
       <c r="AH504" s="63"/>
       <c r="AI504" s="63"/>
     </row>
-    <row r="505" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A505" s="63"/>
       <c r="B505" s="63"/>
       <c r="C505" s="63"/>
@@ -26066,7 +26065,7 @@
       <c r="AH505" s="63"/>
       <c r="AI505" s="63"/>
     </row>
-    <row r="506" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A506" s="63"/>
       <c r="B506" s="63"/>
       <c r="C506" s="63"/>
@@ -26103,7 +26102,7 @@
       <c r="AH506" s="63"/>
       <c r="AI506" s="63"/>
     </row>
-    <row r="507" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A507" s="63"/>
       <c r="B507" s="63"/>
       <c r="C507" s="63"/>
@@ -26140,7 +26139,7 @@
       <c r="AH507" s="63"/>
       <c r="AI507" s="63"/>
     </row>
-    <row r="508" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A508" s="63"/>
       <c r="B508" s="63"/>
       <c r="C508" s="63"/>
@@ -26177,7 +26176,7 @@
       <c r="AH508" s="63"/>
       <c r="AI508" s="63"/>
     </row>
-    <row r="509" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A509" s="63"/>
       <c r="B509" s="63"/>
       <c r="C509" s="63"/>
@@ -26214,7 +26213,7 @@
       <c r="AH509" s="63"/>
       <c r="AI509" s="63"/>
     </row>
-    <row r="510" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A510" s="63"/>
       <c r="B510" s="63"/>
       <c r="C510" s="63"/>
@@ -26251,7 +26250,7 @@
       <c r="AH510" s="63"/>
       <c r="AI510" s="63"/>
     </row>
-    <row r="511" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A511" s="63"/>
       <c r="B511" s="63"/>
       <c r="C511" s="63"/>
@@ -26288,7 +26287,7 @@
       <c r="AH511" s="63"/>
       <c r="AI511" s="63"/>
     </row>
-    <row r="512" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A512" s="63"/>
       <c r="B512" s="63"/>
       <c r="C512" s="63"/>
@@ -26325,7 +26324,7 @@
       <c r="AH512" s="63"/>
       <c r="AI512" s="63"/>
     </row>
-    <row r="513" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A513" s="63"/>
       <c r="B513" s="63"/>
       <c r="C513" s="63"/>
@@ -26362,7 +26361,7 @@
       <c r="AH513" s="63"/>
       <c r="AI513" s="63"/>
     </row>
-    <row r="514" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A514" s="63"/>
       <c r="B514" s="63"/>
       <c r="C514" s="63"/>
@@ -26399,7 +26398,7 @@
       <c r="AH514" s="63"/>
       <c r="AI514" s="63"/>
     </row>
-    <row r="515" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A515" s="63"/>
       <c r="B515" s="63"/>
       <c r="C515" s="63"/>
@@ -26436,7 +26435,7 @@
       <c r="AH515" s="63"/>
       <c r="AI515" s="63"/>
     </row>
-    <row r="516" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A516" s="63"/>
       <c r="B516" s="63"/>
       <c r="C516" s="63"/>
@@ -26473,7 +26472,7 @@
       <c r="AH516" s="63"/>
       <c r="AI516" s="63"/>
     </row>
-    <row r="517" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A517" s="63"/>
       <c r="B517" s="63"/>
       <c r="C517" s="63"/>
@@ -26510,7 +26509,7 @@
       <c r="AH517" s="63"/>
       <c r="AI517" s="63"/>
     </row>
-    <row r="518" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A518" s="63"/>
       <c r="B518" s="63"/>
       <c r="C518" s="63"/>
@@ -26547,7 +26546,7 @@
       <c r="AH518" s="63"/>
       <c r="AI518" s="63"/>
     </row>
-    <row r="519" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A519" s="63"/>
       <c r="B519" s="63"/>
       <c r="C519" s="63"/>
@@ -26584,7 +26583,7 @@
       <c r="AH519" s="63"/>
       <c r="AI519" s="63"/>
     </row>
-    <row r="520" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A520" s="63"/>
       <c r="B520" s="63"/>
       <c r="C520" s="63"/>
@@ -26621,7 +26620,7 @@
       <c r="AH520" s="63"/>
       <c r="AI520" s="63"/>
     </row>
-    <row r="521" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A521" s="63"/>
       <c r="B521" s="63"/>
       <c r="C521" s="63"/>
@@ -26658,7 +26657,7 @@
       <c r="AH521" s="63"/>
       <c r="AI521" s="63"/>
     </row>
-    <row r="522" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A522" s="63"/>
       <c r="B522" s="63"/>
       <c r="C522" s="63"/>
@@ -26695,7 +26694,7 @@
       <c r="AH522" s="63"/>
       <c r="AI522" s="63"/>
     </row>
-    <row r="523" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A523" s="63"/>
       <c r="B523" s="63"/>
       <c r="C523" s="63"/>
@@ -26732,7 +26731,7 @@
       <c r="AH523" s="63"/>
       <c r="AI523" s="63"/>
     </row>
-    <row r="524" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A524" s="63"/>
       <c r="B524" s="63"/>
       <c r="C524" s="63"/>
@@ -26769,7 +26768,7 @@
       <c r="AH524" s="63"/>
       <c r="AI524" s="63"/>
     </row>
-    <row r="525" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A525" s="63"/>
       <c r="B525" s="63"/>
       <c r="C525" s="63"/>
@@ -26806,7 +26805,7 @@
       <c r="AH525" s="63"/>
       <c r="AI525" s="63"/>
     </row>
-    <row r="526" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A526" s="63"/>
       <c r="B526" s="63"/>
       <c r="C526" s="63"/>
@@ -26843,7 +26842,7 @@
       <c r="AH526" s="63"/>
       <c r="AI526" s="63"/>
     </row>
-    <row r="527" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A527" s="63"/>
       <c r="B527" s="63"/>
       <c r="C527" s="63"/>
@@ -26880,7 +26879,7 @@
       <c r="AH527" s="63"/>
       <c r="AI527" s="63"/>
     </row>
-    <row r="528" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A528" s="63"/>
       <c r="B528" s="63"/>
       <c r="C528" s="63"/>
@@ -26917,7 +26916,7 @@
       <c r="AH528" s="63"/>
       <c r="AI528" s="63"/>
     </row>
-    <row r="529" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A529" s="63"/>
       <c r="B529" s="63"/>
       <c r="C529" s="63"/>
@@ -26954,7 +26953,7 @@
       <c r="AH529" s="63"/>
       <c r="AI529" s="63"/>
     </row>
-    <row r="530" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A530" s="63"/>
       <c r="B530" s="63"/>
       <c r="C530" s="63"/>
@@ -26991,7 +26990,7 @@
       <c r="AH530" s="63"/>
       <c r="AI530" s="63"/>
     </row>
-    <row r="531" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A531" s="63"/>
       <c r="B531" s="63"/>
       <c r="C531" s="63"/>
@@ -27028,7 +27027,7 @@
       <c r="AH531" s="63"/>
       <c r="AI531" s="63"/>
     </row>
-    <row r="532" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A532" s="63"/>
       <c r="B532" s="63"/>
       <c r="C532" s="63"/>
@@ -27065,7 +27064,7 @@
       <c r="AH532" s="63"/>
       <c r="AI532" s="63"/>
     </row>
-    <row r="533" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A533" s="63"/>
       <c r="B533" s="63"/>
       <c r="C533" s="63"/>
@@ -27102,7 +27101,7 @@
       <c r="AH533" s="63"/>
       <c r="AI533" s="63"/>
     </row>
-    <row r="534" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A534" s="63"/>
       <c r="B534" s="63"/>
       <c r="C534" s="63"/>
@@ -27139,7 +27138,7 @@
       <c r="AH534" s="63"/>
       <c r="AI534" s="63"/>
     </row>
-    <row r="535" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A535" s="63"/>
       <c r="B535" s="63"/>
       <c r="C535" s="63"/>
@@ -27176,7 +27175,7 @@
       <c r="AH535" s="63"/>
       <c r="AI535" s="63"/>
     </row>
-    <row r="536" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A536" s="63"/>
       <c r="B536" s="63"/>
       <c r="C536" s="63"/>
@@ -27213,7 +27212,7 @@
       <c r="AH536" s="63"/>
       <c r="AI536" s="63"/>
     </row>
-    <row r="537" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A537" s="63"/>
       <c r="B537" s="63"/>
       <c r="C537" s="63"/>
@@ -27250,7 +27249,7 @@
       <c r="AH537" s="63"/>
       <c r="AI537" s="63"/>
     </row>
-    <row r="538" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A538" s="63"/>
       <c r="B538" s="63"/>
       <c r="C538" s="63"/>
@@ -27287,7 +27286,7 @@
       <c r="AH538" s="63"/>
       <c r="AI538" s="63"/>
     </row>
-    <row r="539" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A539" s="63"/>
       <c r="B539" s="63"/>
       <c r="C539" s="63"/>
@@ -27324,7 +27323,7 @@
       <c r="AH539" s="63"/>
       <c r="AI539" s="63"/>
     </row>
-    <row r="540" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A540" s="63"/>
       <c r="B540" s="63"/>
       <c r="C540" s="63"/>
@@ -27361,7 +27360,7 @@
       <c r="AH540" s="63"/>
       <c r="AI540" s="63"/>
     </row>
-    <row r="541" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A541" s="63"/>
       <c r="B541" s="63"/>
       <c r="C541" s="63"/>
@@ -27398,7 +27397,7 @@
       <c r="AH541" s="63"/>
       <c r="AI541" s="63"/>
     </row>
-    <row r="542" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A542" s="63"/>
       <c r="B542" s="63"/>
       <c r="C542" s="63"/>
@@ -27435,7 +27434,7 @@
       <c r="AH542" s="63"/>
       <c r="AI542" s="63"/>
     </row>
-    <row r="543" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A543" s="63"/>
       <c r="B543" s="63"/>
       <c r="C543" s="63"/>
@@ -27472,7 +27471,7 @@
       <c r="AH543" s="63"/>
       <c r="AI543" s="63"/>
     </row>
-    <row r="544" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A544" s="63"/>
       <c r="B544" s="63"/>
       <c r="C544" s="63"/>
@@ -27509,7 +27508,7 @@
       <c r="AH544" s="63"/>
       <c r="AI544" s="63"/>
     </row>
-    <row r="545" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A545" s="63"/>
       <c r="B545" s="63"/>
       <c r="C545" s="63"/>
@@ -27546,7 +27545,7 @@
       <c r="AH545" s="63"/>
       <c r="AI545" s="63"/>
     </row>
-    <row r="546" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A546" s="63"/>
       <c r="B546" s="63"/>
       <c r="C546" s="63"/>
@@ -27583,7 +27582,7 @@
       <c r="AH546" s="63"/>
       <c r="AI546" s="63"/>
     </row>
-    <row r="547" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A547" s="63"/>
       <c r="B547" s="63"/>
       <c r="C547" s="63"/>
@@ -27620,7 +27619,7 @@
       <c r="AH547" s="63"/>
       <c r="AI547" s="63"/>
     </row>
-    <row r="548" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A548" s="63"/>
       <c r="B548" s="63"/>
       <c r="C548" s="63"/>
@@ -27657,7 +27656,7 @@
       <c r="AH548" s="63"/>
       <c r="AI548" s="63"/>
     </row>
-    <row r="549" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A549" s="63"/>
       <c r="B549" s="63"/>
       <c r="C549" s="63"/>
@@ -27694,7 +27693,7 @@
       <c r="AH549" s="63"/>
       <c r="AI549" s="63"/>
     </row>
-    <row r="550" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A550" s="63"/>
       <c r="B550" s="63"/>
       <c r="C550" s="63"/>
@@ -27731,7 +27730,7 @@
       <c r="AH550" s="63"/>
       <c r="AI550" s="63"/>
     </row>
-    <row r="551" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A551" s="63"/>
       <c r="B551" s="63"/>
       <c r="C551" s="63"/>
@@ -27768,7 +27767,7 @@
       <c r="AH551" s="63"/>
       <c r="AI551" s="63"/>
     </row>
-    <row r="552" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A552" s="63"/>
       <c r="B552" s="63"/>
       <c r="C552" s="63"/>
@@ -27805,7 +27804,7 @@
       <c r="AH552" s="63"/>
       <c r="AI552" s="63"/>
     </row>
-    <row r="553" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A553" s="63"/>
       <c r="B553" s="63"/>
       <c r="C553" s="63"/>
@@ -27842,7 +27841,7 @@
       <c r="AH553" s="63"/>
       <c r="AI553" s="63"/>
     </row>
-    <row r="554" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A554" s="63"/>
       <c r="B554" s="63"/>
       <c r="C554" s="63"/>
@@ -27879,7 +27878,7 @@
       <c r="AH554" s="63"/>
       <c r="AI554" s="63"/>
     </row>
-    <row r="555" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A555" s="63"/>
       <c r="B555" s="63"/>
       <c r="C555" s="63"/>
@@ -27916,7 +27915,7 @@
       <c r="AH555" s="63"/>
       <c r="AI555" s="63"/>
     </row>
-    <row r="556" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A556" s="63"/>
       <c r="B556" s="63"/>
       <c r="C556" s="63"/>
@@ -27953,7 +27952,7 @@
       <c r="AH556" s="63"/>
       <c r="AI556" s="63"/>
     </row>
-    <row r="557" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A557" s="63"/>
       <c r="B557" s="63"/>
       <c r="C557" s="63"/>
@@ -27990,7 +27989,7 @@
       <c r="AH557" s="63"/>
       <c r="AI557" s="63"/>
     </row>
-    <row r="558" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A558" s="63"/>
       <c r="B558" s="63"/>
       <c r="C558" s="63"/>
@@ -28027,7 +28026,7 @@
       <c r="AH558" s="63"/>
       <c r="AI558" s="63"/>
     </row>
-    <row r="559" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A559" s="63"/>
       <c r="B559" s="63"/>
       <c r="C559" s="63"/>
@@ -28064,7 +28063,7 @@
       <c r="AH559" s="63"/>
       <c r="AI559" s="63"/>
     </row>
-    <row r="560" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A560" s="63"/>
       <c r="B560" s="63"/>
       <c r="C560" s="63"/>
@@ -28101,7 +28100,7 @@
       <c r="AH560" s="63"/>
       <c r="AI560" s="63"/>
     </row>
-    <row r="561" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A561" s="63"/>
       <c r="B561" s="63"/>
       <c r="C561" s="63"/>
@@ -28138,7 +28137,7 @@
       <c r="AH561" s="63"/>
       <c r="AI561" s="63"/>
     </row>
-    <row r="562" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A562" s="63"/>
       <c r="B562" s="63"/>
       <c r="C562" s="63"/>
@@ -28175,7 +28174,7 @@
       <c r="AH562" s="63"/>
       <c r="AI562" s="63"/>
     </row>
-    <row r="563" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A563" s="63"/>
       <c r="B563" s="63"/>
       <c r="C563" s="63"/>
@@ -28212,7 +28211,7 @@
       <c r="AH563" s="63"/>
       <c r="AI563" s="63"/>
     </row>
-    <row r="564" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A564" s="63"/>
       <c r="B564" s="63"/>
       <c r="C564" s="63"/>
@@ -28249,7 +28248,7 @@
       <c r="AH564" s="63"/>
       <c r="AI564" s="63"/>
     </row>
-    <row r="565" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A565" s="63"/>
       <c r="B565" s="63"/>
       <c r="C565" s="63"/>
@@ -28286,7 +28285,7 @@
       <c r="AH565" s="63"/>
       <c r="AI565" s="63"/>
     </row>
-    <row r="566" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A566" s="63"/>
       <c r="B566" s="63"/>
       <c r="C566" s="63"/>
@@ -28323,7 +28322,7 @@
       <c r="AH566" s="63"/>
       <c r="AI566" s="63"/>
     </row>
-    <row r="567" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A567" s="63"/>
       <c r="B567" s="63"/>
       <c r="C567" s="63"/>
@@ -28360,7 +28359,7 @@
       <c r="AH567" s="63"/>
       <c r="AI567" s="63"/>
     </row>
-    <row r="568" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A568" s="63"/>
       <c r="B568" s="63"/>
       <c r="C568" s="63"/>
@@ -28397,7 +28396,7 @@
       <c r="AH568" s="63"/>
       <c r="AI568" s="63"/>
     </row>
-    <row r="569" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A569" s="63"/>
       <c r="B569" s="63"/>
       <c r="C569" s="63"/>
@@ -28434,7 +28433,7 @@
       <c r="AH569" s="63"/>
       <c r="AI569" s="63"/>
     </row>
-    <row r="570" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A570" s="63"/>
       <c r="B570" s="63"/>
       <c r="C570" s="63"/>
@@ -28471,7 +28470,7 @@
       <c r="AH570" s="63"/>
       <c r="AI570" s="63"/>
     </row>
-    <row r="571" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A571" s="63"/>
       <c r="B571" s="63"/>
       <c r="C571" s="63"/>
@@ -28508,7 +28507,7 @@
       <c r="AH571" s="63"/>
       <c r="AI571" s="63"/>
     </row>
-    <row r="572" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A572" s="63"/>
       <c r="B572" s="63"/>
       <c r="C572" s="63"/>
@@ -28545,7 +28544,7 @@
       <c r="AH572" s="63"/>
       <c r="AI572" s="63"/>
     </row>
-    <row r="573" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A573" s="63"/>
       <c r="B573" s="63"/>
       <c r="C573" s="63"/>
@@ -28582,7 +28581,7 @@
       <c r="AH573" s="63"/>
       <c r="AI573" s="63"/>
     </row>
-    <row r="574" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A574" s="63"/>
       <c r="B574" s="63"/>
       <c r="C574" s="63"/>
@@ -28619,7 +28618,7 @@
       <c r="AH574" s="63"/>
       <c r="AI574" s="63"/>
     </row>
-    <row r="575" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A575" s="63"/>
       <c r="B575" s="63"/>
       <c r="C575" s="63"/>
@@ -28656,7 +28655,7 @@
       <c r="AH575" s="63"/>
       <c r="AI575" s="63"/>
     </row>
-    <row r="576" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A576" s="63"/>
       <c r="B576" s="63"/>
       <c r="C576" s="63"/>
@@ -28693,7 +28692,7 @@
       <c r="AH576" s="63"/>
       <c r="AI576" s="63"/>
     </row>
-    <row r="577" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A577" s="63"/>
       <c r="B577" s="63"/>
       <c r="C577" s="63"/>
@@ -28730,7 +28729,7 @@
       <c r="AH577" s="63"/>
       <c r="AI577" s="63"/>
     </row>
-    <row r="578" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A578" s="63"/>
       <c r="B578" s="63"/>
       <c r="C578" s="63"/>
@@ -28767,7 +28766,7 @@
       <c r="AH578" s="63"/>
       <c r="AI578" s="63"/>
     </row>
-    <row r="579" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A579" s="63"/>
       <c r="B579" s="63"/>
       <c r="C579" s="63"/>
@@ -28804,7 +28803,7 @@
       <c r="AH579" s="63"/>
       <c r="AI579" s="63"/>
     </row>
-    <row r="580" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A580" s="63"/>
       <c r="B580" s="63"/>
       <c r="C580" s="63"/>
@@ -28841,7 +28840,7 @@
       <c r="AH580" s="63"/>
       <c r="AI580" s="63"/>
     </row>
-    <row r="581" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A581" s="63"/>
       <c r="B581" s="63"/>
       <c r="C581" s="63"/>
@@ -28878,7 +28877,7 @@
       <c r="AH581" s="63"/>
       <c r="AI581" s="63"/>
     </row>
-    <row r="582" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A582" s="63"/>
       <c r="B582" s="63"/>
       <c r="C582" s="63"/>
@@ -28915,7 +28914,7 @@
       <c r="AH582" s="63"/>
       <c r="AI582" s="63"/>
     </row>
-    <row r="583" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A583" s="63"/>
       <c r="B583" s="63"/>
       <c r="C583" s="63"/>
@@ -28952,7 +28951,7 @@
       <c r="AH583" s="63"/>
       <c r="AI583" s="63"/>
     </row>
-    <row r="584" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A584" s="63"/>
       <c r="B584" s="63"/>
       <c r="C584" s="63"/>
@@ -28989,7 +28988,7 @@
       <c r="AH584" s="63"/>
       <c r="AI584" s="63"/>
     </row>
-    <row r="585" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A585" s="63"/>
       <c r="B585" s="63"/>
       <c r="C585" s="63"/>
@@ -29026,7 +29025,7 @@
       <c r="AH585" s="63"/>
       <c r="AI585" s="63"/>
     </row>
-    <row r="586" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A586" s="63"/>
       <c r="B586" s="63"/>
       <c r="C586" s="63"/>
@@ -29063,7 +29062,7 @@
       <c r="AH586" s="63"/>
       <c r="AI586" s="63"/>
     </row>
-    <row r="587" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A587" s="63"/>
       <c r="B587" s="63"/>
       <c r="C587" s="63"/>
@@ -29100,7 +29099,7 @@
       <c r="AH587" s="63"/>
       <c r="AI587" s="63"/>
     </row>
-    <row r="588" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A588" s="63"/>
       <c r="B588" s="63"/>
       <c r="C588" s="63"/>
@@ -29137,7 +29136,7 @@
       <c r="AH588" s="63"/>
       <c r="AI588" s="63"/>
     </row>
-    <row r="589" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A589" s="63"/>
       <c r="B589" s="63"/>
       <c r="C589" s="63"/>
@@ -29174,7 +29173,7 @@
       <c r="AH589" s="63"/>
       <c r="AI589" s="63"/>
     </row>
-    <row r="590" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A590" s="63"/>
       <c r="B590" s="63"/>
       <c r="C590" s="63"/>
@@ -29211,7 +29210,7 @@
       <c r="AH590" s="63"/>
       <c r="AI590" s="63"/>
     </row>
-    <row r="591" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A591" s="63"/>
       <c r="B591" s="63"/>
       <c r="C591" s="63"/>
@@ -29248,7 +29247,7 @@
       <c r="AH591" s="63"/>
       <c r="AI591" s="63"/>
     </row>
-    <row r="592" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A592" s="63"/>
       <c r="B592" s="63"/>
       <c r="C592" s="63"/>
@@ -29285,7 +29284,7 @@
       <c r="AH592" s="63"/>
       <c r="AI592" s="63"/>
     </row>
-    <row r="593" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A593" s="63"/>
       <c r="B593" s="63"/>
       <c r="C593" s="63"/>
@@ -29322,7 +29321,7 @@
       <c r="AH593" s="63"/>
       <c r="AI593" s="63"/>
     </row>
-    <row r="594" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A594" s="63"/>
       <c r="B594" s="63"/>
       <c r="C594" s="63"/>
@@ -29359,7 +29358,7 @@
       <c r="AH594" s="63"/>
       <c r="AI594" s="63"/>
     </row>
-    <row r="595" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A595" s="63"/>
       <c r="B595" s="63"/>
       <c r="C595" s="63"/>
@@ -29396,7 +29395,7 @@
       <c r="AH595" s="63"/>
       <c r="AI595" s="63"/>
     </row>
-    <row r="596" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A596" s="63"/>
       <c r="B596" s="63"/>
       <c r="C596" s="63"/>
@@ -29433,7 +29432,7 @@
       <c r="AH596" s="63"/>
       <c r="AI596" s="63"/>
     </row>
-    <row r="597" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A597" s="63"/>
       <c r="B597" s="63"/>
       <c r="C597" s="63"/>
@@ -29470,7 +29469,7 @@
       <c r="AH597" s="63"/>
       <c r="AI597" s="63"/>
     </row>
-    <row r="598" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A598" s="63"/>
       <c r="B598" s="63"/>
       <c r="C598" s="63"/>
@@ -29507,7 +29506,7 @@
       <c r="AH598" s="63"/>
       <c r="AI598" s="63"/>
     </row>
-    <row r="599" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A599" s="63"/>
       <c r="B599" s="63"/>
       <c r="C599" s="63"/>
@@ -29544,7 +29543,7 @@
       <c r="AH599" s="63"/>
       <c r="AI599" s="63"/>
     </row>
-    <row r="600" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A600" s="63"/>
       <c r="B600" s="63"/>
       <c r="C600" s="63"/>
@@ -29581,7 +29580,7 @@
       <c r="AH600" s="63"/>
       <c r="AI600" s="63"/>
     </row>
-    <row r="601" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A601" s="63"/>
       <c r="B601" s="63"/>
       <c r="C601" s="63"/>
@@ -29618,7 +29617,7 @@
       <c r="AH601" s="63"/>
       <c r="AI601" s="63"/>
     </row>
-    <row r="602" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A602" s="63"/>
       <c r="B602" s="63"/>
       <c r="C602" s="63"/>
@@ -29655,7 +29654,7 @@
       <c r="AH602" s="63"/>
       <c r="AI602" s="63"/>
     </row>
-    <row r="603" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A603" s="63"/>
       <c r="B603" s="63"/>
       <c r="C603" s="63"/>
@@ -29692,7 +29691,7 @@
       <c r="AH603" s="63"/>
       <c r="AI603" s="63"/>
     </row>
-    <row r="604" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A604" s="63"/>
       <c r="B604" s="63"/>
       <c r="C604" s="63"/>
@@ -29729,7 +29728,7 @@
       <c r="AH604" s="63"/>
       <c r="AI604" s="63"/>
     </row>
-    <row r="605" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A605" s="63"/>
       <c r="B605" s="63"/>
       <c r="C605" s="63"/>
@@ -29766,7 +29765,7 @@
       <c r="AH605" s="63"/>
       <c r="AI605" s="63"/>
     </row>
-    <row r="606" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A606" s="63"/>
       <c r="B606" s="63"/>
       <c r="C606" s="63"/>
@@ -29803,7 +29802,7 @@
       <c r="AH606" s="63"/>
       <c r="AI606" s="63"/>
     </row>
-    <row r="607" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A607" s="63"/>
       <c r="B607" s="63"/>
       <c r="C607" s="63"/>
@@ -29840,7 +29839,7 @@
       <c r="AH607" s="63"/>
       <c r="AI607" s="63"/>
     </row>
-    <row r="608" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A608" s="63"/>
       <c r="B608" s="63"/>
       <c r="C608" s="63"/>
@@ -29877,7 +29876,7 @@
       <c r="AH608" s="63"/>
       <c r="AI608" s="63"/>
     </row>
-    <row r="609" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A609" s="63"/>
       <c r="B609" s="63"/>
       <c r="C609" s="63"/>
@@ -29914,7 +29913,7 @@
       <c r="AH609" s="63"/>
       <c r="AI609" s="63"/>
     </row>
-    <row r="610" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A610" s="63"/>
       <c r="B610" s="63"/>
       <c r="C610" s="63"/>
@@ -29951,7 +29950,7 @@
       <c r="AH610" s="63"/>
       <c r="AI610" s="63"/>
     </row>
-    <row r="611" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A611" s="63"/>
       <c r="B611" s="63"/>
       <c r="C611" s="63"/>
@@ -29988,7 +29987,7 @@
       <c r="AH611" s="63"/>
       <c r="AI611" s="63"/>
     </row>
-    <row r="612" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A612" s="63"/>
       <c r="B612" s="63"/>
       <c r="C612" s="63"/>
@@ -30025,7 +30024,7 @@
       <c r="AH612" s="63"/>
       <c r="AI612" s="63"/>
     </row>
-    <row r="613" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A613" s="63"/>
       <c r="B613" s="63"/>
       <c r="C613" s="63"/>
@@ -30062,7 +30061,7 @@
       <c r="AH613" s="63"/>
       <c r="AI613" s="63"/>
     </row>
-    <row r="614" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A614" s="63"/>
       <c r="B614" s="63"/>
       <c r="C614" s="63"/>
@@ -30099,7 +30098,7 @@
       <c r="AH614" s="63"/>
       <c r="AI614" s="63"/>
     </row>
-    <row r="615" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A615" s="63"/>
       <c r="B615" s="63"/>
       <c r="C615" s="63"/>
@@ -30136,7 +30135,7 @@
       <c r="AH615" s="63"/>
       <c r="AI615" s="63"/>
     </row>
-    <row r="616" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A616" s="63"/>
       <c r="B616" s="63"/>
       <c r="C616" s="63"/>
@@ -30173,7 +30172,7 @@
       <c r="AH616" s="63"/>
       <c r="AI616" s="63"/>
     </row>
-    <row r="617" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A617" s="63"/>
       <c r="B617" s="63"/>
       <c r="C617" s="63"/>
@@ -30210,7 +30209,7 @@
       <c r="AH617" s="63"/>
       <c r="AI617" s="63"/>
     </row>
-    <row r="618" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A618" s="63"/>
       <c r="B618" s="63"/>
       <c r="C618" s="63"/>
@@ -30247,7 +30246,7 @@
       <c r="AH618" s="63"/>
       <c r="AI618" s="63"/>
     </row>
-    <row r="619" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A619" s="63"/>
       <c r="B619" s="63"/>
       <c r="C619" s="63"/>
@@ -30284,7 +30283,7 @@
       <c r="AH619" s="63"/>
       <c r="AI619" s="63"/>
     </row>
-    <row r="620" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A620" s="63"/>
       <c r="B620" s="63"/>
       <c r="C620" s="63"/>
@@ -30321,7 +30320,7 @@
       <c r="AH620" s="63"/>
       <c r="AI620" s="63"/>
     </row>
-    <row r="621" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A621" s="63"/>
       <c r="B621" s="63"/>
       <c r="C621" s="63"/>
@@ -30358,7 +30357,7 @@
       <c r="AH621" s="63"/>
       <c r="AI621" s="63"/>
     </row>
-    <row r="622" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A622" s="63"/>
       <c r="B622" s="63"/>
       <c r="C622" s="63"/>
@@ -30395,7 +30394,7 @@
       <c r="AH622" s="63"/>
       <c r="AI622" s="63"/>
     </row>
-    <row r="623" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A623" s="63"/>
       <c r="B623" s="63"/>
       <c r="C623" s="63"/>
@@ -30432,7 +30431,7 @@
       <c r="AH623" s="63"/>
       <c r="AI623" s="63"/>
     </row>
-    <row r="624" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A624" s="63"/>
       <c r="B624" s="63"/>
       <c r="C624" s="63"/>
@@ -30469,7 +30468,7 @@
       <c r="AH624" s="63"/>
       <c r="AI624" s="63"/>
     </row>
-    <row r="625" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A625" s="63"/>
       <c r="B625" s="63"/>
       <c r="C625" s="63"/>
@@ -30506,7 +30505,7 @@
       <c r="AH625" s="63"/>
       <c r="AI625" s="63"/>
     </row>
-    <row r="626" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A626" s="63"/>
       <c r="B626" s="63"/>
       <c r="C626" s="63"/>
@@ -30543,7 +30542,7 @@
       <c r="AH626" s="63"/>
       <c r="AI626" s="63"/>
     </row>
-    <row r="627" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A627" s="63"/>
       <c r="B627" s="63"/>
       <c r="C627" s="63"/>
@@ -30580,7 +30579,7 @@
       <c r="AH627" s="63"/>
       <c r="AI627" s="63"/>
     </row>
-    <row r="628" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A628" s="63"/>
       <c r="B628" s="63"/>
       <c r="C628" s="63"/>
@@ -30617,7 +30616,7 @@
       <c r="AH628" s="63"/>
       <c r="AI628" s="63"/>
     </row>
-    <row r="629" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A629" s="63"/>
       <c r="B629" s="63"/>
       <c r="C629" s="63"/>
@@ -30654,7 +30653,7 @@
       <c r="AH629" s="63"/>
       <c r="AI629" s="63"/>
     </row>
-    <row r="630" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A630" s="63"/>
       <c r="B630" s="63"/>
       <c r="C630" s="63"/>
@@ -30691,7 +30690,7 @@
       <c r="AH630" s="63"/>
       <c r="AI630" s="63"/>
     </row>
-    <row r="631" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A631" s="63"/>
       <c r="B631" s="63"/>
       <c r="C631" s="63"/>
@@ -30728,7 +30727,7 @@
       <c r="AH631" s="63"/>
       <c r="AI631" s="63"/>
     </row>
-    <row r="632" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A632" s="63"/>
       <c r="B632" s="63"/>
       <c r="C632" s="63"/>
@@ -30765,7 +30764,7 @@
       <c r="AH632" s="63"/>
       <c r="AI632" s="63"/>
     </row>
-    <row r="633" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A633" s="63"/>
       <c r="B633" s="63"/>
       <c r="C633" s="63"/>
@@ -30802,7 +30801,7 @@
       <c r="AH633" s="63"/>
       <c r="AI633" s="63"/>
     </row>
-    <row r="634" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A634" s="63"/>
       <c r="B634" s="63"/>
       <c r="C634" s="63"/>
@@ -30839,7 +30838,7 @@
       <c r="AH634" s="63"/>
       <c r="AI634" s="63"/>
     </row>
-    <row r="635" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A635" s="63"/>
       <c r="B635" s="63"/>
       <c r="C635" s="63"/>
@@ -30876,7 +30875,7 @@
       <c r="AH635" s="63"/>
       <c r="AI635" s="63"/>
     </row>
-    <row r="636" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A636" s="63"/>
       <c r="B636" s="63"/>
       <c r="C636" s="63"/>
@@ -30913,7 +30912,7 @@
       <c r="AH636" s="63"/>
       <c r="AI636" s="63"/>
     </row>
-    <row r="637" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A637" s="63"/>
       <c r="B637" s="63"/>
       <c r="C637" s="63"/>
@@ -30950,7 +30949,7 @@
       <c r="AH637" s="63"/>
       <c r="AI637" s="63"/>
     </row>
-    <row r="638" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A638" s="63"/>
       <c r="B638" s="63"/>
       <c r="C638" s="63"/>
@@ -30987,7 +30986,7 @@
       <c r="AH638" s="63"/>
       <c r="AI638" s="63"/>
     </row>
-    <row r="639" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A639" s="63"/>
       <c r="B639" s="63"/>
       <c r="C639" s="63"/>
@@ -31024,7 +31023,7 @@
       <c r="AH639" s="63"/>
       <c r="AI639" s="63"/>
     </row>
-    <row r="640" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A640" s="63"/>
       <c r="B640" s="63"/>
       <c r="C640" s="63"/>
@@ -31061,7 +31060,7 @@
       <c r="AH640" s="63"/>
       <c r="AI640" s="63"/>
     </row>
-    <row r="641" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A641" s="63"/>
       <c r="B641" s="63"/>
       <c r="C641" s="63"/>
@@ -31098,7 +31097,7 @@
       <c r="AH641" s="63"/>
       <c r="AI641" s="63"/>
     </row>
-    <row r="642" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A642" s="63"/>
       <c r="B642" s="63"/>
       <c r="C642" s="63"/>
@@ -31135,7 +31134,7 @@
       <c r="AH642" s="63"/>
       <c r="AI642" s="63"/>
     </row>
-    <row r="643" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A643" s="63"/>
       <c r="B643" s="63"/>
       <c r="C643" s="63"/>
@@ -31172,7 +31171,7 @@
       <c r="AH643" s="63"/>
       <c r="AI643" s="63"/>
     </row>
-    <row r="644" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A644" s="63"/>
       <c r="B644" s="63"/>
       <c r="C644" s="63"/>
@@ -31209,7 +31208,7 @@
       <c r="AH644" s="63"/>
       <c r="AI644" s="63"/>
     </row>
-    <row r="645" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A645" s="63"/>
       <c r="B645" s="63"/>
       <c r="C645" s="63"/>
@@ -31246,7 +31245,7 @@
       <c r="AH645" s="63"/>
       <c r="AI645" s="63"/>
     </row>
-    <row r="646" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A646" s="63"/>
       <c r="B646" s="63"/>
       <c r="C646" s="63"/>
@@ -31283,7 +31282,7 @@
       <c r="AH646" s="63"/>
       <c r="AI646" s="63"/>
     </row>
-    <row r="647" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A647" s="63"/>
       <c r="B647" s="63"/>
       <c r="C647" s="63"/>
@@ -31320,7 +31319,7 @@
       <c r="AH647" s="63"/>
       <c r="AI647" s="63"/>
     </row>
-    <row r="648" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A648" s="63"/>
       <c r="B648" s="63"/>
       <c r="C648" s="63"/>
@@ -31357,7 +31356,7 @@
       <c r="AH648" s="63"/>
       <c r="AI648" s="63"/>
     </row>
-    <row r="649" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A649" s="63"/>
       <c r="B649" s="63"/>
       <c r="C649" s="63"/>
@@ -31394,7 +31393,7 @@
       <c r="AH649" s="63"/>
       <c r="AI649" s="63"/>
     </row>
-    <row r="650" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A650" s="63"/>
       <c r="B650" s="63"/>
       <c r="C650" s="63"/>
@@ -31431,7 +31430,7 @@
       <c r="AH650" s="63"/>
       <c r="AI650" s="63"/>
     </row>
-    <row r="651" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A651" s="63"/>
       <c r="B651" s="63"/>
       <c r="C651" s="63"/>
@@ -31468,7 +31467,7 @@
       <c r="AH651" s="63"/>
       <c r="AI651" s="63"/>
     </row>
-    <row r="652" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A652" s="63"/>
       <c r="B652" s="63"/>
       <c r="C652" s="63"/>
@@ -31505,7 +31504,7 @@
       <c r="AH652" s="63"/>
       <c r="AI652" s="63"/>
     </row>
-    <row r="653" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A653" s="63"/>
       <c r="B653" s="63"/>
       <c r="C653" s="63"/>
@@ -31542,7 +31541,7 @@
       <c r="AH653" s="63"/>
       <c r="AI653" s="63"/>
     </row>
-    <row r="654" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A654" s="63"/>
       <c r="B654" s="63"/>
       <c r="C654" s="63"/>
@@ -31579,7 +31578,7 @@
       <c r="AH654" s="63"/>
       <c r="AI654" s="63"/>
     </row>
-    <row r="655" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A655" s="63"/>
       <c r="B655" s="63"/>
       <c r="C655" s="63"/>
@@ -31616,7 +31615,7 @@
       <c r="AH655" s="63"/>
       <c r="AI655" s="63"/>
     </row>
-    <row r="656" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A656" s="63"/>
       <c r="B656" s="63"/>
       <c r="C656" s="63"/>
@@ -31653,7 +31652,7 @@
       <c r="AH656" s="63"/>
       <c r="AI656" s="63"/>
     </row>
-    <row r="657" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A657" s="63"/>
       <c r="B657" s="63"/>
       <c r="C657" s="63"/>
@@ -31690,7 +31689,7 @@
       <c r="AH657" s="63"/>
       <c r="AI657" s="63"/>
     </row>
-    <row r="658" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A658" s="63"/>
       <c r="B658" s="63"/>
       <c r="C658" s="63"/>
@@ -31727,7 +31726,7 @@
       <c r="AH658" s="63"/>
       <c r="AI658" s="63"/>
     </row>
-    <row r="659" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A659" s="63"/>
       <c r="B659" s="63"/>
       <c r="C659" s="63"/>
@@ -31764,7 +31763,7 @@
       <c r="AH659" s="63"/>
       <c r="AI659" s="63"/>
     </row>
-    <row r="660" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A660" s="63"/>
       <c r="B660" s="63"/>
       <c r="C660" s="63"/>
@@ -31801,7 +31800,7 @@
       <c r="AH660" s="63"/>
       <c r="AI660" s="63"/>
     </row>
-    <row r="661" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A661" s="63"/>
       <c r="B661" s="63"/>
       <c r="C661" s="63"/>
@@ -31838,7 +31837,7 @@
       <c r="AH661" s="63"/>
       <c r="AI661" s="63"/>
     </row>
-    <row r="662" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A662" s="63"/>
       <c r="B662" s="63"/>
       <c r="C662" s="63"/>
@@ -31875,7 +31874,7 @@
       <c r="AH662" s="63"/>
       <c r="AI662" s="63"/>
     </row>
-    <row r="663" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A663" s="63"/>
       <c r="B663" s="63"/>
       <c r="C663" s="63"/>
@@ -31912,7 +31911,7 @@
       <c r="AH663" s="63"/>
       <c r="AI663" s="63"/>
     </row>
-    <row r="664" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A664" s="63"/>
       <c r="B664" s="63"/>
       <c r="C664" s="63"/>
@@ -31949,7 +31948,7 @@
       <c r="AH664" s="63"/>
       <c r="AI664" s="63"/>
     </row>
-    <row r="665" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A665" s="63"/>
       <c r="B665" s="63"/>
       <c r="C665" s="63"/>
@@ -31986,7 +31985,7 @@
       <c r="AH665" s="63"/>
       <c r="AI665" s="63"/>
     </row>
-    <row r="666" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A666" s="63"/>
       <c r="B666" s="63"/>
       <c r="C666" s="63"/>
@@ -32023,7 +32022,7 @@
       <c r="AH666" s="63"/>
       <c r="AI666" s="63"/>
     </row>
-    <row r="667" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A667" s="63"/>
       <c r="B667" s="63"/>
       <c r="C667" s="63"/>
@@ -32060,7 +32059,7 @@
       <c r="AH667" s="63"/>
       <c r="AI667" s="63"/>
     </row>
-    <row r="668" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A668" s="63"/>
       <c r="B668" s="63"/>
       <c r="C668" s="63"/>
@@ -32097,7 +32096,7 @@
       <c r="AH668" s="63"/>
       <c r="AI668" s="63"/>
     </row>
-    <row r="669" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A669" s="63"/>
       <c r="B669" s="63"/>
       <c r="C669" s="63"/>
@@ -32134,7 +32133,7 @@
       <c r="AH669" s="63"/>
       <c r="AI669" s="63"/>
     </row>
-    <row r="670" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A670" s="63"/>
       <c r="B670" s="63"/>
       <c r="C670" s="63"/>
@@ -32171,7 +32170,7 @@
       <c r="AH670" s="63"/>
       <c r="AI670" s="63"/>
     </row>
-    <row r="671" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A671" s="63"/>
       <c r="B671" s="63"/>
       <c r="C671" s="63"/>
@@ -32208,7 +32207,7 @@
       <c r="AH671" s="63"/>
       <c r="AI671" s="63"/>
     </row>
-    <row r="672" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A672" s="63"/>
       <c r="B672" s="63"/>
       <c r="C672" s="63"/>
@@ -32245,7 +32244,7 @@
       <c r="AH672" s="63"/>
       <c r="AI672" s="63"/>
     </row>
-    <row r="673" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A673" s="63"/>
       <c r="B673" s="63"/>
       <c r="C673" s="63"/>
@@ -32282,7 +32281,7 @@
       <c r="AH673" s="63"/>
       <c r="AI673" s="63"/>
     </row>
-    <row r="674" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A674" s="63"/>
       <c r="B674" s="63"/>
       <c r="C674" s="63"/>
@@ -32319,7 +32318,7 @@
       <c r="AH674" s="63"/>
       <c r="AI674" s="63"/>
     </row>
-    <row r="675" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A675" s="63"/>
       <c r="B675" s="63"/>
       <c r="C675" s="63"/>
@@ -32356,7 +32355,7 @@
       <c r="AH675" s="63"/>
       <c r="AI675" s="63"/>
     </row>
-    <row r="676" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A676" s="63"/>
       <c r="B676" s="63"/>
       <c r="C676" s="63"/>
@@ -32393,7 +32392,7 @@
       <c r="AH676" s="63"/>
       <c r="AI676" s="63"/>
     </row>
-    <row r="677" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A677" s="63"/>
       <c r="B677" s="63"/>
       <c r="C677" s="63"/>
@@ -32430,7 +32429,7 @@
       <c r="AH677" s="63"/>
       <c r="AI677" s="63"/>
     </row>
-    <row r="678" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A678" s="63"/>
       <c r="B678" s="63"/>
       <c r="C678" s="63"/>
@@ -32467,7 +32466,7 @@
       <c r="AH678" s="63"/>
       <c r="AI678" s="63"/>
     </row>
-    <row r="679" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A679" s="63"/>
       <c r="B679" s="63"/>
       <c r="C679" s="63"/>
@@ -32504,7 +32503,7 @@
       <c r="AH679" s="63"/>
       <c r="AI679" s="63"/>
     </row>
-    <row r="680" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A680" s="63"/>
       <c r="B680" s="63"/>
       <c r="C680" s="63"/>
@@ -32541,7 +32540,7 @@
       <c r="AH680" s="63"/>
       <c r="AI680" s="63"/>
     </row>
-    <row r="681" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A681" s="63"/>
       <c r="B681" s="63"/>
       <c r="C681" s="63"/>
@@ -32578,7 +32577,7 @@
       <c r="AH681" s="63"/>
       <c r="AI681" s="63"/>
     </row>
-    <row r="682" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A682" s="63"/>
       <c r="B682" s="63"/>
       <c r="C682" s="63"/>
@@ -32615,7 +32614,7 @@
       <c r="AH682" s="63"/>
       <c r="AI682" s="63"/>
     </row>
-    <row r="683" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A683" s="63"/>
       <c r="B683" s="63"/>
       <c r="C683" s="63"/>
@@ -32652,7 +32651,7 @@
       <c r="AH683" s="63"/>
       <c r="AI683" s="63"/>
     </row>
-    <row r="684" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A684" s="63"/>
       <c r="B684" s="63"/>
       <c r="C684" s="63"/>
@@ -32689,7 +32688,7 @@
       <c r="AH684" s="63"/>
       <c r="AI684" s="63"/>
     </row>
-    <row r="685" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A685" s="63"/>
       <c r="B685" s="63"/>
       <c r="C685" s="63"/>
@@ -32726,7 +32725,7 @@
       <c r="AH685" s="63"/>
       <c r="AI685" s="63"/>
     </row>
-    <row r="686" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A686" s="63"/>
       <c r="B686" s="63"/>
       <c r="C686" s="63"/>
@@ -32763,7 +32762,7 @@
       <c r="AH686" s="63"/>
       <c r="AI686" s="63"/>
     </row>
-    <row r="687" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A687" s="63"/>
       <c r="B687" s="63"/>
       <c r="C687" s="63"/>
@@ -32800,7 +32799,7 @@
       <c r="AH687" s="63"/>
       <c r="AI687" s="63"/>
     </row>
-    <row r="688" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A688" s="63"/>
       <c r="B688" s="63"/>
       <c r="C688" s="63"/>
@@ -32837,7 +32836,7 @@
       <c r="AH688" s="63"/>
       <c r="AI688" s="63"/>
     </row>
-    <row r="689" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A689" s="63"/>
       <c r="B689" s="63"/>
       <c r="C689" s="63"/>
@@ -32874,7 +32873,7 @@
       <c r="AH689" s="63"/>
       <c r="AI689" s="63"/>
     </row>
-    <row r="690" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A690" s="63"/>
       <c r="B690" s="63"/>
       <c r="C690" s="63"/>
@@ -32911,7 +32910,7 @@
       <c r="AH690" s="63"/>
       <c r="AI690" s="63"/>
     </row>
-    <row r="691" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A691" s="63"/>
       <c r="B691" s="63"/>
       <c r="C691" s="63"/>
@@ -32948,7 +32947,7 @@
       <c r="AH691" s="63"/>
       <c r="AI691" s="63"/>
     </row>
-    <row r="692" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A692" s="63"/>
       <c r="B692" s="63"/>
       <c r="C692" s="63"/>
@@ -32985,7 +32984,7 @@
       <c r="AH692" s="63"/>
       <c r="AI692" s="63"/>
     </row>
-    <row r="693" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A693" s="63"/>
       <c r="B693" s="63"/>
       <c r="C693" s="63"/>
@@ -33022,7 +33021,7 @@
       <c r="AH693" s="63"/>
       <c r="AI693" s="63"/>
     </row>
-    <row r="694" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A694" s="63"/>
       <c r="B694" s="63"/>
       <c r="C694" s="63"/>
@@ -33059,7 +33058,7 @@
       <c r="AH694" s="63"/>
       <c r="AI694" s="63"/>
     </row>
-    <row r="695" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A695" s="63"/>
       <c r="B695" s="63"/>
       <c r="C695" s="63"/>
@@ -33096,7 +33095,7 @@
       <c r="AH695" s="63"/>
       <c r="AI695" s="63"/>
     </row>
-    <row r="696" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A696" s="63"/>
       <c r="B696" s="63"/>
       <c r="C696" s="63"/>
@@ -33133,7 +33132,7 @@
       <c r="AH696" s="63"/>
       <c r="AI696" s="63"/>
     </row>
-    <row r="697" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A697" s="63"/>
       <c r="B697" s="63"/>
       <c r="C697" s="63"/>
@@ -33170,7 +33169,7 @@
       <c r="AH697" s="63"/>
       <c r="AI697" s="63"/>
     </row>
-    <row r="698" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A698" s="63"/>
       <c r="B698" s="63"/>
       <c r="C698" s="63"/>
@@ -33207,7 +33206,7 @@
       <c r="AH698" s="63"/>
       <c r="AI698" s="63"/>
     </row>
-    <row r="699" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A699" s="63"/>
       <c r="B699" s="63"/>
       <c r="C699" s="63"/>
@@ -33244,7 +33243,7 @@
       <c r="AH699" s="63"/>
       <c r="AI699" s="63"/>
     </row>
-    <row r="700" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A700" s="63"/>
       <c r="B700" s="63"/>
       <c r="C700" s="63"/>
@@ -33281,7 +33280,7 @@
       <c r="AH700" s="63"/>
       <c r="AI700" s="63"/>
     </row>
-    <row r="701" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A701" s="63"/>
       <c r="B701" s="63"/>
       <c r="C701" s="63"/>
@@ -33318,7 +33317,7 @@
       <c r="AH701" s="63"/>
       <c r="AI701" s="63"/>
     </row>
-    <row r="702" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A702" s="63"/>
       <c r="B702" s="63"/>
       <c r="C702" s="63"/>
@@ -33355,7 +33354,7 @@
       <c r="AH702" s="63"/>
       <c r="AI702" s="63"/>
     </row>
-    <row r="703" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A703" s="63"/>
       <c r="B703" s="63"/>
       <c r="C703" s="63"/>
@@ -33392,7 +33391,7 @@
       <c r="AH703" s="63"/>
       <c r="AI703" s="63"/>
     </row>
-    <row r="704" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A704" s="63"/>
       <c r="B704" s="63"/>
       <c r="C704" s="63"/>
@@ -33429,7 +33428,7 @@
       <c r="AH704" s="63"/>
       <c r="AI704" s="63"/>
     </row>
-    <row r="705" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A705" s="63"/>
       <c r="B705" s="63"/>
       <c r="C705" s="63"/>
@@ -33466,7 +33465,7 @@
       <c r="AH705" s="63"/>
       <c r="AI705" s="63"/>
     </row>
-    <row r="706" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A706" s="63"/>
       <c r="B706" s="63"/>
       <c r="C706" s="63"/>
@@ -33503,7 +33502,7 @@
       <c r="AH706" s="63"/>
       <c r="AI706" s="63"/>
     </row>
-    <row r="707" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A707" s="63"/>
       <c r="B707" s="63"/>
       <c r="C707" s="63"/>
@@ -33540,7 +33539,7 @@
       <c r="AH707" s="63"/>
       <c r="AI707" s="63"/>
     </row>
-    <row r="708" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A708" s="63"/>
       <c r="B708" s="63"/>
       <c r="C708" s="63"/>
@@ -33577,7 +33576,7 @@
       <c r="AH708" s="63"/>
       <c r="AI708" s="63"/>
     </row>
-    <row r="709" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A709" s="63"/>
       <c r="B709" s="63"/>
       <c r="C709" s="63"/>
@@ -33614,7 +33613,7 @@
       <c r="AH709" s="63"/>
       <c r="AI709" s="63"/>
     </row>
-    <row r="710" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A710" s="63"/>
       <c r="B710" s="63"/>
       <c r="C710" s="63"/>
@@ -33651,7 +33650,7 @@
       <c r="AH710" s="63"/>
       <c r="AI710" s="63"/>
     </row>
-    <row r="711" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A711" s="63"/>
       <c r="B711" s="63"/>
       <c r="C711" s="63"/>
@@ -33688,7 +33687,7 @@
       <c r="AH711" s="63"/>
       <c r="AI711" s="63"/>
     </row>
-    <row r="712" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A712" s="63"/>
       <c r="B712" s="63"/>
       <c r="C712" s="63"/>
@@ -33725,7 +33724,7 @@
       <c r="AH712" s="63"/>
       <c r="AI712" s="63"/>
     </row>
-    <row r="713" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A713" s="63"/>
       <c r="B713" s="63"/>
       <c r="C713" s="63"/>
@@ -33762,7 +33761,7 @@
       <c r="AH713" s="63"/>
       <c r="AI713" s="63"/>
     </row>
-    <row r="714" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A714" s="63"/>
       <c r="B714" s="63"/>
       <c r="C714" s="63"/>
@@ -33799,7 +33798,7 @@
       <c r="AH714" s="63"/>
       <c r="AI714" s="63"/>
     </row>
-    <row r="715" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A715" s="63"/>
       <c r="B715" s="63"/>
       <c r="C715" s="63"/>
@@ -33836,7 +33835,7 @@
       <c r="AH715" s="63"/>
       <c r="AI715" s="63"/>
     </row>
-    <row r="716" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A716" s="63"/>
       <c r="B716" s="63"/>
       <c r="C716" s="63"/>
@@ -33873,7 +33872,7 @@
       <c r="AH716" s="63"/>
       <c r="AI716" s="63"/>
     </row>
-    <row r="717" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A717" s="63"/>
       <c r="B717" s="63"/>
       <c r="C717" s="63"/>
@@ -33910,7 +33909,7 @@
       <c r="AH717" s="63"/>
       <c r="AI717" s="63"/>
     </row>
-    <row r="718" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A718" s="63"/>
       <c r="B718" s="63"/>
       <c r="C718" s="63"/>
@@ -33947,7 +33946,7 @@
       <c r="AH718" s="63"/>
       <c r="AI718" s="63"/>
     </row>
-    <row r="719" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A719" s="63"/>
       <c r="B719" s="63"/>
       <c r="C719" s="63"/>
@@ -33984,7 +33983,7 @@
       <c r="AH719" s="63"/>
       <c r="AI719" s="63"/>
     </row>
-    <row r="720" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A720" s="63"/>
       <c r="B720" s="63"/>
       <c r="C720" s="63"/>
@@ -34021,7 +34020,7 @@
       <c r="AH720" s="63"/>
       <c r="AI720" s="63"/>
     </row>
-    <row r="721" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A721" s="63"/>
       <c r="B721" s="63"/>
       <c r="C721" s="63"/>
@@ -34058,7 +34057,7 @@
       <c r="AH721" s="63"/>
       <c r="AI721" s="63"/>
     </row>
-    <row r="722" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A722" s="63"/>
       <c r="B722" s="63"/>
       <c r="C722" s="63"/>
@@ -34095,7 +34094,7 @@
       <c r="AH722" s="63"/>
       <c r="AI722" s="63"/>
     </row>
-    <row r="723" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A723" s="63"/>
       <c r="B723" s="63"/>
       <c r="C723" s="63"/>
@@ -34132,7 +34131,7 @@
       <c r="AH723" s="63"/>
       <c r="AI723" s="63"/>
     </row>
-    <row r="724" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A724" s="63"/>
       <c r="B724" s="63"/>
       <c r="C724" s="63"/>
@@ -34169,7 +34168,7 @@
       <c r="AH724" s="63"/>
       <c r="AI724" s="63"/>
     </row>
-    <row r="725" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A725" s="63"/>
       <c r="B725" s="63"/>
       <c r="C725" s="63"/>
@@ -34206,7 +34205,7 @@
       <c r="AH725" s="63"/>
       <c r="AI725" s="63"/>
     </row>
-    <row r="726" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A726" s="63"/>
       <c r="B726" s="63"/>
       <c r="C726" s="63"/>
@@ -34243,7 +34242,7 @@
       <c r="AH726" s="63"/>
       <c r="AI726" s="63"/>
     </row>
-    <row r="727" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A727" s="63"/>
       <c r="B727" s="63"/>
       <c r="C727" s="63"/>
@@ -34280,7 +34279,7 @@
       <c r="AH727" s="63"/>
       <c r="AI727" s="63"/>
     </row>
-    <row r="728" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A728" s="63"/>
       <c r="B728" s="63"/>
       <c r="C728" s="63"/>
@@ -34317,7 +34316,7 @@
       <c r="AH728" s="63"/>
       <c r="AI728" s="63"/>
     </row>
-    <row r="729" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A729" s="63"/>
       <c r="B729" s="63"/>
       <c r="C729" s="63"/>
@@ -34354,7 +34353,7 @@
       <c r="AH729" s="63"/>
       <c r="AI729" s="63"/>
     </row>
-    <row r="730" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A730" s="63"/>
       <c r="B730" s="63"/>
       <c r="C730" s="63"/>
@@ -34391,7 +34390,7 @@
       <c r="AH730" s="63"/>
       <c r="AI730" s="63"/>
     </row>
-    <row r="731" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A731" s="63"/>
       <c r="B731" s="63"/>
       <c r="C731" s="63"/>
@@ -34428,7 +34427,7 @@
       <c r="AH731" s="63"/>
       <c r="AI731" s="63"/>
     </row>
-    <row r="732" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A732" s="63"/>
       <c r="B732" s="63"/>
       <c r="C732" s="63"/>
@@ -34465,7 +34464,7 @@
       <c r="AH732" s="63"/>
       <c r="AI732" s="63"/>
     </row>
-    <row r="733" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A733" s="63"/>
       <c r="B733" s="63"/>
       <c r="C733" s="63"/>
@@ -34502,7 +34501,7 @@
       <c r="AH733" s="63"/>
       <c r="AI733" s="63"/>
     </row>
-    <row r="734" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A734" s="63"/>
       <c r="B734" s="63"/>
       <c r="C734" s="63"/>
@@ -34539,7 +34538,7 @@
       <c r="AH734" s="63"/>
       <c r="AI734" s="63"/>
     </row>
-    <row r="735" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A735" s="63"/>
       <c r="B735" s="63"/>
       <c r="C735" s="63"/>
@@ -34576,7 +34575,7 @@
       <c r="AH735" s="63"/>
       <c r="AI735" s="63"/>
     </row>
-    <row r="736" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A736" s="63"/>
       <c r="B736" s="63"/>
       <c r="C736" s="63"/>
@@ -34613,7 +34612,7 @@
       <c r="AH736" s="63"/>
       <c r="AI736" s="63"/>
     </row>
-    <row r="737" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A737" s="63"/>
       <c r="B737" s="63"/>
       <c r="C737" s="63"/>
@@ -34650,7 +34649,7 @@
       <c r="AH737" s="63"/>
       <c r="AI737" s="63"/>
     </row>
-    <row r="738" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A738" s="63"/>
       <c r="B738" s="63"/>
       <c r="C738" s="63"/>
@@ -34687,7 +34686,7 @@
       <c r="AH738" s="63"/>
       <c r="AI738" s="63"/>
     </row>
-    <row r="739" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A739" s="63"/>
       <c r="B739" s="63"/>
       <c r="C739" s="63"/>
@@ -34724,7 +34723,7 @@
       <c r="AH739" s="63"/>
       <c r="AI739" s="63"/>
     </row>
-    <row r="740" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A740" s="63"/>
       <c r="B740" s="63"/>
       <c r="C740" s="63"/>
@@ -34761,7 +34760,7 @@
       <c r="AH740" s="63"/>
       <c r="AI740" s="63"/>
     </row>
-    <row r="741" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A741" s="63"/>
       <c r="B741" s="63"/>
       <c r="C741" s="63"/>
@@ -34798,7 +34797,7 @@
       <c r="AH741" s="63"/>
       <c r="AI741" s="63"/>
     </row>
-    <row r="742" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A742" s="63"/>
       <c r="B742" s="63"/>
       <c r="C742" s="63"/>
@@ -34835,7 +34834,7 @@
       <c r="AH742" s="63"/>
       <c r="AI742" s="63"/>
     </row>
-    <row r="743" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A743" s="63"/>
       <c r="B743" s="63"/>
       <c r="C743" s="63"/>
@@ -34872,7 +34871,7 @@
       <c r="AH743" s="63"/>
       <c r="AI743" s="63"/>
     </row>
-    <row r="744" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A744" s="63"/>
       <c r="B744" s="63"/>
       <c r="C744" s="63"/>
@@ -34909,7 +34908,7 @@
       <c r="AH744" s="63"/>
       <c r="AI744" s="63"/>
     </row>
-    <row r="745" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A745" s="63"/>
       <c r="B745" s="63"/>
       <c r="C745" s="63"/>
@@ -34946,7 +34945,7 @@
       <c r="AH745" s="63"/>
       <c r="AI745" s="63"/>
     </row>
-    <row r="746" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A746" s="63"/>
       <c r="B746" s="63"/>
       <c r="C746" s="63"/>
@@ -34983,7 +34982,7 @@
       <c r="AH746" s="63"/>
       <c r="AI746" s="63"/>
     </row>
-    <row r="747" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A747" s="63"/>
       <c r="B747" s="63"/>
       <c r="C747" s="63"/>
@@ -35020,7 +35019,7 @@
       <c r="AH747" s="63"/>
       <c r="AI747" s="63"/>
     </row>
-    <row r="748" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A748" s="63"/>
       <c r="B748" s="63"/>
       <c r="C748" s="63"/>
@@ -35057,7 +35056,7 @@
       <c r="AH748" s="63"/>
       <c r="AI748" s="63"/>
     </row>
-    <row r="749" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A749" s="63"/>
       <c r="B749" s="63"/>
       <c r="C749" s="63"/>
@@ -35094,7 +35093,7 @@
       <c r="AH749" s="63"/>
       <c r="AI749" s="63"/>
     </row>
-    <row r="750" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A750" s="63"/>
       <c r="B750" s="63"/>
       <c r="C750" s="63"/>
@@ -35131,7 +35130,7 @@
       <c r="AH750" s="63"/>
       <c r="AI750" s="63"/>
     </row>
-    <row r="751" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A751" s="63"/>
       <c r="B751" s="63"/>
       <c r="C751" s="63"/>
@@ -35168,7 +35167,7 @@
       <c r="AH751" s="63"/>
       <c r="AI751" s="63"/>
     </row>
-    <row r="752" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A752" s="63"/>
       <c r="B752" s="63"/>
       <c r="C752" s="63"/>
@@ -35205,7 +35204,7 @@
       <c r="AH752" s="63"/>
       <c r="AI752" s="63"/>
     </row>
-    <row r="753" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A753" s="63"/>
       <c r="B753" s="63"/>
       <c r="C753" s="63"/>
@@ -35242,7 +35241,7 @@
       <c r="AH753" s="63"/>
       <c r="AI753" s="63"/>
     </row>
-    <row r="754" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A754" s="63"/>
       <c r="B754" s="63"/>
       <c r="C754" s="63"/>
@@ -35279,7 +35278,7 @@
       <c r="AH754" s="63"/>
       <c r="AI754" s="63"/>
     </row>
-    <row r="755" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A755" s="63"/>
       <c r="B755" s="63"/>
       <c r="C755" s="63"/>
@@ -35316,7 +35315,7 @@
       <c r="AH755" s="63"/>
       <c r="AI755" s="63"/>
     </row>
-    <row r="756" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A756" s="63"/>
       <c r="B756" s="63"/>
       <c r="C756" s="63"/>
@@ -35353,7 +35352,7 @@
       <c r="AH756" s="63"/>
       <c r="AI756" s="63"/>
     </row>
-    <row r="757" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A757" s="63"/>
       <c r="B757" s="63"/>
       <c r="C757" s="63"/>
@@ -35390,7 +35389,7 @@
       <c r="AH757" s="63"/>
       <c r="AI757" s="63"/>
     </row>
-    <row r="758" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A758" s="63"/>
       <c r="B758" s="63"/>
       <c r="C758" s="63"/>
@@ -35427,7 +35426,7 @@
       <c r="AH758" s="63"/>
       <c r="AI758" s="63"/>
     </row>
-    <row r="759" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A759" s="63"/>
       <c r="B759" s="63"/>
       <c r="C759" s="63"/>
@@ -35464,7 +35463,7 @@
       <c r="AH759" s="63"/>
       <c r="AI759" s="63"/>
     </row>
-    <row r="760" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A760" s="63"/>
       <c r="B760" s="63"/>
       <c r="C760" s="63"/>
@@ -35501,7 +35500,7 @@
       <c r="AH760" s="63"/>
       <c r="AI760" s="63"/>
     </row>
-    <row r="761" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A761" s="63"/>
       <c r="B761" s="63"/>
       <c r="C761" s="63"/>
@@ -35538,7 +35537,7 @@
       <c r="AH761" s="63"/>
       <c r="AI761" s="63"/>
     </row>
-    <row r="762" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A762" s="63"/>
       <c r="B762" s="63"/>
       <c r="C762" s="63"/>
@@ -35575,7 +35574,7 @@
       <c r="AH762" s="63"/>
       <c r="AI762" s="63"/>
     </row>
-    <row r="763" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A763" s="63"/>
       <c r="B763" s="63"/>
       <c r="C763" s="63"/>
@@ -35612,7 +35611,7 @@
       <c r="AH763" s="63"/>
       <c r="AI763" s="63"/>
     </row>
-    <row r="764" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A764" s="63"/>
       <c r="B764" s="63"/>
       <c r="C764" s="63"/>
@@ -35649,7 +35648,7 @@
       <c r="AH764" s="63"/>
       <c r="AI764" s="63"/>
     </row>
-    <row r="765" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A765" s="63"/>
       <c r="B765" s="63"/>
       <c r="C765" s="63"/>
@@ -35686,7 +35685,7 @@
       <c r="AH765" s="63"/>
       <c r="AI765" s="63"/>
     </row>
-    <row r="766" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A766" s="63"/>
       <c r="B766" s="63"/>
       <c r="C766" s="63"/>
@@ -35723,7 +35722,7 @@
       <c r="AH766" s="63"/>
       <c r="AI766" s="63"/>
     </row>
-    <row r="767" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A767" s="63"/>
       <c r="B767" s="63"/>
       <c r="C767" s="63"/>
@@ -35760,7 +35759,7 @@
       <c r="AH767" s="63"/>
       <c r="AI767" s="63"/>
     </row>
-    <row r="768" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A768" s="63"/>
       <c r="B768" s="63"/>
       <c r="C768" s="63"/>
@@ -35797,7 +35796,7 @@
       <c r="AH768" s="63"/>
       <c r="AI768" s="63"/>
     </row>
-    <row r="769" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A769" s="63"/>
       <c r="B769" s="63"/>
       <c r="C769" s="63"/>
@@ -35834,7 +35833,7 @@
       <c r="AH769" s="63"/>
       <c r="AI769" s="63"/>
     </row>
-    <row r="770" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A770" s="63"/>
       <c r="B770" s="63"/>
       <c r="C770" s="63"/>
@@ -35871,7 +35870,7 @@
       <c r="AH770" s="63"/>
       <c r="AI770" s="63"/>
     </row>
-    <row r="771" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A771" s="63"/>
       <c r="B771" s="63"/>
       <c r="C771" s="63"/>
@@ -35908,7 +35907,7 @@
       <c r="AH771" s="63"/>
       <c r="AI771" s="63"/>
     </row>
-    <row r="772" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A772" s="63"/>
       <c r="B772" s="63"/>
       <c r="C772" s="63"/>
@@ -35945,7 +35944,7 @@
       <c r="AH772" s="63"/>
       <c r="AI772" s="63"/>
     </row>
-    <row r="773" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A773" s="63"/>
       <c r="B773" s="63"/>
       <c r="C773" s="63"/>
@@ -35982,7 +35981,7 @@
       <c r="AH773" s="63"/>
       <c r="AI773" s="63"/>
     </row>
-    <row r="774" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A774" s="63"/>
       <c r="B774" s="63"/>
       <c r="C774" s="63"/>
@@ -36019,7 +36018,7 @@
       <c r="AH774" s="63"/>
       <c r="AI774" s="63"/>
     </row>
-    <row r="775" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A775" s="63"/>
       <c r="B775" s="63"/>
       <c r="C775" s="63"/>
@@ -36056,7 +36055,7 @@
       <c r="AH775" s="63"/>
       <c r="AI775" s="63"/>
     </row>
-    <row r="776" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A776" s="63"/>
       <c r="B776" s="63"/>
       <c r="C776" s="63"/>
@@ -36093,7 +36092,7 @@
       <c r="AH776" s="63"/>
       <c r="AI776" s="63"/>
     </row>
-    <row r="777" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A777" s="63"/>
       <c r="B777" s="63"/>
       <c r="C777" s="63"/>
@@ -36130,7 +36129,7 @@
       <c r="AH777" s="63"/>
       <c r="AI777" s="63"/>
     </row>
-    <row r="778" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A778" s="63"/>
       <c r="B778" s="63"/>
       <c r="C778" s="63"/>
@@ -36167,7 +36166,7 @@
       <c r="AH778" s="63"/>
       <c r="AI778" s="63"/>
     </row>
-    <row r="779" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A779" s="63"/>
       <c r="B779" s="63"/>
       <c r="C779" s="63"/>
@@ -36204,7 +36203,7 @@
       <c r="AH779" s="63"/>
       <c r="AI779" s="63"/>
     </row>
-    <row r="780" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A780" s="63"/>
       <c r="B780" s="63"/>
       <c r="C780" s="63"/>
@@ -36241,7 +36240,7 @@
       <c r="AH780" s="63"/>
       <c r="AI780" s="63"/>
     </row>
-    <row r="781" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A781" s="63"/>
       <c r="B781" s="63"/>
       <c r="C781" s="63"/>
@@ -36278,7 +36277,7 @@
       <c r="AH781" s="63"/>
       <c r="AI781" s="63"/>
     </row>
-    <row r="782" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A782" s="63"/>
       <c r="B782" s="63"/>
       <c r="C782" s="63"/>
@@ -36315,7 +36314,7 @@
       <c r="AH782" s="63"/>
       <c r="AI782" s="63"/>
     </row>
-    <row r="783" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A783" s="63"/>
       <c r="B783" s="63"/>
       <c r="C783" s="63"/>
@@ -36352,7 +36351,7 @@
       <c r="AH783" s="63"/>
       <c r="AI783" s="63"/>
     </row>
-    <row r="784" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A784" s="63"/>
       <c r="B784" s="63"/>
       <c r="C784" s="63"/>
@@ -36389,7 +36388,7 @@
       <c r="AH784" s="63"/>
       <c r="AI784" s="63"/>
     </row>
-    <row r="785" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A785" s="63"/>
       <c r="B785" s="63"/>
       <c r="C785" s="63"/>
@@ -36426,7 +36425,7 @@
       <c r="AH785" s="63"/>
       <c r="AI785" s="63"/>
     </row>
-    <row r="786" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A786" s="63"/>
       <c r="B786" s="63"/>
       <c r="C786" s="63"/>
@@ -36463,7 +36462,7 @@
       <c r="AH786" s="63"/>
       <c r="AI786" s="63"/>
     </row>
-    <row r="787" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A787" s="63"/>
       <c r="B787" s="63"/>
       <c r="C787" s="63"/>
@@ -36500,7 +36499,7 @@
       <c r="AH787" s="63"/>
       <c r="AI787" s="63"/>
     </row>
-    <row r="788" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A788" s="63"/>
       <c r="B788" s="63"/>
       <c r="C788" s="63"/>
@@ -36537,7 +36536,7 @@
       <c r="AH788" s="63"/>
       <c r="AI788" s="63"/>
     </row>
-    <row r="789" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A789" s="63"/>
       <c r="B789" s="63"/>
       <c r="C789" s="63"/>
@@ -36574,7 +36573,7 @@
       <c r="AH789" s="63"/>
       <c r="AI789" s="63"/>
     </row>
-    <row r="790" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A790" s="63"/>
       <c r="B790" s="63"/>
       <c r="C790" s="63"/>
@@ -36611,7 +36610,7 @@
       <c r="AH790" s="63"/>
       <c r="AI790" s="63"/>
     </row>
-    <row r="791" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A791" s="63"/>
       <c r="B791" s="63"/>
       <c r="C791" s="63"/>
@@ -36648,7 +36647,7 @@
       <c r="AH791" s="63"/>
       <c r="AI791" s="63"/>
     </row>
-    <row r="792" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A792" s="63"/>
       <c r="B792" s="63"/>
       <c r="C792" s="63"/>
@@ -36685,7 +36684,7 @@
       <c r="AH792" s="63"/>
       <c r="AI792" s="63"/>
     </row>
-    <row r="793" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A793" s="63"/>
       <c r="B793" s="63"/>
       <c r="C793" s="63"/>
@@ -36722,7 +36721,7 @@
       <c r="AH793" s="63"/>
       <c r="AI793" s="63"/>
     </row>
-    <row r="794" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A794" s="63"/>
       <c r="B794" s="63"/>
       <c r="C794" s="63"/>
@@ -36759,7 +36758,7 @@
       <c r="AH794" s="63"/>
       <c r="AI794" s="63"/>
     </row>
-    <row r="795" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A795" s="63"/>
       <c r="B795" s="63"/>
       <c r="C795" s="63"/>
@@ -36796,7 +36795,7 @@
       <c r="AH795" s="63"/>
       <c r="AI795" s="63"/>
     </row>
-    <row r="796" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A796" s="63"/>
       <c r="B796" s="63"/>
       <c r="C796" s="63"/>
@@ -36833,7 +36832,7 @@
       <c r="AH796" s="63"/>
       <c r="AI796" s="63"/>
     </row>
-    <row r="797" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A797" s="63"/>
       <c r="B797" s="63"/>
       <c r="C797" s="63"/>
@@ -36870,7 +36869,7 @@
       <c r="AH797" s="63"/>
       <c r="AI797" s="63"/>
     </row>
-    <row r="798" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A798" s="63"/>
       <c r="B798" s="63"/>
       <c r="C798" s="63"/>
@@ -36907,7 +36906,7 @@
       <c r="AH798" s="63"/>
       <c r="AI798" s="63"/>
     </row>
-    <row r="799" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A799" s="63"/>
       <c r="B799" s="63"/>
       <c r="C799" s="63"/>
@@ -36944,7 +36943,7 @@
       <c r="AH799" s="63"/>
       <c r="AI799" s="63"/>
     </row>
-    <row r="800" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A800" s="63"/>
       <c r="B800" s="63"/>
       <c r="C800" s="63"/>
@@ -36981,7 +36980,7 @@
       <c r="AH800" s="63"/>
       <c r="AI800" s="63"/>
     </row>
-    <row r="801" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A801" s="63"/>
       <c r="B801" s="63"/>
       <c r="C801" s="63"/>
@@ -37018,7 +37017,7 @@
       <c r="AH801" s="63"/>
       <c r="AI801" s="63"/>
     </row>
-    <row r="802" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A802" s="63"/>
       <c r="B802" s="63"/>
       <c r="C802" s="63"/>
@@ -37055,7 +37054,7 @@
       <c r="AH802" s="63"/>
       <c r="AI802" s="63"/>
     </row>
-    <row r="803" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A803" s="63"/>
       <c r="B803" s="63"/>
       <c r="C803" s="63"/>
@@ -37092,7 +37091,7 @@
       <c r="AH803" s="63"/>
       <c r="AI803" s="63"/>
     </row>
-    <row r="804" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A804" s="63"/>
       <c r="B804" s="63"/>
       <c r="C804" s="63"/>
@@ -37129,7 +37128,7 @@
       <c r="AH804" s="63"/>
       <c r="AI804" s="63"/>
     </row>
-    <row r="805" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A805" s="63"/>
       <c r="B805" s="63"/>
       <c r="C805" s="63"/>
@@ -37166,7 +37165,7 @@
       <c r="AH805" s="63"/>
       <c r="AI805" s="63"/>
     </row>
-    <row r="806" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A806" s="63"/>
       <c r="B806" s="63"/>
       <c r="C806" s="63"/>
@@ -37203,7 +37202,7 @@
       <c r="AH806" s="63"/>
       <c r="AI806" s="63"/>
     </row>
-    <row r="807" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A807" s="63"/>
       <c r="B807" s="63"/>
       <c r="C807" s="63"/>
@@ -37240,7 +37239,7 @@
       <c r="AH807" s="63"/>
       <c r="AI807" s="63"/>
     </row>
-    <row r="808" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A808" s="63"/>
       <c r="B808" s="63"/>
       <c r="C808" s="63"/>
@@ -37277,7 +37276,7 @@
       <c r="AH808" s="63"/>
       <c r="AI808" s="63"/>
     </row>
-    <row r="809" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A809" s="63"/>
       <c r="B809" s="63"/>
       <c r="C809" s="63"/>
@@ -37314,7 +37313,7 @@
       <c r="AH809" s="63"/>
       <c r="AI809" s="63"/>
     </row>
-    <row r="810" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A810" s="63"/>
       <c r="B810" s="63"/>
       <c r="C810" s="63"/>
@@ -37351,7 +37350,7 @@
       <c r="AH810" s="63"/>
       <c r="AI810" s="63"/>
     </row>
-    <row r="811" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A811" s="63"/>
       <c r="B811" s="63"/>
       <c r="C811" s="63"/>
@@ -37388,7 +37387,7 @@
       <c r="AH811" s="63"/>
       <c r="AI811" s="63"/>
     </row>
-    <row r="812" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A812" s="63"/>
       <c r="B812" s="63"/>
       <c r="C812" s="63"/>
@@ -37425,7 +37424,7 @@
       <c r="AH812" s="63"/>
       <c r="AI812" s="63"/>
     </row>
-    <row r="813" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A813" s="63"/>
       <c r="B813" s="63"/>
       <c r="C813" s="63"/>
@@ -37462,7 +37461,7 @@
       <c r="AH813" s="63"/>
       <c r="AI813" s="63"/>
     </row>
-    <row r="814" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A814" s="63"/>
       <c r="B814" s="63"/>
       <c r="C814" s="63"/>
@@ -37499,7 +37498,7 @@
       <c r="AH814" s="63"/>
       <c r="AI814" s="63"/>
     </row>
-    <row r="815" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A815" s="63"/>
       <c r="B815" s="63"/>
       <c r="C815" s="63"/>
@@ -37536,7 +37535,7 @@
       <c r="AH815" s="63"/>
       <c r="AI815" s="63"/>
     </row>
-    <row r="816" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A816" s="63"/>
       <c r="B816" s="63"/>
       <c r="C816" s="63"/>
@@ -37573,7 +37572,7 @@
       <c r="AH816" s="63"/>
       <c r="AI816" s="63"/>
     </row>
-    <row r="817" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A817" s="63"/>
       <c r="B817" s="63"/>
       <c r="C817" s="63"/>
@@ -37610,7 +37609,7 @@
       <c r="AH817" s="63"/>
       <c r="AI817" s="63"/>
     </row>
-    <row r="818" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A818" s="63"/>
       <c r="B818" s="63"/>
       <c r="C818" s="63"/>
@@ -37647,7 +37646,7 @@
       <c r="AH818" s="63"/>
       <c r="AI818" s="63"/>
     </row>
-    <row r="819" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A819" s="63"/>
       <c r="B819" s="63"/>
       <c r="C819" s="63"/>
@@ -37684,7 +37683,7 @@
       <c r="AH819" s="63"/>
       <c r="AI819" s="63"/>
     </row>
-    <row r="820" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A820" s="63"/>
       <c r="B820" s="63"/>
       <c r="C820" s="63"/>
@@ -37721,7 +37720,7 @@
       <c r="AH820" s="63"/>
       <c r="AI820" s="63"/>
     </row>
-    <row r="821" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A821" s="63"/>
       <c r="B821" s="63"/>
       <c r="C821" s="63"/>
@@ -37758,7 +37757,7 @@
       <c r="AH821" s="63"/>
       <c r="AI821" s="63"/>
     </row>
-    <row r="822" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A822" s="63"/>
       <c r="B822" s="63"/>
       <c r="C822" s="63"/>
@@ -37795,7 +37794,7 @@
       <c r="AH822" s="63"/>
       <c r="AI822" s="63"/>
     </row>
-    <row r="823" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A823" s="63"/>
       <c r="B823" s="63"/>
       <c r="C823" s="63"/>
@@ -37832,7 +37831,7 @@
       <c r="AH823" s="63"/>
       <c r="AI823" s="63"/>
     </row>
-    <row r="824" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A824" s="63"/>
       <c r="B824" s="63"/>
       <c r="C824" s="63"/>
@@ -37869,7 +37868,7 @@
       <c r="AH824" s="63"/>
       <c r="AI824" s="63"/>
     </row>
-    <row r="825" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A825" s="63"/>
       <c r="B825" s="63"/>
       <c r="C825" s="63"/>
@@ -37906,7 +37905,7 @@
       <c r="AH825" s="63"/>
       <c r="AI825" s="63"/>
     </row>
-    <row r="826" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A826" s="63"/>
       <c r="B826" s="63"/>
       <c r="C826" s="63"/>
@@ -37943,7 +37942,7 @@
       <c r="AH826" s="63"/>
       <c r="AI826" s="63"/>
     </row>
-    <row r="827" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A827" s="63"/>
       <c r="B827" s="63"/>
       <c r="C827" s="63"/>
@@ -37980,7 +37979,7 @@
       <c r="AH827" s="63"/>
       <c r="AI827" s="63"/>
     </row>
-    <row r="828" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A828" s="63"/>
       <c r="B828" s="63"/>
       <c r="C828" s="63"/>
@@ -38017,7 +38016,7 @@
       <c r="AH828" s="63"/>
       <c r="AI828" s="63"/>
     </row>
-    <row r="829" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A829" s="63"/>
       <c r="B829" s="63"/>
       <c r="C829" s="63"/>
@@ -38054,7 +38053,7 @@
       <c r="AH829" s="63"/>
       <c r="AI829" s="63"/>
     </row>
-    <row r="830" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A830" s="63"/>
       <c r="B830" s="63"/>
       <c r="C830" s="63"/>
@@ -38091,7 +38090,7 @@
       <c r="AH830" s="63"/>
       <c r="AI830" s="63"/>
     </row>
-    <row r="831" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A831" s="63"/>
       <c r="B831" s="63"/>
       <c r="C831" s="63"/>
@@ -38128,7 +38127,7 @@
       <c r="AH831" s="63"/>
       <c r="AI831" s="63"/>
     </row>
-    <row r="832" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A832" s="63"/>
       <c r="B832" s="63"/>
       <c r="C832" s="63"/>
@@ -38165,7 +38164,7 @@
       <c r="AH832" s="63"/>
       <c r="AI832" s="63"/>
     </row>
-    <row r="833" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A833" s="63"/>
       <c r="B833" s="63"/>
       <c r="C833" s="63"/>
@@ -38202,7 +38201,7 @@
       <c r="AH833" s="63"/>
       <c r="AI833" s="63"/>
     </row>
-    <row r="834" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A834" s="63"/>
       <c r="B834" s="63"/>
       <c r="C834" s="63"/>
@@ -38239,7 +38238,7 @@
       <c r="AH834" s="63"/>
       <c r="AI834" s="63"/>
     </row>
-    <row r="835" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A835" s="63"/>
       <c r="B835" s="63"/>
       <c r="C835" s="63"/>
@@ -38276,7 +38275,7 @@
       <c r="AH835" s="63"/>
       <c r="AI835" s="63"/>
     </row>
-    <row r="836" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A836" s="63"/>
       <c r="B836" s="63"/>
       <c r="C836" s="63"/>
@@ -38313,7 +38312,7 @@
       <c r="AH836" s="63"/>
       <c r="AI836" s="63"/>
     </row>
-    <row r="837" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A837" s="63"/>
       <c r="B837" s="63"/>
       <c r="C837" s="63"/>
@@ -38350,7 +38349,7 @@
       <c r="AH837" s="63"/>
       <c r="AI837" s="63"/>
     </row>
-    <row r="838" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A838" s="63"/>
       <c r="B838" s="63"/>
       <c r="C838" s="63"/>
@@ -38387,7 +38386,7 @@
       <c r="AH838" s="63"/>
       <c r="AI838" s="63"/>
     </row>
-    <row r="839" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A839" s="63"/>
       <c r="B839" s="63"/>
       <c r="C839" s="63"/>
@@ -38424,7 +38423,7 @@
       <c r="AH839" s="63"/>
       <c r="AI839" s="63"/>
     </row>
-    <row r="840" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A840" s="63"/>
       <c r="B840" s="63"/>
       <c r="C840" s="63"/>
@@ -38461,7 +38460,7 @@
       <c r="AH840" s="63"/>
       <c r="AI840" s="63"/>
     </row>
-    <row r="841" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A841" s="63"/>
       <c r="B841" s="63"/>
       <c r="C841" s="63"/>
@@ -38498,7 +38497,7 @@
       <c r="AH841" s="63"/>
       <c r="AI841" s="63"/>
     </row>
-    <row r="842" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A842" s="63"/>
       <c r="B842" s="63"/>
       <c r="C842" s="63"/>
@@ -38535,7 +38534,7 @@
       <c r="AH842" s="63"/>
       <c r="AI842" s="63"/>
     </row>
-    <row r="843" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A843" s="63"/>
       <c r="B843" s="63"/>
       <c r="C843" s="63"/>
@@ -38572,7 +38571,7 @@
       <c r="AH843" s="63"/>
       <c r="AI843" s="63"/>
     </row>
-    <row r="844" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A844" s="63"/>
       <c r="B844" s="63"/>
       <c r="C844" s="63"/>
@@ -38609,7 +38608,7 @@
       <c r="AH844" s="63"/>
       <c r="AI844" s="63"/>
     </row>
-    <row r="845" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A845" s="63"/>
       <c r="B845" s="63"/>
       <c r="C845" s="63"/>
@@ -38646,7 +38645,7 @@
       <c r="AH845" s="63"/>
       <c r="AI845" s="63"/>
     </row>
-    <row r="846" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A846" s="63"/>
       <c r="B846" s="63"/>
       <c r="C846" s="63"/>
@@ -38683,7 +38682,7 @@
       <c r="AH846" s="63"/>
       <c r="AI846" s="63"/>
     </row>
-    <row r="847" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A847" s="63"/>
       <c r="B847" s="63"/>
       <c r="C847" s="63"/>
@@ -38720,7 +38719,7 @@
       <c r="AH847" s="63"/>
       <c r="AI847" s="63"/>
     </row>
-    <row r="848" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A848" s="63"/>
       <c r="B848" s="63"/>
       <c r="C848" s="63"/>
@@ -38757,7 +38756,7 @@
       <c r="AH848" s="63"/>
       <c r="AI848" s="63"/>
     </row>
-    <row r="849" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A849" s="63"/>
       <c r="B849" s="63"/>
       <c r="C849" s="63"/>
@@ -38794,7 +38793,7 @@
       <c r="AH849" s="63"/>
       <c r="AI849" s="63"/>
     </row>
-    <row r="850" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A850" s="63"/>
       <c r="B850" s="63"/>
       <c r="C850" s="63"/>
@@ -38831,7 +38830,7 @@
       <c r="AH850" s="63"/>
       <c r="AI850" s="63"/>
     </row>
-    <row r="851" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A851" s="63"/>
       <c r="B851" s="63"/>
       <c r="C851" s="63"/>
@@ -38868,7 +38867,7 @@
       <c r="AH851" s="63"/>
       <c r="AI851" s="63"/>
     </row>
-    <row r="852" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A852" s="63"/>
       <c r="B852" s="63"/>
       <c r="C852" s="63"/>
@@ -38905,7 +38904,7 @@
       <c r="AH852" s="63"/>
       <c r="AI852" s="63"/>
     </row>
-    <row r="853" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A853" s="63"/>
       <c r="B853" s="63"/>
       <c r="C853" s="63"/>
@@ -38942,7 +38941,7 @@
       <c r="AH853" s="63"/>
       <c r="AI853" s="63"/>
     </row>
-    <row r="854" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A854" s="63"/>
       <c r="B854" s="63"/>
       <c r="C854" s="63"/>
@@ -38979,7 +38978,7 @@
       <c r="AH854" s="63"/>
       <c r="AI854" s="63"/>
     </row>
-    <row r="855" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A855" s="63"/>
       <c r="B855" s="63"/>
       <c r="C855" s="63"/>
@@ -39016,7 +39015,7 @@
       <c r="AH855" s="63"/>
       <c r="AI855" s="63"/>
     </row>
-    <row r="856" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A856" s="63"/>
       <c r="B856" s="63"/>
       <c r="C856" s="63"/>
@@ -39053,7 +39052,7 @@
       <c r="AH856" s="63"/>
       <c r="AI856" s="63"/>
     </row>
-    <row r="857" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A857" s="63"/>
       <c r="B857" s="63"/>
       <c r="C857" s="63"/>
@@ -39090,7 +39089,7 @@
       <c r="AH857" s="63"/>
       <c r="AI857" s="63"/>
     </row>
-    <row r="858" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A858" s="63"/>
       <c r="B858" s="63"/>
       <c r="C858" s="63"/>
@@ -39127,7 +39126,7 @@
       <c r="AH858" s="63"/>
       <c r="AI858" s="63"/>
     </row>
-    <row r="859" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A859" s="63"/>
       <c r="B859" s="63"/>
       <c r="C859" s="63"/>
@@ -39164,7 +39163,7 @@
       <c r="AH859" s="63"/>
       <c r="AI859" s="63"/>
     </row>
-    <row r="860" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A860" s="63"/>
       <c r="B860" s="63"/>
       <c r="C860" s="63"/>
@@ -39201,7 +39200,7 @@
       <c r="AH860" s="63"/>
       <c r="AI860" s="63"/>
     </row>
-    <row r="861" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A861" s="63"/>
       <c r="B861" s="63"/>
       <c r="C861" s="63"/>
@@ -39238,7 +39237,7 @@
       <c r="AH861" s="63"/>
       <c r="AI861" s="63"/>
     </row>
-    <row r="862" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A862" s="63"/>
       <c r="B862" s="63"/>
       <c r="C862" s="63"/>
@@ -39275,7 +39274,7 @@
       <c r="AH862" s="63"/>
       <c r="AI862" s="63"/>
     </row>
-    <row r="863" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A863" s="63"/>
       <c r="B863" s="63"/>
       <c r="C863" s="63"/>
@@ -39312,7 +39311,7 @@
       <c r="AH863" s="63"/>
       <c r="AI863" s="63"/>
     </row>
-    <row r="864" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A864" s="63"/>
       <c r="B864" s="63"/>
       <c r="C864" s="63"/>
@@ -39349,7 +39348,7 @@
       <c r="AH864" s="63"/>
       <c r="AI864" s="63"/>
     </row>
-    <row r="865" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A865" s="63"/>
       <c r="B865" s="63"/>
       <c r="C865" s="63"/>
@@ -39386,7 +39385,7 @@
       <c r="AH865" s="63"/>
       <c r="AI865" s="63"/>
     </row>
-    <row r="866" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A866" s="63"/>
       <c r="B866" s="63"/>
       <c r="C866" s="63"/>
@@ -39423,7 +39422,7 @@
       <c r="AH866" s="63"/>
       <c r="AI866" s="63"/>
     </row>
-    <row r="867" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A867" s="63"/>
       <c r="B867" s="63"/>
       <c r="C867" s="63"/>
@@ -39460,7 +39459,7 @@
       <c r="AH867" s="63"/>
       <c r="AI867" s="63"/>
     </row>
-    <row r="868" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A868" s="63"/>
       <c r="B868" s="63"/>
       <c r="C868" s="63"/>
@@ -39497,7 +39496,7 @@
       <c r="AH868" s="63"/>
       <c r="AI868" s="63"/>
     </row>
-    <row r="869" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A869" s="63"/>
       <c r="B869" s="63"/>
       <c r="C869" s="63"/>
@@ -39534,7 +39533,7 @@
       <c r="AH869" s="63"/>
       <c r="AI869" s="63"/>
     </row>
-    <row r="870" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A870" s="63"/>
       <c r="B870" s="63"/>
       <c r="C870" s="63"/>
@@ -39571,7 +39570,7 @@
       <c r="AH870" s="63"/>
       <c r="AI870" s="63"/>
     </row>
-    <row r="871" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A871" s="63"/>
       <c r="B871" s="63"/>
       <c r="C871" s="63"/>
@@ -39608,7 +39607,7 @@
       <c r="AH871" s="63"/>
       <c r="AI871" s="63"/>
     </row>
-    <row r="872" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A872" s="63"/>
       <c r="B872" s="63"/>
       <c r="C872" s="63"/>
@@ -39645,7 +39644,7 @@
       <c r="AH872" s="63"/>
       <c r="AI872" s="63"/>
     </row>
-    <row r="873" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A873" s="63"/>
       <c r="B873" s="63"/>
       <c r="C873" s="63"/>
@@ -39682,7 +39681,7 @@
       <c r="AH873" s="63"/>
       <c r="AI873" s="63"/>
     </row>
-    <row r="874" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A874" s="63"/>
       <c r="B874" s="63"/>
       <c r="C874" s="63"/>
@@ -39719,7 +39718,7 @@
       <c r="AH874" s="63"/>
       <c r="AI874" s="63"/>
     </row>
-    <row r="875" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A875" s="63"/>
       <c r="B875" s="63"/>
       <c r="C875" s="63"/>
@@ -39756,7 +39755,7 @@
       <c r="AH875" s="63"/>
       <c r="AI875" s="63"/>
     </row>
-    <row r="876" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A876" s="63"/>
       <c r="B876" s="63"/>
       <c r="C876" s="63"/>
@@ -39793,7 +39792,7 @@
       <c r="AH876" s="63"/>
       <c r="AI876" s="63"/>
     </row>
-    <row r="877" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A877" s="63"/>
       <c r="B877" s="63"/>
       <c r="C877" s="63"/>
@@ -39830,7 +39829,7 @@
       <c r="AH877" s="63"/>
       <c r="AI877" s="63"/>
     </row>
-    <row r="878" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A878" s="63"/>
       <c r="B878" s="63"/>
       <c r="C878" s="63"/>
@@ -39867,7 +39866,7 @@
       <c r="AH878" s="63"/>
       <c r="AI878" s="63"/>
     </row>
-    <row r="879" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A879" s="63"/>
       <c r="B879" s="63"/>
       <c r="C879" s="63"/>
@@ -39904,7 +39903,7 @@
       <c r="AH879" s="63"/>
       <c r="AI879" s="63"/>
     </row>
-    <row r="880" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A880" s="63"/>
       <c r="B880" s="63"/>
       <c r="C880" s="63"/>
@@ -39941,7 +39940,7 @@
       <c r="AH880" s="63"/>
       <c r="AI880" s="63"/>
     </row>
-    <row r="881" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A881" s="63"/>
       <c r="B881" s="63"/>
       <c r="C881" s="63"/>
@@ -39978,7 +39977,7 @@
       <c r="AH881" s="63"/>
       <c r="AI881" s="63"/>
     </row>
-    <row r="882" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A882" s="63"/>
       <c r="B882" s="63"/>
       <c r="C882" s="63"/>
@@ -40015,7 +40014,7 @@
       <c r="AH882" s="63"/>
       <c r="AI882" s="63"/>
     </row>
-    <row r="883" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A883" s="63"/>
       <c r="B883" s="63"/>
       <c r="C883" s="63"/>
@@ -40052,7 +40051,7 @@
       <c r="AH883" s="63"/>
       <c r="AI883" s="63"/>
     </row>
-    <row r="884" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A884" s="63"/>
       <c r="B884" s="63"/>
       <c r="C884" s="63"/>
@@ -40089,7 +40088,7 @@
       <c r="AH884" s="63"/>
       <c r="AI884" s="63"/>
     </row>
-    <row r="885" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A885" s="63"/>
       <c r="B885" s="63"/>
       <c r="C885" s="63"/>
@@ -40126,7 +40125,7 @@
       <c r="AH885" s="63"/>
       <c r="AI885" s="63"/>
     </row>
-    <row r="886" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A886" s="63"/>
       <c r="B886" s="63"/>
       <c r="C886" s="63"/>
@@ -40163,7 +40162,7 @@
       <c r="AH886" s="63"/>
       <c r="AI886" s="63"/>
     </row>
-    <row r="887" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A887" s="63"/>
       <c r="B887" s="63"/>
       <c r="C887" s="63"/>
@@ -40200,7 +40199,7 @@
       <c r="AH887" s="63"/>
       <c r="AI887" s="63"/>
     </row>
-    <row r="888" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A888" s="63"/>
       <c r="B888" s="63"/>
       <c r="C888" s="63"/>
@@ -40237,7 +40236,7 @@
       <c r="AH888" s="63"/>
       <c r="AI888" s="63"/>
     </row>
-    <row r="889" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A889" s="63"/>
       <c r="B889" s="63"/>
       <c r="C889" s="63"/>
@@ -40274,7 +40273,7 @@
       <c r="AH889" s="63"/>
       <c r="AI889" s="63"/>
     </row>
-    <row r="890" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A890" s="63"/>
       <c r="B890" s="63"/>
       <c r="C890" s="63"/>
@@ -40311,7 +40310,7 @@
       <c r="AH890" s="63"/>
       <c r="AI890" s="63"/>
     </row>
-    <row r="891" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A891" s="63"/>
       <c r="B891" s="63"/>
       <c r="C891" s="63"/>
@@ -40348,7 +40347,7 @@
       <c r="AH891" s="63"/>
       <c r="AI891" s="63"/>
     </row>
-    <row r="892" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A892" s="63"/>
       <c r="B892" s="63"/>
       <c r="C892" s="63"/>
@@ -40385,7 +40384,7 @@
       <c r="AH892" s="63"/>
       <c r="AI892" s="63"/>
     </row>
-    <row r="893" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A893" s="63"/>
       <c r="B893" s="63"/>
       <c r="C893" s="63"/>
@@ -40422,7 +40421,7 @@
       <c r="AH893" s="63"/>
       <c r="AI893" s="63"/>
     </row>
-    <row r="894" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A894" s="63"/>
       <c r="B894" s="63"/>
       <c r="C894" s="63"/>
@@ -40459,7 +40458,7 @@
       <c r="AH894" s="63"/>
       <c r="AI894" s="63"/>
     </row>
-    <row r="895" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A895" s="63"/>
       <c r="B895" s="63"/>
       <c r="C895" s="63"/>
@@ -40496,7 +40495,7 @@
       <c r="AH895" s="63"/>
       <c r="AI895" s="63"/>
     </row>
-    <row r="896" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A896" s="63"/>
       <c r="B896" s="63"/>
       <c r="C896" s="63"/>
@@ -40533,7 +40532,7 @@
       <c r="AH896" s="63"/>
       <c r="AI896" s="63"/>
     </row>
-    <row r="897" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A897" s="63"/>
       <c r="B897" s="63"/>
       <c r="C897" s="63"/>
@@ -40570,7 +40569,7 @@
       <c r="AH897" s="63"/>
       <c r="AI897" s="63"/>
     </row>
-    <row r="898" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A898" s="63"/>
       <c r="B898" s="63"/>
       <c r="C898" s="63"/>
@@ -40607,7 +40606,7 @@
       <c r="AH898" s="63"/>
       <c r="AI898" s="63"/>
     </row>
-    <row r="899" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A899" s="63"/>
       <c r="B899" s="63"/>
       <c r="C899" s="63"/>
@@ -40644,7 +40643,7 @@
       <c r="AH899" s="63"/>
       <c r="AI899" s="63"/>
     </row>
-    <row r="900" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A900" s="63"/>
       <c r="B900" s="63"/>
       <c r="C900" s="63"/>
@@ -40681,7 +40680,7 @@
       <c r="AH900" s="63"/>
       <c r="AI900" s="63"/>
     </row>
-    <row r="901" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A901" s="63"/>
       <c r="B901" s="63"/>
       <c r="C901" s="63"/>
@@ -40718,7 +40717,7 @@
       <c r="AH901" s="63"/>
       <c r="AI901" s="63"/>
     </row>
-    <row r="902" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A902" s="63"/>
       <c r="B902" s="63"/>
       <c r="C902" s="63"/>
@@ -40755,7 +40754,7 @@
       <c r="AH902" s="63"/>
       <c r="AI902" s="63"/>
     </row>
-    <row r="903" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A903" s="63"/>
       <c r="B903" s="63"/>
       <c r="C903" s="63"/>
@@ -40792,7 +40791,7 @@
       <c r="AH903" s="63"/>
       <c r="AI903" s="63"/>
     </row>
-    <row r="904" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A904" s="63"/>
       <c r="B904" s="63"/>
       <c r="C904" s="63"/>
@@ -40829,7 +40828,7 @@
       <c r="AH904" s="63"/>
       <c r="AI904" s="63"/>
     </row>
-    <row r="905" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A905" s="63"/>
       <c r="B905" s="63"/>
       <c r="C905" s="63"/>
@@ -40866,7 +40865,7 @@
       <c r="AH905" s="63"/>
       <c r="AI905" s="63"/>
     </row>
-    <row r="906" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A906" s="63"/>
       <c r="B906" s="63"/>
       <c r="C906" s="63"/>
@@ -40903,7 +40902,7 @@
       <c r="AH906" s="63"/>
       <c r="AI906" s="63"/>
     </row>
-    <row r="907" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A907" s="63"/>
       <c r="B907" s="63"/>
       <c r="C907" s="63"/>
@@ -40940,7 +40939,7 @@
       <c r="AH907" s="63"/>
       <c r="AI907" s="63"/>
     </row>
-    <row r="908" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A908" s="63"/>
       <c r="B908" s="63"/>
       <c r="C908" s="63"/>
@@ -40977,7 +40976,7 @@
       <c r="AH908" s="63"/>
       <c r="AI908" s="63"/>
     </row>
-    <row r="909" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A909" s="63"/>
       <c r="B909" s="63"/>
       <c r="C909" s="63"/>
@@ -41014,7 +41013,7 @@
       <c r="AH909" s="63"/>
       <c r="AI909" s="63"/>
     </row>
-    <row r="910" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A910" s="63"/>
       <c r="B910" s="63"/>
       <c r="C910" s="63"/>
@@ -41051,7 +41050,7 @@
       <c r="AH910" s="63"/>
       <c r="AI910" s="63"/>
     </row>
-    <row r="911" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A911" s="63"/>
       <c r="B911" s="63"/>
       <c r="C911" s="63"/>
@@ -41088,7 +41087,7 @@
       <c r="AH911" s="63"/>
       <c r="AI911" s="63"/>
     </row>
-    <row r="912" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A912" s="63"/>
       <c r="B912" s="63"/>
       <c r="C912" s="63"/>
@@ -41125,7 +41124,7 @@
       <c r="AH912" s="63"/>
       <c r="AI912" s="63"/>
     </row>
-    <row r="913" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A913" s="63"/>
       <c r="B913" s="63"/>
       <c r="C913" s="63"/>
@@ -41162,7 +41161,7 @@
       <c r="AH913" s="63"/>
       <c r="AI913" s="63"/>
     </row>
-    <row r="914" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A914" s="63"/>
       <c r="B914" s="63"/>
       <c r="C914" s="63"/>
@@ -41199,7 +41198,7 @@
       <c r="AH914" s="63"/>
       <c r="AI914" s="63"/>
     </row>
-    <row r="915" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A915" s="63"/>
       <c r="B915" s="63"/>
       <c r="C915" s="63"/>
@@ -41236,7 +41235,7 @@
       <c r="AH915" s="63"/>
       <c r="AI915" s="63"/>
     </row>
-    <row r="916" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A916" s="63"/>
       <c r="B916" s="63"/>
       <c r="C916" s="63"/>
@@ -41273,7 +41272,7 @@
       <c r="AH916" s="63"/>
       <c r="AI916" s="63"/>
     </row>
-    <row r="917" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A917" s="63"/>
       <c r="B917" s="63"/>
       <c r="C917" s="63"/>
@@ -41310,7 +41309,7 @@
       <c r="AH917" s="63"/>
       <c r="AI917" s="63"/>
     </row>
-    <row r="918" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A918" s="63"/>
       <c r="B918" s="63"/>
       <c r="C918" s="63"/>
@@ -41347,7 +41346,7 @@
       <c r="AH918" s="63"/>
       <c r="AI918" s="63"/>
     </row>
-    <row r="919" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A919" s="63"/>
       <c r="B919" s="63"/>
       <c r="C919" s="63"/>
@@ -41384,7 +41383,7 @@
       <c r="AH919" s="63"/>
       <c r="AI919" s="63"/>
     </row>
-    <row r="920" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A920" s="63"/>
       <c r="B920" s="63"/>
       <c r="C920" s="63"/>
@@ -41421,7 +41420,7 @@
       <c r="AH920" s="63"/>
       <c r="AI920" s="63"/>
     </row>
-    <row r="921" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A921" s="63"/>
       <c r="B921" s="63"/>
       <c r="C921" s="63"/>
@@ -41458,7 +41457,7 @@
       <c r="AH921" s="63"/>
       <c r="AI921" s="63"/>
     </row>
-    <row r="922" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A922" s="63"/>
       <c r="B922" s="63"/>
       <c r="C922" s="63"/>
@@ -41495,7 +41494,7 @@
       <c r="AH922" s="63"/>
       <c r="AI922" s="63"/>
     </row>
-    <row r="923" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A923" s="63"/>
       <c r="B923" s="63"/>
       <c r="C923" s="63"/>
@@ -41532,7 +41531,7 @@
       <c r="AH923" s="63"/>
       <c r="AI923" s="63"/>
     </row>
-    <row r="924" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A924" s="63"/>
       <c r="B924" s="63"/>
       <c r="C924" s="63"/>
@@ -41569,7 +41568,7 @@
       <c r="AH924" s="63"/>
       <c r="AI924" s="63"/>
     </row>
-    <row r="925" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A925" s="63"/>
       <c r="B925" s="63"/>
       <c r="C925" s="63"/>
@@ -41606,7 +41605,7 @@
       <c r="AH925" s="63"/>
       <c r="AI925" s="63"/>
     </row>
-    <row r="926" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A926" s="63"/>
       <c r="B926" s="63"/>
       <c r="C926" s="63"/>
@@ -41643,7 +41642,7 @@
       <c r="AH926" s="63"/>
       <c r="AI926" s="63"/>
     </row>
-    <row r="927" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A927" s="63"/>
       <c r="B927" s="63"/>
       <c r="C927" s="63"/>
@@ -41680,7 +41679,7 @@
       <c r="AH927" s="63"/>
       <c r="AI927" s="63"/>
     </row>
-    <row r="928" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A928" s="63"/>
       <c r="B928" s="63"/>
       <c r="C928" s="63"/>
@@ -41717,7 +41716,7 @@
       <c r="AH928" s="63"/>
       <c r="AI928" s="63"/>
     </row>
-    <row r="929" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A929" s="63"/>
       <c r="B929" s="63"/>
       <c r="C929" s="63"/>
@@ -41754,7 +41753,7 @@
       <c r="AH929" s="63"/>
       <c r="AI929" s="63"/>
     </row>
-    <row r="930" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A930" s="63"/>
       <c r="B930" s="63"/>
       <c r="C930" s="63"/>
@@ -41791,7 +41790,7 @@
       <c r="AH930" s="63"/>
       <c r="AI930" s="63"/>
     </row>
-    <row r="931" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A931" s="63"/>
       <c r="B931" s="63"/>
       <c r="C931" s="63"/>
@@ -41828,7 +41827,7 @@
       <c r="AH931" s="63"/>
       <c r="AI931" s="63"/>
     </row>
-    <row r="932" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A932" s="63"/>
       <c r="B932" s="63"/>
       <c r="C932" s="63"/>
@@ -41865,7 +41864,7 @@
       <c r="AH932" s="63"/>
       <c r="AI932" s="63"/>
     </row>
-    <row r="933" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A933" s="63"/>
       <c r="B933" s="63"/>
       <c r="C933" s="63"/>
@@ -41902,7 +41901,7 @@
       <c r="AH933" s="63"/>
       <c r="AI933" s="63"/>
     </row>
-    <row r="934" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A934" s="63"/>
       <c r="B934" s="63"/>
       <c r="C934" s="63"/>
@@ -41939,7 +41938,7 @@
       <c r="AH934" s="63"/>
       <c r="AI934" s="63"/>
     </row>
-    <row r="935" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A935" s="63"/>
       <c r="B935" s="63"/>
       <c r="C935" s="63"/>
@@ -41976,7 +41975,7 @@
       <c r="AH935" s="63"/>
       <c r="AI935" s="63"/>
     </row>
-    <row r="936" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A936" s="63"/>
       <c r="B936" s="63"/>
       <c r="C936" s="63"/>
@@ -42013,7 +42012,7 @@
       <c r="AH936" s="63"/>
       <c r="AI936" s="63"/>
     </row>
-    <row r="937" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A937" s="63"/>
       <c r="B937" s="63"/>
       <c r="C937" s="63"/>
@@ -42050,7 +42049,7 @@
       <c r="AH937" s="63"/>
       <c r="AI937" s="63"/>
     </row>
-    <row r="938" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A938" s="63"/>
       <c r="B938" s="63"/>
       <c r="C938" s="63"/>
@@ -42087,7 +42086,7 @@
       <c r="AH938" s="63"/>
       <c r="AI938" s="63"/>
     </row>
-    <row r="939" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A939" s="63"/>
       <c r="B939" s="63"/>
       <c r="C939" s="63"/>
@@ -42124,7 +42123,7 @@
       <c r="AH939" s="63"/>
       <c r="AI939" s="63"/>
     </row>
-    <row r="940" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A940" s="63"/>
       <c r="B940" s="63"/>
       <c r="C940" s="63"/>
@@ -42161,7 +42160,7 @@
       <c r="AH940" s="63"/>
       <c r="AI940" s="63"/>
     </row>
-    <row r="941" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A941" s="63"/>
       <c r="B941" s="63"/>
       <c r="C941" s="63"/>
@@ -42198,7 +42197,7 @@
       <c r="AH941" s="63"/>
       <c r="AI941" s="63"/>
     </row>
-    <row r="942" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A942" s="63"/>
       <c r="B942" s="63"/>
       <c r="C942" s="63"/>
@@ -42235,7 +42234,7 @@
       <c r="AH942" s="63"/>
       <c r="AI942" s="63"/>
     </row>
-    <row r="943" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A943" s="63"/>
       <c r="B943" s="63"/>
       <c r="C943" s="63"/>
@@ -42272,7 +42271,7 @@
       <c r="AH943" s="63"/>
       <c r="AI943" s="63"/>
     </row>
-    <row r="944" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A944" s="63"/>
       <c r="B944" s="63"/>
       <c r="C944" s="63"/>
@@ -42309,7 +42308,7 @@
       <c r="AH944" s="63"/>
       <c r="AI944" s="63"/>
     </row>
-    <row r="945" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A945" s="63"/>
       <c r="B945" s="63"/>
       <c r="C945" s="63"/>
@@ -42346,7 +42345,7 @@
       <c r="AH945" s="63"/>
       <c r="AI945" s="63"/>
     </row>
-    <row r="946" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A946" s="63"/>
       <c r="B946" s="63"/>
       <c r="C946" s="63"/>
@@ -42383,7 +42382,7 @@
       <c r="AH946" s="63"/>
       <c r="AI946" s="63"/>
     </row>
-    <row r="947" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A947" s="63"/>
       <c r="B947" s="63"/>
       <c r="C947" s="63"/>
@@ -42420,7 +42419,7 @@
       <c r="AH947" s="63"/>
       <c r="AI947" s="63"/>
     </row>
-    <row r="948" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A948" s="63"/>
       <c r="B948" s="63"/>
       <c r="C948" s="63"/>
@@ -42457,7 +42456,7 @@
       <c r="AH948" s="63"/>
       <c r="AI948" s="63"/>
     </row>
-    <row r="949" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A949" s="63"/>
       <c r="B949" s="63"/>
       <c r="C949" s="63"/>
@@ -42494,7 +42493,7 @@
       <c r="AH949" s="63"/>
       <c r="AI949" s="63"/>
     </row>
-    <row r="950" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A950" s="63"/>
       <c r="B950" s="63"/>
       <c r="C950" s="63"/>
@@ -42531,7 +42530,7 @@
       <c r="AH950" s="63"/>
       <c r="AI950" s="63"/>
     </row>
-    <row r="951" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A951" s="63"/>
       <c r="B951" s="63"/>
       <c r="C951" s="63"/>
@@ -42568,7 +42567,7 @@
       <c r="AH951" s="63"/>
       <c r="AI951" s="63"/>
     </row>
-    <row r="952" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A952" s="63"/>
       <c r="B952" s="63"/>
       <c r="C952" s="63"/>
@@ -42605,7 +42604,7 @@
       <c r="AH952" s="63"/>
       <c r="AI952" s="63"/>
     </row>
-    <row r="953" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A953" s="63"/>
       <c r="B953" s="63"/>
       <c r="C953" s="63"/>
@@ -42642,7 +42641,7 @@
       <c r="AH953" s="63"/>
       <c r="AI953" s="63"/>
     </row>
-    <row r="954" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A954" s="63"/>
       <c r="B954" s="63"/>
       <c r="C954" s="63"/>
@@ -42679,7 +42678,7 @@
       <c r="AH954" s="63"/>
       <c r="AI954" s="63"/>
     </row>
-    <row r="955" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A955" s="63"/>
       <c r="B955" s="63"/>
       <c r="C955" s="63"/>
@@ -42716,7 +42715,7 @@
       <c r="AH955" s="63"/>
       <c r="AI955" s="63"/>
     </row>
-    <row r="956" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A956" s="63"/>
       <c r="B956" s="63"/>
       <c r="C956" s="63"/>
@@ -42753,7 +42752,7 @@
       <c r="AH956" s="63"/>
       <c r="AI956" s="63"/>
     </row>
-    <row r="957" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A957" s="63"/>
       <c r="B957" s="63"/>
       <c r="C957" s="63"/>
@@ -42790,7 +42789,7 @@
       <c r="AH957" s="63"/>
       <c r="AI957" s="63"/>
     </row>
-    <row r="958" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A958" s="63"/>
       <c r="B958" s="63"/>
       <c r="C958" s="63"/>
@@ -42827,7 +42826,7 @@
       <c r="AH958" s="63"/>
       <c r="AI958" s="63"/>
     </row>
-    <row r="959" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A959" s="63"/>
       <c r="B959" s="63"/>
       <c r="C959" s="63"/>
@@ -42864,7 +42863,7 @@
       <c r="AH959" s="63"/>
       <c r="AI959" s="63"/>
     </row>
-    <row r="960" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A960" s="63"/>
       <c r="B960" s="63"/>
       <c r="C960" s="63"/>
@@ -42901,7 +42900,7 @@
       <c r="AH960" s="63"/>
       <c r="AI960" s="63"/>
     </row>
-    <row r="961" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A961" s="63"/>
       <c r="B961" s="63"/>
       <c r="C961" s="63"/>
@@ -42938,7 +42937,7 @@
       <c r="AH961" s="63"/>
       <c r="AI961" s="63"/>
     </row>
-    <row r="962" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A962" s="63"/>
       <c r="B962" s="63"/>
       <c r="C962" s="63"/>
@@ -42975,7 +42974,7 @@
       <c r="AH962" s="63"/>
       <c r="AI962" s="63"/>
     </row>
-    <row r="963" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A963" s="63"/>
       <c r="B963" s="63"/>
       <c r="C963" s="63"/>
@@ -43012,7 +43011,7 @@
       <c r="AH963" s="63"/>
       <c r="AI963" s="63"/>
     </row>
-    <row r="964" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A964" s="63"/>
       <c r="B964" s="63"/>
       <c r="C964" s="63"/>
@@ -43049,7 +43048,7 @@
       <c r="AH964" s="63"/>
       <c r="AI964" s="63"/>
     </row>
-    <row r="965" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A965" s="63"/>
       <c r="B965" s="63"/>
       <c r="C965" s="63"/>
@@ -43086,7 +43085,7 @@
       <c r="AH965" s="63"/>
       <c r="AI965" s="63"/>
     </row>
-    <row r="966" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A966" s="63"/>
       <c r="B966" s="63"/>
       <c r="C966" s="63"/>
@@ -43123,7 +43122,7 @@
       <c r="AH966" s="63"/>
       <c r="AI966" s="63"/>
     </row>
-    <row r="967" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A967" s="63"/>
       <c r="B967" s="63"/>
       <c r="C967" s="63"/>
@@ -43160,7 +43159,7 @@
       <c r="AH967" s="63"/>
       <c r="AI967" s="63"/>
     </row>
-    <row r="968" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A968" s="63"/>
       <c r="B968" s="63"/>
       <c r="C968" s="63"/>
@@ -43197,7 +43196,7 @@
       <c r="AH968" s="63"/>
       <c r="AI968" s="63"/>
     </row>
-    <row r="969" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A969" s="63"/>
       <c r="B969" s="63"/>
       <c r="C969" s="63"/>
@@ -43234,7 +43233,7 @@
       <c r="AH969" s="63"/>
       <c r="AI969" s="63"/>
     </row>
-    <row r="970" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A970" s="63"/>
       <c r="B970" s="63"/>
       <c r="C970" s="63"/>
@@ -43271,7 +43270,7 @@
       <c r="AH970" s="63"/>
       <c r="AI970" s="63"/>
     </row>
-    <row r="971" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="971" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A971" s="63"/>
       <c r="B971" s="63"/>
       <c r="C971" s="63"/>
@@ -43308,7 +43307,7 @@
       <c r="AH971" s="63"/>
       <c r="AI971" s="63"/>
     </row>
-    <row r="972" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A972" s="63"/>
       <c r="B972" s="63"/>
       <c r="C972" s="63"/>
@@ -43345,7 +43344,7 @@
       <c r="AH972" s="63"/>
       <c r="AI972" s="63"/>
     </row>
-    <row r="973" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A973" s="63"/>
       <c r="B973" s="63"/>
       <c r="C973" s="63"/>
@@ -43382,7 +43381,7 @@
       <c r="AH973" s="63"/>
       <c r="AI973" s="63"/>
     </row>
-    <row r="974" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A974" s="63"/>
       <c r="B974" s="63"/>
       <c r="C974" s="63"/>
@@ -43419,7 +43418,7 @@
       <c r="AH974" s="63"/>
       <c r="AI974" s="63"/>
     </row>
-    <row r="975" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A975" s="63"/>
       <c r="B975" s="63"/>
       <c r="C975" s="63"/>
@@ -43456,7 +43455,7 @@
       <c r="AH975" s="63"/>
       <c r="AI975" s="63"/>
     </row>
-    <row r="976" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A976" s="63"/>
       <c r="B976" s="63"/>
       <c r="C976" s="63"/>
@@ -43493,7 +43492,7 @@
       <c r="AH976" s="63"/>
       <c r="AI976" s="63"/>
     </row>
-    <row r="977" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A977" s="63"/>
       <c r="B977" s="63"/>
       <c r="C977" s="63"/>
@@ -43530,7 +43529,7 @@
       <c r="AH977" s="63"/>
       <c r="AI977" s="63"/>
     </row>
-    <row r="978" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A978" s="63"/>
       <c r="B978" s="63"/>
       <c r="C978" s="63"/>
@@ -43567,7 +43566,7 @@
       <c r="AH978" s="63"/>
       <c r="AI978" s="63"/>
     </row>
-    <row r="979" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A979" s="63"/>
       <c r="B979" s="63"/>
       <c r="C979" s="63"/>
@@ -43604,7 +43603,7 @@
       <c r="AH979" s="63"/>
       <c r="AI979" s="63"/>
     </row>
-    <row r="980" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A980" s="63"/>
       <c r="B980" s="63"/>
       <c r="C980" s="63"/>
@@ -43641,7 +43640,7 @@
       <c r="AH980" s="63"/>
       <c r="AI980" s="63"/>
     </row>
-    <row r="981" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A981" s="63"/>
       <c r="B981" s="63"/>
       <c r="C981" s="63"/>
@@ -43678,7 +43677,7 @@
       <c r="AH981" s="63"/>
       <c r="AI981" s="63"/>
     </row>
-    <row r="982" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A982" s="63"/>
       <c r="B982" s="63"/>
       <c r="C982" s="63"/>
@@ -43715,7 +43714,7 @@
       <c r="AH982" s="63"/>
       <c r="AI982" s="63"/>
     </row>
-    <row r="983" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A983" s="63"/>
       <c r="B983" s="63"/>
       <c r="C983" s="63"/>
@@ -43752,7 +43751,7 @@
       <c r="AH983" s="63"/>
       <c r="AI983" s="63"/>
     </row>
-    <row r="984" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A984" s="63"/>
       <c r="B984" s="63"/>
       <c r="C984" s="63"/>
@@ -43789,7 +43788,7 @@
       <c r="AH984" s="63"/>
       <c r="AI984" s="63"/>
     </row>
-    <row r="985" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A985" s="63"/>
       <c r="B985" s="63"/>
       <c r="C985" s="63"/>
@@ -43826,7 +43825,7 @@
       <c r="AH985" s="63"/>
       <c r="AI985" s="63"/>
     </row>
-    <row r="986" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A986" s="63"/>
       <c r="B986" s="63"/>
       <c r="C986" s="63"/>
@@ -43863,7 +43862,7 @@
       <c r="AH986" s="63"/>
       <c r="AI986" s="63"/>
     </row>
-    <row r="987" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A987" s="63"/>
       <c r="B987" s="63"/>
       <c r="C987" s="63"/>
@@ -43900,7 +43899,7 @@
       <c r="AH987" s="63"/>
       <c r="AI987" s="63"/>
     </row>
-    <row r="988" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A988" s="63"/>
       <c r="B988" s="63"/>
       <c r="C988" s="63"/>
@@ -43937,7 +43936,7 @@
       <c r="AH988" s="63"/>
       <c r="AI988" s="63"/>
     </row>
-    <row r="989" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A989" s="63"/>
       <c r="B989" s="63"/>
       <c r="C989" s="63"/>
@@ -43974,7 +43973,7 @@
       <c r="AH989" s="63"/>
       <c r="AI989" s="63"/>
     </row>
-    <row r="990" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A990" s="63"/>
       <c r="B990" s="63"/>
       <c r="C990" s="63"/>
@@ -44011,7 +44010,7 @@
       <c r="AH990" s="63"/>
       <c r="AI990" s="63"/>
     </row>
-    <row r="991" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A991" s="63"/>
       <c r="B991" s="63"/>
       <c r="C991" s="63"/>
@@ -44048,7 +44047,7 @@
       <c r="AH991" s="63"/>
       <c r="AI991" s="63"/>
     </row>
-    <row r="992" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="992" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A992" s="63"/>
       <c r="B992" s="63"/>
       <c r="C992" s="63"/>
@@ -44085,7 +44084,7 @@
       <c r="AH992" s="63"/>
       <c r="AI992" s="63"/>
     </row>
-    <row r="993" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="993" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A993" s="63"/>
       <c r="B993" s="63"/>
       <c r="C993" s="63"/>
@@ -44122,7 +44121,7 @@
       <c r="AH993" s="63"/>
       <c r="AI993" s="63"/>
     </row>
-    <row r="994" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="994" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A994" s="63"/>
       <c r="B994" s="63"/>
       <c r="C994" s="63"/>
@@ -44159,7 +44158,7 @@
       <c r="AH994" s="63"/>
       <c r="AI994" s="63"/>
     </row>
-    <row r="995" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="995" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A995" s="63"/>
       <c r="B995" s="63"/>
       <c r="C995" s="63"/>
@@ -44196,7 +44195,7 @@
       <c r="AH995" s="63"/>
       <c r="AI995" s="63"/>
     </row>
-    <row r="996" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="996" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A996" s="63"/>
       <c r="B996" s="63"/>
       <c r="C996" s="63"/>
@@ -44233,7 +44232,7 @@
       <c r="AH996" s="63"/>
       <c r="AI996" s="63"/>
     </row>
-    <row r="997" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="997" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A997" s="63"/>
       <c r="B997" s="63"/>
       <c r="C997" s="63"/>
@@ -44270,7 +44269,7 @@
       <c r="AH997" s="63"/>
       <c r="AI997" s="63"/>
     </row>
-    <row r="998" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="998" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A998" s="63"/>
       <c r="B998" s="63"/>
       <c r="C998" s="63"/>
@@ -44307,7 +44306,7 @@
       <c r="AH998" s="63"/>
       <c r="AI998" s="63"/>
     </row>
-    <row r="999" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="999" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A999" s="63"/>
       <c r="B999" s="63"/>
       <c r="C999" s="63"/>
@@ -44348,7 +44347,7 @@
   <customSheetViews>
     <customSheetView guid="{D44CA473-CB1C-4267-AF30-5A0692813088}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB194" xr:uid="{00000000-0000-0000-0000-000000000000}">
+      <autoFilter ref="A1:AB194">
         <filterColumn colId="4">
           <filters>
             <filter val="ADRIAN ALONSO ARBOLEDA"/>
@@ -44403,25 +44402,25 @@
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="T71" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="T72" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="T106" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="T108" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="T114" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="T115" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="T116" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="T117" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="T118" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="T119" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="T122" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="T125" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="T126" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="S128" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="T129" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="T130" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="T131" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="T134" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="S138" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="T71" r:id="rId1"/>
+    <hyperlink ref="T72" r:id="rId2"/>
+    <hyperlink ref="T106" r:id="rId3"/>
+    <hyperlink ref="T108" r:id="rId4"/>
+    <hyperlink ref="T114" r:id="rId5"/>
+    <hyperlink ref="T115" r:id="rId6"/>
+    <hyperlink ref="T116" r:id="rId7"/>
+    <hyperlink ref="T117" r:id="rId8"/>
+    <hyperlink ref="T118" r:id="rId9"/>
+    <hyperlink ref="T119" r:id="rId10"/>
+    <hyperlink ref="T122" r:id="rId11"/>
+    <hyperlink ref="T125" r:id="rId12"/>
+    <hyperlink ref="T126" r:id="rId13"/>
+    <hyperlink ref="S128" r:id="rId14"/>
+    <hyperlink ref="T129" r:id="rId15"/>
+    <hyperlink ref="T130" r:id="rId16"/>
+    <hyperlink ref="T131" r:id="rId17"/>
+    <hyperlink ref="T134" r:id="rId18"/>
+    <hyperlink ref="S138" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
